--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$151</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="190">
   <si>
     <t>AltCats</t>
   </si>
@@ -529,6 +529,66 @@
   </si>
   <si>
     <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>functions.add(new Function(</t>
+  </si>
+  <si>
+    <t>));</t>
+  </si>
+  <si>
+    <t>CompatibleProducts</t>
+  </si>
+  <si>
+    <t>COALESCE()</t>
+  </si>
+  <si>
+    <t>You can invoke nothing on it</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Data[\"\"]</t>
+  </si>
+  <si>
+    <t>Gtin</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>HasValue</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>ProductPackage</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>IsBiggerThan()</t>
+  </si>
+  <si>
+    <t>BulletFeatures[]</t>
+  </si>
+  <si>
+    <t>Ksp[]</t>
+  </si>
+  <si>
+    <t>\"\"</t>
   </si>
 </sst>
 </file>
@@ -544,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +623,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -576,13 +648,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,11 +959,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I113" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P135"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -909,7 +982,7 @@
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -955,11 +1028,17 @@
       <c r="O1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1000,17 +1079,17 @@
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="P2" t="str">
-        <f>SUBSTITUTE(CONCATENATE(I2,$P$1,J2,$P$1,K2,$P$1,L2,$P$1,M2,$P$1,N2,$P$1,O2),", """"","")</f>
-        <v>"Main", "AlternativeCategory", "ProductCategories"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7" t="str">
+        <f>SUBSTITUTE(CONCATENATE($Q$1,I2,$P$1,J2,$P$1,K2,$P$1,L2,$P$1,M2,$P$1,N2,$P$1,O2,$R$1),", """"","")</f>
+        <v>functions.add(new Function("Main", "AlternativeCategory", "ProductCategories"));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>156</v>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>156</v>
@@ -1023,6 +1102,9 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I66" si="1">CONCATENATE("""",A3,"""")</f>
@@ -1030,7 +1112,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="2">CONCATENATE("""",B3,"""")</f>
-        <v>"Boolean"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K66" si="3">CONCATENATE("""",D3,"""")</f>
@@ -1046,23 +1128,23 @@
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="6">CONCATENATE("""",G3,"""")</f>
-        <v>""</v>
+        <v>"String"</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O66" si="7">CONCATENATE("""",H3,"""")</f>
         <v>""</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="8">SUBSTITUTE(CONCATENATE(I3,$P$1,J3,$P$1,K3,$P$1,L3,$P$1,M3,$P$1,N3,$P$1,O3),", """"","")</f>
-        <v>"HasText", "Boolean", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="7" t="str">
+        <f t="shared" ref="P3:P66" si="8">SUBSTITUTE(CONCATENATE($Q$1,I3,$P$1,J3,$P$1,K3,$P$1,L3,$P$1,M3,$P$1,N3,$P$1,O3,$R$1),", """"","")</f>
+        <v>functions.add(new Function("HasText", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>156</v>
+      <c r="B4" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>156</v>
@@ -1075,6 +1157,9 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1082,7 +1167,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="2"/>
-        <v>"Boolean"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
@@ -1098,23 +1183,23 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"String"</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"IsEmpty", "Boolean", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("IsEmpty", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>156</v>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>156</v>
@@ -1128,7 +1213,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="2"/>
-        <v>"Boolean"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
@@ -1150,12 +1235,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"IsDescendantOf()", "Boolean", "AlternativeCategory"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("IsDescendantOf()", "ExpressionResultLiteral", "AlternativeCategory"));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1196,12 +1281,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"LaunchDate", "DateTime", "Sku"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("LaunchDate", "DateTime", "Sku"));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -1242,17 +1327,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"GetDateTime()", "DateTimeOffset", "SystemObject"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("GetDateTime()", "DateTimeOffset", "SystemObject"));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>159</v>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -1275,7 +1360,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>"Decimal"</v>
+        <v>"Int32"</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
@@ -1297,17 +1382,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Count", "Decimal", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("Count", "Int32", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute"));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>159</v>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -1324,7 +1409,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>"Decimal"</v>
+        <v>"Int32"</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
@@ -1346,12 +1431,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Total", "Decimal", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("Total", "Int32", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1392,12 +1477,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"BestImage", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("BestImage", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,12 +1523,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"BoxContents", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("BoxContents", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1484,12 +1569,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"KeySellingPoints", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("KeySellingPoints", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1530,12 +1615,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Ksp", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("Ksp", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1576,12 +1661,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P14" t="str">
+      <c r="P14" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"MarketingText", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("MarketingText", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1622,12 +1707,12 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P15" t="str">
+      <c r="P15" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Msds", "DigitalContentItem", "DigitalContent"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>functions.add(new Function("Msds", "DigitalContentItem", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1668,9 +1753,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P16" t="str">
+      <c r="P16" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ProductFeatures", "DigitalContentItem", "DigitalContent"</v>
+        <v>functions.add(new Function("ProductFeatures", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1714,9 +1799,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P17" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ProductSheet", "DigitalContentItem", "DigitalContent"</v>
+        <v>functions.add(new Function("ProductSheet", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1760,9 +1845,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P18" t="str">
+      <c r="P18" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"QuickStartGuide", "DigitalContentItem", "DigitalContent"</v>
+        <v>functions.add(new Function("QuickStartGuide", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1806,9 +1891,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P19" t="str">
+      <c r="P19" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Thumbnail", "DigitalContentItem", "DigitalContent"</v>
+        <v>functions.add(new Function("Thumbnail", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1852,9 +1937,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P20" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"UserManual", "DigitalContentItem", "DigitalContent"</v>
+        <v>functions.add(new Function("UserManual", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1898,17 +1983,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P21" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Distinct", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Distinct", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
-        <v>160</v>
+      <c r="B22" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
@@ -1922,7 +2007,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="3"/>
@@ -1944,9 +2029,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P22" t="str">
+      <c r="P22" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Min()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Min()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1990,17 +2075,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P23" t="str">
+      <c r="P23" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"MinMax()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("MinMax()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
-        <v>160</v>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>160</v>
@@ -2014,7 +2099,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="3"/>
@@ -2036,17 +2121,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P24" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Max()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Max()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
-        <v>160</v>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>160</v>
@@ -2060,7 +2145,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
@@ -2082,17 +2167,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P25" t="str">
+      <c r="P25" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Last()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Last()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
-        <v>160</v>
+      <c r="B26" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
@@ -2106,7 +2191,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
@@ -2128,9 +2213,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P26" t="str">
+      <c r="P26" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"FlattenWithAnd()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("FlattenWithAnd()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2180,17 +2265,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P27" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"HtmlEncode()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("HtmlEncode()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
-        <v>160</v>
+      <c r="B28" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>160</v>
@@ -2204,7 +2289,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="3"/>
@@ -2226,9 +2311,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P28" t="str">
+      <c r="P28" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"First()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("First()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2272,9 +2357,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P29" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"DiscardNulls()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("DiscardNulls()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2324,9 +2409,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P30" t="str">
+      <c r="P30" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ExtractDecimals()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ExtractDecimals()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2376,9 +2461,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P31" t="str">
+      <c r="P31" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ToLower()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToLower()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2428,9 +2513,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P32" t="str">
+      <c r="P32" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ToLowerFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToLowerFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2480,9 +2565,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P33" t="str">
+      <c r="P33" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ToTitleCase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToTitleCase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2532,9 +2617,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P34" t="str">
+      <c r="P34" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ToUpper()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToUpper()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2584,9 +2669,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P35" t="str">
+      <c r="P35" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ToUpperFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToUpperFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2636,9 +2721,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P36" t="str">
+      <c r="P36" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Erase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Erase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2688,17 +2773,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P37" t="str">
+      <c r="P37" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"EraseTextSurroundedBy()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("EraseTextSurroundedBy()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B38" t="s">
-        <v>160</v>
+      <c r="B38" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>160</v>
@@ -2712,7 +2797,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
@@ -2734,17 +2819,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P38" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"GetLine()", "ExpressionResult", "Specs"</v>
+        <v>functions.add(new Function("GetLine()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B39" t="s">
-        <v>160</v>
+      <c r="B39" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>160</v>
@@ -2758,7 +2843,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
@@ -2780,17 +2865,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P39" t="str">
+      <c r="P39" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"GetLineBody()", "ExpressionResult", "Specs"</v>
+        <v>functions.add(new Function("GetLineBody()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s">
-        <v>160</v>
+      <c r="B40" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>160</v>
@@ -2804,7 +2889,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
@@ -2826,9 +2911,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P40" t="str">
+      <c r="P40" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Flatten()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Flatten()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -2878,9 +2963,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P41" t="str">
+      <c r="P41" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"IfLike()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("IfLike()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2930,9 +3015,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P42" t="str">
+      <c r="P42" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"IfLongerThan()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("IfLongerThan()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2954,6 +3039,9 @@
       <c r="F43" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G43" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="I43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Pluralize()"</v>
@@ -2976,15 +3064,15 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"Int32"</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P43" t="str">
+      <c r="P43" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "Int32"));</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3006,6 +3094,9 @@
       <c r="F44" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G44" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="I44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Postfix()"</v>
@@ -3028,15 +3119,15 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"String"</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P44" t="str">
+      <c r="P44" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Postfix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Postfix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3058,6 +3149,9 @@
       <c r="F45" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G45" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="I45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Prefix()"</v>
@@ -3080,15 +3174,15 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"String"</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P45" t="str">
+      <c r="P45" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Prefix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Prefix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -3138,9 +3232,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P46" t="str">
+      <c r="P46" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"RegexReplace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("RegexReplace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3190,9 +3284,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P47" t="str">
+      <c r="P47" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Replace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Replace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3214,6 +3308,9 @@
       <c r="F48" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G48" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="I48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Shorten()"</v>
@@ -3236,23 +3333,23 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"String"</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P48" t="str">
+      <c r="P48" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Shorten()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Shorten()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B49" t="s">
-        <v>160</v>
+      <c r="B49" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C49" t="s">
         <v>160</v>
@@ -3272,7 +3369,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
@@ -3294,9 +3391,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P49" t="str">
+      <c r="P49" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Split()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Split()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -3340,9 +3437,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P50" t="str">
+      <c r="P50" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"UseSeparators()", "ExpressionResult", "ExpressionResultList"</v>
+        <v>functions.add(new Function("UseSeparators()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -3392,9 +3489,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P51" t="str">
+      <c r="P51" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"InvariantValues", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("InvariantValues", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -3444,9 +3541,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P52" t="str">
+      <c r="P52" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -3493,9 +3590,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P53" t="str">
+      <c r="P53" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ValuesAndUnits", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("ValuesAndUnits", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -3542,9 +3639,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P54" t="str">
+      <c r="P54" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ValuesAndUnitsUSM", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("ValuesAndUnitsUSM", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3594,9 +3691,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P55" t="str">
+      <c r="P55" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"ValuesUSM", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("ValuesUSM", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3640,9 +3737,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P56" t="str">
+      <c r="P56" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Format()", "ExpressionResultList", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Format()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3686,9 +3783,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P57" t="str">
+      <c r="P57" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Skip()", "ExpressionResultList", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Skip()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3732,9 +3829,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P58" t="str">
+      <c r="P58" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Take()", "ExpressionResultList", "ExpressionResultList"</v>
+        <v>functions.add(new Function("Take()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3784,9 +3881,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P59" t="str">
+      <c r="P59" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Where()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Where()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3836,17 +3933,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P60" t="str">
+      <c r="P60" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"WhereNot()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("WhereNot()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61" t="s">
-        <v>161</v>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C61" t="s">
         <v>161</v>
@@ -3860,7 +3957,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="3"/>
@@ -3882,9 +3979,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P61" t="str">
+      <c r="P61" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"BulletFeatures", "IEnumerable`1", "TemplexGenerator"</v>
+        <v>functions.add(new Function("BulletFeatures", "ExpressionResultList", "TemplexGenerator"));</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3928,9 +4025,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P62" t="str">
+      <c r="P62" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"CategoryCodes", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("CategoryCodes", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3974,17 +4071,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P63" t="str">
+      <c r="P63" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"CategoryKeys", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("CategoryKeys", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>161</v>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C64" t="s">
         <v>161</v>
@@ -3998,7 +4095,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="3"/>
@@ -4020,9 +4117,9 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P64" t="str">
+      <c r="P64" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"Colors", "IEnumerable`1", "Sku"</v>
+        <v>functions.add(new Function("Colors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4066,17 +4163,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P65" t="str">
+      <c r="P65" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"CustomerPns", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("CustomerPns", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B66" t="s">
-        <v>161</v>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C66" t="s">
         <v>161</v>
@@ -4090,7 +4187,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="3"/>
@@ -4112,17 +4209,17 @@
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P66" t="str">
+      <c r="P66" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>"FancyColors", "IEnumerable`1", "Sku"</v>
+        <v>functions.add(new Function("FancyColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B67" t="s">
-        <v>161</v>
+      <c r="B67" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C67" t="s">
         <v>161</v>
@@ -4131,44 +4228,44 @@
         <v>130</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f t="shared" ref="I67:I130" si="9">CONCATENATE("""",A67,"""")</f>
+        <f t="shared" ref="I67:I131" si="9">CONCATENATE("""",A67,"""")</f>
         <v>"InvariantColors"</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J130" si="10">CONCATENATE("""",B67,"""")</f>
-        <v>"IEnumerable`1"</v>
+        <f t="shared" ref="J67:J131" si="10">CONCATENATE("""",B67,"""")</f>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="11">CONCATENATE("""",D67,"""")</f>
+        <f t="shared" ref="K67:K131" si="11">CONCATENATE("""",D67,"""")</f>
         <v>"Sku"</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L130" si="12">CONCATENATE("""",E67,"""")</f>
+        <f t="shared" ref="L67:L131" si="12">CONCATENATE("""",E67,"""")</f>
         <v>""</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="13">CONCATENATE("""",F67,"""")</f>
+        <f t="shared" ref="M67:M131" si="13">CONCATENATE("""",F67,"""")</f>
         <v>""</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N130" si="14">CONCATENATE("""",G67,"""")</f>
+        <f t="shared" ref="N67:N131" si="14">CONCATENATE("""",G67,"""")</f>
         <v>""</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O130" si="15">CONCATENATE("""",H67,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P67" t="str">
-        <f t="shared" ref="P67:P130" si="16">SUBSTITUTE(CONCATENATE(I67,$P$1,J67,$P$1,K67,$P$1,L67,$P$1,M67,$P$1,N67,$P$1,O67),", """"","")</f>
-        <v>"InvariantColors", "IEnumerable`1", "Sku"</v>
+        <f t="shared" ref="O67:O131" si="15">CONCATENATE("""",H67,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P67" s="7" t="str">
+        <f t="shared" ref="P67:P131" si="16">SUBSTITUTE(CONCATENATE($Q$1,I67,$P$1,J67,$P$1,K67,$P$1,L67,$P$1,M67,$P$1,N67,$P$1,O67,$R$1),", """"","")</f>
+        <v>functions.add(new Function("InvariantColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B68" t="s">
-        <v>161</v>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -4182,7 +4279,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="11"/>
@@ -4204,9 +4301,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P68" t="str">
+      <c r="P68" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Keywords", "IEnumerable`1", "Sku"</v>
+        <v>functions.add(new Function("Keywords", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4250,9 +4347,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P69" t="str">
+      <c r="P69" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ManufacturerNames", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("ManufacturerNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4296,9 +4393,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P70" t="str">
+      <c r="P70" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ModelNames", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("ModelNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4342,9 +4439,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P71" t="str">
+      <c r="P71" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductIds", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("ProductIds", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -4388,9 +4485,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P72" t="str">
+      <c r="P72" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductLineNames", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("ProductLineNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4434,17 +4531,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P73" t="str">
+      <c r="P73" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductNames", "IEnumerable`1", "RelatedProductList"</v>
+        <v>functions.add(new Function("ProductNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="s">
-        <v>161</v>
+      <c r="B74" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C74" t="s">
         <v>161</v>
@@ -4458,7 +4555,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="11"/>
@@ -4480,9 +4577,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P74" t="str">
+      <c r="P74" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"GetLines()", "IEnumerable`1", "Specs"</v>
+        <v>functions.add(new Function("GetLines()", "ExpressionResultList", "Specs"));</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -4526,9 +4623,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P75" t="str">
+      <c r="P75" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"GetAncestry()", "IEnumerable`1", "AlternativeCategory"</v>
+        <v>functions.add(new Function("GetAncestry()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -4572,9 +4669,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P76" t="str">
+      <c r="P76" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"GetDescendants()", "IEnumerable`1", "AlternativeCategory"</v>
+        <v>functions.add(new Function("GetDescendants()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -4618,9 +4715,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P77" t="str">
+      <c r="P77" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"CategoryKey", "Int32", "RelatedProduct"</v>
+        <v>functions.add(new Function("CategoryKey", "Int32", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4642,6 +4739,9 @@
       <c r="F78" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G78" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"Length"</v>
@@ -4664,15 +4764,15 @@
       </c>
       <c r="N78" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"ProductPackage"</v>
       </c>
       <c r="O78" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P78" t="str">
+      <c r="P78" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Length", "Int32", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Length", "Int32", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4716,9 +4816,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P79" t="str">
+      <c r="P79" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"LineCount", "Int32", "Specs"</v>
+        <v>functions.add(new Function("LineCount", "Int32", "Specs"));</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4762,9 +4862,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P80" t="str">
+      <c r="P80" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"NonOemAccessories", "Int32", "Sku"</v>
+        <v>functions.add(new Function("NonOemAccessories", "Int32", "Sku"));</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,9 +4908,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P81" t="str">
+      <c r="P81" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Order", "Int32", "SpecLine"</v>
+        <v>functions.add(new Function("Order", "Int32", "SpecLine"));</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -4857,9 +4957,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P82" t="str">
+      <c r="P82" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"PackQuantity", "Int32", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("PackQuantity", "Int32", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -4906,9 +5006,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P83" t="str">
+      <c r="P83" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductId", "Int32", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("ProductId", "Int32", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -4952,9 +5052,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P84" t="str">
+      <c r="P84" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"AltCats", "List`1", "ProductCategories"</v>
+        <v>functions.add(new Function("AltCats", "List`1", "ProductCategories"));</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -4998,17 +5098,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P85" t="str">
+      <c r="P85" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"BestImages", "List`1", "DigitalContent"</v>
+        <v>functions.add(new Function("BestImages", "List`1", "DigitalContent"));</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B86" t="s">
-        <v>164</v>
+      <c r="B86" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C86" t="s">
         <v>164</v>
@@ -5022,7 +5122,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="10"/>
-        <v>"Nullable`1"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="11"/>
@@ -5044,17 +5144,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P86" t="str">
+      <c r="P86" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Round()", "Nullable`1", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("Round()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B87" t="s">
-        <v>164</v>
+      <c r="B87" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C87" t="s">
         <v>164</v>
@@ -5068,7 +5168,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" si="10"/>
-        <v>"Nullable`1"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="11"/>
@@ -5090,17 +5190,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P87" t="str">
+      <c r="P87" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"AtLeast()", "Nullable`1", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("AtLeast()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B88" t="s">
-        <v>164</v>
+      <c r="B88" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>164</v>
@@ -5114,7 +5214,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="10"/>
-        <v>"Nullable`1"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="11"/>
@@ -5136,17 +5236,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P88" t="str">
+      <c r="P88" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"AtMost()", "Nullable`1", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("AtMost()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B89" t="s">
-        <v>164</v>
+      <c r="B89" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>164</v>
@@ -5160,7 +5260,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="10"/>
-        <v>"Nullable`1"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="11"/>
@@ -5182,9 +5282,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P89" t="str">
+      <c r="P89" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"MultiplyBy()", "Nullable`1", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("MultiplyBy()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5228,9 +5328,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P90" t="str">
+      <c r="P90" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Match()", "PdmAttributeSet", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Match()", "PdmAttributeSet", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5274,9 +5374,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P91" t="str">
+      <c r="P91" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereUnit()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("WhereUnit()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5320,9 +5420,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P92" t="str">
+      <c r="P92" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereUnitOrValue()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("WhereUnitOrValue()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5366,9 +5466,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P93" t="str">
+      <c r="P93" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereCategory()", "RelatedProductList", "RelatedProductList"</v>
+        <v>functions.add(new Function("WhereCategory()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5412,9 +5512,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P94" t="str">
+      <c r="P94" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereManufacturer()", "RelatedProductList", "RelatedProductList"</v>
+        <v>functions.add(new Function("WhereManufacturer()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5458,9 +5558,9 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P95" t="str">
+      <c r="P95" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereModelName()", "RelatedProductList", "RelatedProductList"</v>
+        <v>functions.add(new Function("WhereModelName()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5504,17 +5604,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P96" t="str">
+      <c r="P96" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"WhereProductLine()", "RelatedProductList", "RelatedProductList"</v>
+        <v>functions.add(new Function("WhereProductLine()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" t="s">
-        <v>165</v>
+      <c r="B97" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>165</v>
@@ -5528,7 +5628,7 @@
       </c>
       <c r="J97" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="11"/>
@@ -5550,17 +5650,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P97" t="str">
+      <c r="P97" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Body", "String", "SpecLine"</v>
+        <v>functions.add(new Function("Body", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B98" t="s">
-        <v>165</v>
+      <c r="B98" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C98" t="s">
         <v>165</v>
@@ -5577,7 +5677,7 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="11"/>
@@ -5599,17 +5699,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P98" t="str">
+      <c r="P98" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Brand", "String", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("Brand", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="s">
-        <v>165</v>
+      <c r="B99" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>165</v>
@@ -5629,7 +5729,7 @@
       </c>
       <c r="J99" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="11"/>
@@ -5651,17 +5751,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P99" t="str">
+      <c r="P99" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"CategoryCode", "String", "ProductCategories", "RelatedProduct", "RelatedProductList"</v>
+        <v>functions.add(new Function("CategoryCode", "ExpressionResultLiteral", "ProductCategories", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B100" t="s">
-        <v>165</v>
+      <c r="B100" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C100" t="s">
         <v>165</v>
@@ -5678,7 +5778,7 @@
       </c>
       <c r="J100" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="11"/>
@@ -5700,17 +5800,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P100" t="str">
+      <c r="P100" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"CustomerPn", "String", "RelatedProduct", "RelatedProductList"</v>
+        <v>functions.add(new Function("CustomerPn", "ExpressionResultLiteral", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B101" t="s">
-        <v>165</v>
+      <c r="B101" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C101" t="s">
         <v>165</v>
@@ -5727,7 +5827,7 @@
       </c>
       <c r="J101" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="11"/>
@@ -5749,17 +5849,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P101" t="str">
+      <c r="P101" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Description", "String", "Sku", "DigitalContentItem"</v>
+        <v>functions.add(new Function("Description", "ExpressionResultLiteral", "Sku", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B102" t="s">
-        <v>165</v>
+      <c r="B102" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C102" t="s">
         <v>165</v>
@@ -5779,7 +5879,7 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="11"/>
@@ -5801,17 +5901,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P102" t="str">
+      <c r="P102" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"GroupName", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("GroupName", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B103" t="s">
-        <v>165</v>
+      <c r="B103" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C103" t="s">
         <v>165</v>
@@ -5825,7 +5925,7 @@
       </c>
       <c r="J103" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="11"/>
@@ -5847,17 +5947,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P103" t="str">
+      <c r="P103" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Header", "String", "SpecLine"</v>
+        <v>functions.add(new Function("Header", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B104" t="s">
-        <v>165</v>
+      <c r="B104" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C104" t="s">
         <v>165</v>
@@ -5877,7 +5977,7 @@
       </c>
       <c r="J104" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="11"/>
@@ -5899,17 +5999,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P104" t="str">
+      <c r="P104" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Invariant", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Invariant", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B105" t="s">
-        <v>165</v>
+      <c r="B105" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>165</v>
@@ -5929,7 +6029,7 @@
       </c>
       <c r="J105" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="11"/>
@@ -5951,17 +6051,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P105" t="str">
+      <c r="P105" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"InvariantUnit", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("InvariantUnit", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B106" t="s">
-        <v>165</v>
+      <c r="B106" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C106" t="s">
         <v>165</v>
@@ -5975,7 +6075,7 @@
       </c>
       <c r="J106" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="11"/>
@@ -5997,17 +6097,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P106" t="str">
+      <c r="P106" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ItemName", "String", "Sku"</v>
+        <v>functions.add(new Function("ItemName", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B107" t="s">
-        <v>165</v>
+      <c r="B107" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C107" t="s">
         <v>165</v>
@@ -6021,7 +6121,7 @@
       </c>
       <c r="J107" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="11"/>
@@ -6043,17 +6143,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P107" t="str">
+      <c r="P107" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Key", "String", "AlternativeCategory"</v>
+        <v>functions.add(new Function("Key", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B108" t="s">
-        <v>165</v>
+      <c r="B108" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>165</v>
@@ -6070,7 +6170,7 @@
       </c>
       <c r="J108" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="11"/>
@@ -6092,17 +6192,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P108" t="str">
+      <c r="P108" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Manufacturer", "String", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("Manufacturer", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B109" t="s">
-        <v>165</v>
+      <c r="B109" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C109" t="s">
         <v>165</v>
@@ -6116,7 +6216,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="11"/>
@@ -6138,17 +6238,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P109" t="str">
+      <c r="P109" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"MimeType", "String", "DigitalContentItem"</v>
+        <v>functions.add(new Function("MimeType", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B110" t="s">
-        <v>165</v>
+      <c r="B110" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C110" t="s">
         <v>165</v>
@@ -6165,7 +6265,7 @@
       </c>
       <c r="J110" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="11"/>
@@ -6187,17 +6287,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P110" t="str">
+      <c r="P110" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ModelName", "String", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("ModelName", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B111" t="s">
-        <v>165</v>
+      <c r="B111" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C111" t="s">
         <v>165</v>
@@ -6223,7 +6323,7 @@
       </c>
       <c r="J111" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="11"/>
@@ -6245,17 +6345,17 @@
         <f t="shared" si="15"/>
         <v>"SpecSection"</v>
       </c>
-      <c r="P111" t="str">
+      <c r="P111" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Name", "String", "Sku", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "SpecSection"</v>
+        <v>functions.add(new Function("Name", "ExpressionResultLiteral", "Sku", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "SpecSection"));</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B112" t="s">
-        <v>165</v>
+      <c r="B112" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C112" t="s">
         <v>165</v>
@@ -6272,7 +6372,7 @@
       </c>
       <c r="J112" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="11"/>
@@ -6294,17 +6394,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P112" t="str">
+      <c r="P112" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"PartNumber", "String", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("PartNumber", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B113" t="s">
-        <v>165</v>
+      <c r="B113" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>165</v>
@@ -6321,7 +6421,7 @@
       </c>
       <c r="J113" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="11"/>
@@ -6343,17 +6443,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P113" t="str">
+      <c r="P113" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductLine", "String", "Sku", "RelatedProduct"</v>
+        <v>functions.add(new Function("ProductLine", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B114" t="s">
-        <v>165</v>
+      <c r="B114" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C114" t="s">
         <v>165</v>
@@ -6367,7 +6467,7 @@
       </c>
       <c r="J114" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" si="11"/>
@@ -6389,17 +6489,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P114" t="str">
+      <c r="P114" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ProductType", "String", "Sku"</v>
+        <v>functions.add(new Function("ProductType", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B115" t="s">
-        <v>165</v>
+      <c r="B115" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C115" t="s">
         <v>165</v>
@@ -6419,7 +6519,7 @@
       </c>
       <c r="J115" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="11"/>
@@ -6441,17 +6541,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P115" t="str">
+      <c r="P115" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Unit", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Unit", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B116" t="s">
-        <v>165</v>
+      <c r="B116" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C116" t="s">
         <v>165</v>
@@ -6471,7 +6571,7 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K116" t="str">
         <f t="shared" si="11"/>
@@ -6493,17 +6593,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P116" t="str">
+      <c r="P116" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"UnitUSM", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("UnitUSM", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B117" t="s">
-        <v>165</v>
+      <c r="B117" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C117" t="s">
         <v>165</v>
@@ -6516,6 +6616,9 @@
       </c>
       <c r="F117" t="s">
         <v>133</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="I117" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6523,7 +6626,7 @@
       </c>
       <c r="J117" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" si="11"/>
@@ -6539,23 +6642,23 @@
       </c>
       <c r="N117" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"Gtin"</v>
       </c>
       <c r="O117" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P117" t="str">
+      <c r="P117" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Value", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("Value", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "Gtin"));</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B118" t="s">
-        <v>165</v>
+      <c r="B118" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C118" t="s">
         <v>165</v>
@@ -6575,7 +6678,7 @@
       </c>
       <c r="J118" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" si="11"/>
@@ -6597,17 +6700,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P118" t="str">
+      <c r="P118" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ValueUSM", "String", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"</v>
+        <v>functions.add(new Function("ValueUSM", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B119" t="s">
-        <v>165</v>
+      <c r="B119" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C119" t="s">
         <v>165</v>
@@ -6621,7 +6724,7 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="11"/>
@@ -6643,17 +6746,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P119" t="str">
+      <c r="P119" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"XmlContent", "String", "DigitalContentItem"</v>
+        <v>functions.add(new Function("XmlContent", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B120" t="s">
-        <v>165</v>
+      <c r="B120" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C120" t="s">
         <v>165</v>
@@ -6667,7 +6770,7 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="11"/>
@@ -6689,17 +6792,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P120" t="str">
+      <c r="P120" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ListPaths()", "String", "ProductCategories"</v>
+        <v>functions.add(new Function("ListPaths()", "ExpressionResultLiteral", "ProductCategories"));</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B121" t="s">
-        <v>165</v>
+      <c r="B121" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C121" t="s">
         <v>165</v>
@@ -6713,7 +6816,7 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="11"/>
@@ -6735,17 +6838,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P121" t="str">
+      <c r="P121" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ListUSM()", "String", "PdmAttributeSet"</v>
+        <v>functions.add(new Function("ListUSM()", "ExpressionResultLiteral", "PdmAttributeSet"));</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B122" t="s">
-        <v>165</v>
+      <c r="B122" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>165</v>
@@ -6759,7 +6862,7 @@
       </c>
       <c r="J122" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="11"/>
@@ -6781,17 +6884,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P122" t="str">
+      <c r="P122" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"GetFullColorDescription()", "String", "TemplexGenerator"</v>
+        <v>functions.add(new Function("GetFullColorDescription()", "ExpressionResultLiteral", "TemplexGenerator"));</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B123" t="s">
-        <v>165</v>
+      <c r="B123" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C123" t="s">
         <v>165</v>
@@ -6805,7 +6908,7 @@
       </c>
       <c r="J123" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="11"/>
@@ -6827,17 +6930,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P123" t="str">
+      <c r="P123" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ToHtml()", "String", "DigitalContentItem"</v>
+        <v>functions.add(new Function("ToHtml()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B124" t="s">
-        <v>165</v>
+      <c r="B124" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C124" t="s">
         <v>165</v>
@@ -6851,7 +6954,7 @@
       </c>
       <c r="J124" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" si="11"/>
@@ -6873,17 +6976,17 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P124" t="str">
+      <c r="P124" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ToPlainText()", "String", "DigitalContentItem"</v>
+        <v>functions.add(new Function("ToPlainText()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B125" t="s">
-        <v>165</v>
+      <c r="B125" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>165</v>
@@ -6897,13 +7000,17 @@
       <c r="F125" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G125" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H125" s="2"/>
       <c r="I125" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"ToText()"</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="10"/>
-        <v>"String"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="11"/>
@@ -6919,15 +7026,15 @@
       </c>
       <c r="N125" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"DateTimeOffset"</v>
       </c>
       <c r="O125" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P125" t="str">
+      <c r="P125" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ToText()", "String", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"</v>
+        <v>functions.add(new Function("ToText()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -6971,400 +7078,1076 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P126" t="str">
+      <c r="P126" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Url", "Uri", "DigitalContentItem"</v>
+        <v>functions.add(new Function("Url", "Uri", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" t="s">
-        <v>125</v>
+      <c r="A127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" t="s">
+        <v>138</v>
       </c>
       <c r="I127" s="5" t="str">
         <f t="shared" si="9"/>
+        <v>"CompatibleProducts"</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" ref="J127" si="17">CONCATENATE("""",B127,"""")</f>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" ref="K127" si="18">CONCATENATE("""",D127,"""")</f>
+        <v>"Specs"</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" ref="L127" si="19">CONCATENATE("""",E127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" ref="M127" si="20">CONCATENATE("""",F127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" ref="N127" si="21">CONCATENATE("""",G127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" ref="O127" si="22">CONCATENATE("""",H127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P127" s="7" t="str">
+        <f t="shared" ref="P127" si="23">SUBSTITUTE(CONCATENATE($Q$1,I127,$P$1,J127,$P$1,K127,$P$1,L127,$P$1,M127,$P$1,N127,$P$1,O127,$R$1),", """"","")</f>
+        <v>functions.add(new Function("CompatibleProducts", "ExpressionResultList", "Specs"));</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="5" t="str">
+        <f t="shared" si="9"/>
         <v>"CAT"</v>
       </c>
-      <c r="J127" t="str">
+      <c r="J128" t="str">
         <f t="shared" si="10"/>
         <v>"ProductCategories"</v>
       </c>
-      <c r="K127" t="str">
+      <c r="K128" t="str">
         <f t="shared" si="11"/>
         <v>""</v>
       </c>
-      <c r="L127" t="str">
+      <c r="L128" t="str">
         <f t="shared" si="12"/>
         <v>""</v>
       </c>
-      <c r="M127" t="str">
+      <c r="M128" t="str">
         <f t="shared" si="13"/>
         <v>""</v>
       </c>
-      <c r="N127" t="str">
+      <c r="N128" t="str">
         <f t="shared" si="14"/>
         <v>""</v>
       </c>
-      <c r="O127" t="str">
+      <c r="O128" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P127" t="str">
+      <c r="P128" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"CAT", "ProductCategories"</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+        <v>functions.add(new Function("CAT", "ProductCategories"));</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>130</v>
       </c>
-      <c r="I128" s="5" t="str">
+      <c r="I129" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"SKU"</v>
       </c>
-      <c r="J128" t="str">
+      <c r="J129" t="str">
         <f t="shared" si="10"/>
         <v>"Sku"</v>
       </c>
-      <c r="K128" t="str">
+      <c r="K129" t="str">
         <f t="shared" si="11"/>
         <v>""</v>
       </c>
-      <c r="L128" t="str">
+      <c r="L129" t="str">
         <f t="shared" si="12"/>
         <v>""</v>
       </c>
-      <c r="M128" t="str">
+      <c r="M129" t="str">
         <f t="shared" si="13"/>
         <v>""</v>
       </c>
-      <c r="N128" t="str">
+      <c r="N129" t="str">
         <f t="shared" si="14"/>
         <v>""</v>
       </c>
-      <c r="O128" t="str">
+      <c r="O129" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P128" t="str">
+      <c r="P129" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"SKU", "Sku"</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+        <v>functions.add(new Function("SKU", "Sku"));</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>142</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>142</v>
       </c>
-      <c r="I129" s="5" t="str">
+      <c r="I130" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"Request"</v>
       </c>
-      <c r="J129" t="str">
+      <c r="J130" t="str">
         <f t="shared" si="10"/>
         <v>"RelatedProduct"</v>
       </c>
-      <c r="K129" t="str">
+      <c r="K130" t="str">
         <f t="shared" si="11"/>
         <v>""</v>
       </c>
-      <c r="L129" t="str">
+      <c r="L130" t="str">
         <f t="shared" si="12"/>
         <v>""</v>
       </c>
-      <c r="M129" t="str">
+      <c r="M130" t="str">
         <f t="shared" si="13"/>
         <v>""</v>
       </c>
-      <c r="N129" t="str">
+      <c r="N130" t="str">
         <f t="shared" si="14"/>
         <v>""</v>
       </c>
-      <c r="O129" t="str">
+      <c r="O130" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P129" t="str">
+      <c r="P130" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"Request", "RelatedProduct"</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+        <v>functions.add(new Function("Request", "RelatedProduct"));</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>141</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>141</v>
       </c>
-      <c r="I130" s="5" t="str">
+      <c r="I131" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"ParentProducts"</v>
       </c>
-      <c r="J130" t="str">
+      <c r="J131" t="str">
         <f t="shared" si="10"/>
         <v>"RelatedProductList"</v>
       </c>
-      <c r="K130" t="str">
+      <c r="K131" t="str">
         <f t="shared" si="11"/>
         <v>""</v>
       </c>
-      <c r="L130" t="str">
+      <c r="L131" t="str">
         <f t="shared" si="12"/>
         <v>""</v>
       </c>
-      <c r="M130" t="str">
+      <c r="M131" t="str">
         <f t="shared" si="13"/>
         <v>""</v>
       </c>
-      <c r="N130" t="str">
+      <c r="N131" t="str">
         <f t="shared" si="14"/>
         <v>""</v>
       </c>
-      <c r="O130" t="str">
+      <c r="O131" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P130" t="str">
+      <c r="P131" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>"ParentProducts", "RelatedProductList"</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" t="s">
-        <v>138</v>
-      </c>
-      <c r="I131" s="5" t="str">
-        <f t="shared" ref="I131:I135" si="17">CONCATENATE("""",A131,"""")</f>
-        <v>"MS"</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" ref="J131:J135" si="18">CONCATENATE("""",B131,"""")</f>
-        <v>"Specs"</v>
-      </c>
-      <c r="K131" t="str">
-        <f t="shared" ref="K131:K135" si="19">CONCATENATE("""",D131,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="L131" t="str">
-        <f t="shared" ref="L131:L135" si="20">CONCATENATE("""",E131,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="M131" t="str">
-        <f t="shared" ref="M131:M135" si="21">CONCATENATE("""",F131,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="N131" t="str">
-        <f t="shared" ref="N131:N135" si="22">CONCATENATE("""",G131,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="O131" t="str">
-        <f t="shared" ref="O131:O135" si="23">CONCATENATE("""",H131,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P131" t="str">
-        <f t="shared" ref="P131:P135" si="24">SUBSTITUTE(CONCATENATE(I131,$P$1,J131,$P$1,K131,$P$1,L131,$P$1,M131,$P$1,N131,$P$1,O131),", """"","")</f>
-        <v>"MS", "Specs"</v>
+        <v>functions.add(new Function("ParentProducts", "RelatedProductList"));</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I132" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>"Sys"</v>
+        <f t="shared" ref="I132:I136" si="24">CONCATENATE("""",A132,"""")</f>
+        <v>"MS"</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="18"/>
-        <v>"SystemObject"</v>
+        <f t="shared" ref="J132:J137" si="25">CONCATENATE("""",B132,"""")</f>
+        <v>"Specs"</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K132:K137" si="26">CONCATENATE("""",D132,"""")</f>
         <v>""</v>
       </c>
       <c r="L132" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L132:L137" si="27">CONCATENATE("""",E132,"""")</f>
         <v>""</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M132:M137" si="28">CONCATENATE("""",F132,"""")</f>
         <v>""</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N132:N137" si="29">CONCATENATE("""",G132,"""")</f>
         <v>""</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" si="23"/>
-        <v>""</v>
-      </c>
-      <c r="P132" t="str">
-        <f t="shared" si="24"/>
-        <v>"Sys", "SystemObject"</v>
+        <f t="shared" ref="O132:O137" si="30">CONCATENATE("""",H132,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P132" s="7" t="str">
+        <f t="shared" ref="P132:P137" si="31">SUBSTITUTE(CONCATENATE($Q$1,I132,$P$1,J132,$P$1,K132,$P$1,L132,$P$1,M132,$P$1,N132,$P$1,O132,$R$1),", """"","")</f>
+        <v>functions.add(new Function("MS", "Specs"));</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I133" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>"DC"</v>
+        <f t="shared" si="24"/>
+        <v>"Sys"</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="18"/>
-        <v>"DigitalContent"</v>
+        <f t="shared" si="25"/>
+        <v>"SystemObject"</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="L133" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="M133" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>""</v>
       </c>
       <c r="N133" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>""</v>
       </c>
       <c r="O133" t="str">
-        <f t="shared" si="23"/>
-        <v>""</v>
-      </c>
-      <c r="P133" t="str">
-        <f t="shared" si="24"/>
-        <v>"DC", "DigitalContent"</v>
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="P133" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>functions.add(new Function("Sys", "SystemObject"));</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I134" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>"Generator"</v>
+        <f t="shared" si="24"/>
+        <v>"DC"</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="18"/>
-        <v>"TemplexGenerator"</v>
+        <f t="shared" si="25"/>
+        <v>"DigitalContent"</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="L134" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="M134" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>""</v>
       </c>
       <c r="N134" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>""</v>
       </c>
       <c r="O134" t="str">
-        <f t="shared" si="23"/>
-        <v>""</v>
-      </c>
-      <c r="P134" t="str">
-        <f t="shared" si="24"/>
-        <v>"Generator", "TemplexGenerator"</v>
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="P134" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>functions.add(new Function("DC", "DigitalContent"));</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="I135" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>"Generator"</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="25"/>
+        <v>"TemplexGenerator"</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="26"/>
+        <v>""</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="27"/>
+        <v>""</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="P135" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>functions.add(new Function("Generator", "TemplexGenerator"));</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>138</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>138</v>
       </c>
-      <c r="I135" s="5" t="str">
-        <f t="shared" si="17"/>
+      <c r="I136" s="5" t="str">
+        <f t="shared" si="24"/>
         <v>"ES"</v>
       </c>
-      <c r="J135" t="str">
-        <f t="shared" si="18"/>
+      <c r="J136" t="str">
+        <f t="shared" si="25"/>
         <v>"Specs"</v>
       </c>
-      <c r="K135" t="str">
-        <f t="shared" si="19"/>
-        <v>""</v>
-      </c>
-      <c r="L135" t="str">
-        <f t="shared" si="20"/>
-        <v>""</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="21"/>
-        <v>""</v>
-      </c>
-      <c r="N135" t="str">
-        <f t="shared" si="22"/>
-        <v>""</v>
-      </c>
-      <c r="O135" t="str">
-        <f t="shared" si="23"/>
-        <v>""</v>
-      </c>
-      <c r="P135" t="str">
-        <f t="shared" si="24"/>
-        <v>"ES", "Specs"</v>
+      <c r="K136" t="str">
+        <f t="shared" si="26"/>
+        <v>""</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="27"/>
+        <v>""</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="P136" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>functions.add(new Function("ES", "Specs"));</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I137" s="5" t="str">
+        <f t="shared" ref="I137:I139" si="32">CONCATENATE("""",A137,"""")</f>
+        <v>"COALESCE()"</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="25"/>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="26"/>
+        <v>""</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="27"/>
+        <v>""</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="P137" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>functions.add(new Function("COALESCE()", "You can invoke nothing on it"));</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I138" s="5" t="str">
+        <f t="shared" ref="I138:I151" si="33">CONCATENATE("""",A138,"""")</f>
+        <v>"NOT NULL"</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" ref="J138:J144" si="34">CONCATENATE("""",B138,"""")</f>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" ref="K138:K144" si="35">CONCATENATE("""",D138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" ref="L138:L144" si="36">CONCATENATE("""",E138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" ref="M138:M144" si="37">CONCATENATE("""",F138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" ref="N138:N144" si="38">CONCATENATE("""",G138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" ref="O138:O144" si="39">CONCATENATE("""",H138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P138" s="7" t="str">
+        <f t="shared" ref="P138:P144" si="40">SUBSTITUTE(CONCATENATE($Q$1,I138,$P$1,J138,$P$1,K138,$P$1,L138,$P$1,M138,$P$1,N138,$P$1,O138,$R$1),", """"","")</f>
+        <v>functions.add(new Function("NOT NULL", "You can invoke nothing on it"));</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I139" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"NULL"</v>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" si="34"/>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="35"/>
+        <v>""</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P139" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("NULL", "You can invoke nothing on it"));</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I140" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Data[\"\"]"</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="34"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="35"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P140" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("Data[\"\"]", "ExpressionResultLiteral", "RelatedProduct"));</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I141" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Gtin"</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="34"/>
+        <v>"Gtin"</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="35"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P141" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("Gtin", "Gtin", "RelatedProduct"));</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I142" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Format"</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="34"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="35"/>
+        <v>"Gtin"</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P142" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("Format", "ExpressionResultLiteral", "Gtin"));</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I143" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"HasValue"</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="34"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="35"/>
+        <v>"Int32"</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P143" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("HasValue", "ExpressionResultLiteral", "Int32"));</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I144" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Height"</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="34"/>
+        <v>"Int32"</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="35"/>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="36"/>
+        <v>""</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="37"/>
+        <v>""</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="38"/>
+        <v>""</v>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="39"/>
+        <v>""</v>
+      </c>
+      <c r="P144" s="7" t="str">
+        <f t="shared" si="40"/>
+        <v>functions.add(new Function("Height", "Int32", "ProductPackage"));</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I145" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Width"</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" ref="J145:J151" si="41">CONCATENATE("""",B145,"""")</f>
+        <v>"Int32"</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" ref="K145:K150" si="42">CONCATENATE("""",D145,"""")</f>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" ref="L145:L150" si="43">CONCATENATE("""",E145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" ref="M145:M150" si="44">CONCATENATE("""",F145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" ref="N145:N150" si="45">CONCATENATE("""",G145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" ref="O145:O150" si="46">CONCATENATE("""",H145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P145" s="7" t="str">
+        <f t="shared" ref="P145:P150" si="47">SUBSTITUTE(CONCATENATE($Q$1,I145,$P$1,J145,$P$1,K145,$P$1,L145,$P$1,M145,$P$1,N145,$P$1,O145,$R$1),", """"","")</f>
+        <v>functions.add(new Function("Width", "Int32", "ProductPackage"));</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I146" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Weight"</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="41"/>
+        <v>"Int32"</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="42"/>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="43"/>
+        <v>""</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="44"/>
+        <v>""</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="45"/>
+        <v>""</v>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="46"/>
+        <v>""</v>
+      </c>
+      <c r="P146" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>functions.add(new Function("Weight", "Int32", "ProductPackage"));</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I147" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Package"</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="41"/>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="42"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="43"/>
+        <v>""</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="44"/>
+        <v>""</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="45"/>
+        <v>""</v>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="46"/>
+        <v>""</v>
+      </c>
+      <c r="P147" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>functions.add(new Function("Package", "ProductPackage", "RelatedProduct"));</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I148" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"IsBiggerThan()"</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="41"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="42"/>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="43"/>
+        <v>""</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="44"/>
+        <v>""</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="45"/>
+        <v>""</v>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="46"/>
+        <v>""</v>
+      </c>
+      <c r="P148" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>functions.add(new Function("IsBiggerThan()", "ExpressionResultLiteral", "ProductPackage"));</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I149" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"BulletFeatures[]"</v>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="41"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="42"/>
+        <v>"TemplexGenerator"</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="43"/>
+        <v>""</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="44"/>
+        <v>""</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="45"/>
+        <v>""</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="46"/>
+        <v>""</v>
+      </c>
+      <c r="P149" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>functions.add(new Function("BulletFeatures[]", "ExpressionResultLiteral", "TemplexGenerator"));</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I150" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Ksp[]"</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="41"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="42"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="43"/>
+        <v>""</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="44"/>
+        <v>""</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="45"/>
+        <v>""</v>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="46"/>
+        <v>""</v>
+      </c>
+      <c r="P150" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>functions.add(new Function("Ksp[]", "ExpressionResultLiteral", "DigitalContent"));</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I151" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"\"\""</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="41"/>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" ref="K151" si="48">CONCATENATE("""",D151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" ref="L151" si="49">CONCATENATE("""",E151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" ref="M151" si="50">CONCATENATE("""",F151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" ref="N151" si="51">CONCATENATE("""",G151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" ref="O151" si="52">CONCATENATE("""",H151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P151" s="7" t="str">
+        <f t="shared" ref="P151" si="53">SUBSTITUTE(CONCATENATE($Q$1,I151,$P$1,J151,$P$1,K151,$P$1,L151,$P$1,M151,$P$1,N151,$P$1,O151,$R$1),", """"","")</f>
+        <v>functions.add(new Function("\"\"", "You can invoke nothing on it"));</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H135"/>
+  <autoFilter ref="A1:H151"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$154</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="193">
   <si>
     <t>AltCats</t>
   </si>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>\"\"</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -959,9 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1337,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -1360,7 +1371,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
@@ -1384,7 +1395,7 @@
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Count", "Int32", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute"));</v>
+        <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute"));</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1392,7 +1403,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -1409,7 +1420,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
@@ -1433,7 +1444,7 @@
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Total", "Int32", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Total", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3039,9 +3050,6 @@
       <c r="F43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="I43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Pluralize()"</v>
@@ -3064,7 +3072,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="6"/>
-        <v>"Int32"</v>
+        <v>""</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="7"/>
@@ -3072,7 +3080,7 @@
       </c>
       <c r="P43" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "Int32"));</v>
+        <v>functions.add(new Function("Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4679,7 +4687,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
         <v>162</v>
@@ -4693,7 +4701,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="11"/>
@@ -4717,7 +4725,7 @@
       </c>
       <c r="P77" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("CategoryKey", "Int32", "RelatedProduct"));</v>
+        <v>functions.add(new Function("CategoryKey", "ExpressionResultNumeric", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4725,7 +4733,7 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>162</v>
@@ -4748,7 +4756,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="11"/>
@@ -4772,7 +4780,7 @@
       </c>
       <c r="P78" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("Length", "Int32", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "ProductPackage"));</v>
+        <v>functions.add(new Function("Length", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4780,7 +4788,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>162</v>
@@ -4794,7 +4802,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="11"/>
@@ -4818,7 +4826,7 @@
       </c>
       <c r="P79" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("LineCount", "Int32", "Specs"));</v>
+        <v>functions.add(new Function("LineCount", "ExpressionResultNumeric", "Specs"));</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4826,7 +4834,7 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
@@ -4840,7 +4848,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="11"/>
@@ -4864,7 +4872,7 @@
       </c>
       <c r="P80" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("NonOemAccessories", "Int32", "Sku"));</v>
+        <v>functions.add(new Function("NonOemAccessories", "ExpressionResultNumeric", "Sku"));</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -4872,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
         <v>162</v>
@@ -4886,7 +4894,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="11"/>
@@ -4910,7 +4918,7 @@
       </c>
       <c r="P81" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("Order", "Int32", "SpecLine"));</v>
+        <v>functions.add(new Function("Order", "ExpressionResultNumeric", "SpecLine"));</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -4918,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>162</v>
@@ -4935,7 +4943,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="11"/>
@@ -4959,7 +4967,7 @@
       </c>
       <c r="P82" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("PackQuantity", "Int32", "Sku", "RelatedProduct"));</v>
+        <v>functions.add(new Function("PackQuantity", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -4967,7 +4975,7 @@
         <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>162</v>
@@ -4984,7 +4992,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" si="10"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="11"/>
@@ -5008,7 +5016,7 @@
       </c>
       <c r="P83" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("ProductId", "Int32", "Sku", "RelatedProduct"));</v>
+        <v>functions.add(new Function("ProductId", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -7521,7 +7529,7 @@
         <v>174</v>
       </c>
       <c r="I137" s="5" t="str">
-        <f t="shared" ref="I137:I139" si="32">CONCATENATE("""",A137,"""")</f>
+        <f t="shared" ref="I137" si="32">CONCATENATE("""",A137,"""")</f>
         <v>"COALESCE()"</v>
       </c>
       <c r="J137" t="str">
@@ -7561,7 +7569,7 @@
         <v>174</v>
       </c>
       <c r="I138" s="5" t="str">
-        <f t="shared" ref="I138:I151" si="33">CONCATENATE("""",A138,"""")</f>
+        <f t="shared" ref="I138:I154" si="33">CONCATENATE("""",A138,"""")</f>
         <v>"NOT NULL"</v>
       </c>
       <c r="J138" t="str">
@@ -7770,7 +7778,7 @@
         <v>128</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I143" s="5" t="str">
         <f t="shared" si="33"/>
@@ -7782,7 +7790,7 @@
       </c>
       <c r="K143" t="str">
         <f t="shared" si="35"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L143" t="str">
         <f t="shared" si="36"/>
@@ -7802,7 +7810,7 @@
       </c>
       <c r="P143" s="7" t="str">
         <f t="shared" si="40"/>
-        <v>functions.add(new Function("HasValue", "ExpressionResultLiteral", "Int32"));</v>
+        <v>functions.add(new Function("HasValue", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -7810,7 +7818,7 @@
         <v>181</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>184</v>
@@ -7821,7 +7829,7 @@
       </c>
       <c r="J144" t="str">
         <f t="shared" si="34"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K144" t="str">
         <f t="shared" si="35"/>
@@ -7845,7 +7853,7 @@
       </c>
       <c r="P144" s="7" t="str">
         <f t="shared" si="40"/>
-        <v>functions.add(new Function("Height", "Int32", "ProductPackage"));</v>
+        <v>functions.add(new Function("Height", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -7853,7 +7861,7 @@
         <v>182</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>184</v>
@@ -7863,8 +7871,8 @@
         <v>"Width"</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" ref="J145:J151" si="41">CONCATENATE("""",B145,"""")</f>
-        <v>"Int32"</v>
+        <f t="shared" ref="J145:J152" si="41">CONCATENATE("""",B145,"""")</f>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K145" t="str">
         <f t="shared" ref="K145:K150" si="42">CONCATENATE("""",D145,"""")</f>
@@ -7888,7 +7896,7 @@
       </c>
       <c r="P145" s="7" t="str">
         <f t="shared" ref="P145:P150" si="47">SUBSTITUTE(CONCATENATE($Q$1,I145,$P$1,J145,$P$1,K145,$P$1,L145,$P$1,M145,$P$1,N145,$P$1,O145,$R$1),", """"","")</f>
-        <v>functions.add(new Function("Width", "Int32", "ProductPackage"));</v>
+        <v>functions.add(new Function("Width", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -7896,7 +7904,7 @@
         <v>183</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>184</v>
@@ -7907,7 +7915,7 @@
       </c>
       <c r="J146" t="str">
         <f t="shared" si="41"/>
-        <v>"Int32"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K146" t="str">
         <f t="shared" si="42"/>
@@ -7931,7 +7939,7 @@
       </c>
       <c r="P146" s="7" t="str">
         <f t="shared" si="47"/>
-        <v>functions.add(new Function("Weight", "Int32", "ProductPackage"));</v>
+        <v>functions.add(new Function("Weight", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -8142,12 +8150,141 @@
         <v>""</v>
       </c>
       <c r="P151" s="7" t="str">
-        <f t="shared" ref="P151" si="53">SUBSTITUTE(CONCATENATE($Q$1,I151,$P$1,J151,$P$1,K151,$P$1,L151,$P$1,M151,$P$1,N151,$P$1,O151,$R$1),", """"","")</f>
+        <f t="shared" ref="P151:P154" si="53">SUBSTITUTE(CONCATENATE($Q$1,I151,$P$1,J151,$P$1,K151,$P$1,L151,$P$1,M151,$P$1,N151,$P$1,O151,$R$1),", """"","")</f>
         <v>functions.add(new Function("\"\"", "You can invoke nothing on it"));</v>
       </c>
     </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I152" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Year"</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" ref="J152:J154" si="54">CONCATENATE("""",B152,"""")</f>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" ref="K152:K154" si="55">CONCATENATE("""",D152,"""")</f>
+        <v>"DateTime"</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" ref="L152:L154" si="56">CONCATENATE("""",E152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" ref="M152:M154" si="57">CONCATENATE("""",F152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" ref="N152:N154" si="58">CONCATENATE("""",G152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" ref="O152:O154" si="59">CONCATENATE("""",H152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P152" s="7" t="str">
+        <f t="shared" si="53"/>
+        <v>functions.add(new Function("Year", "ExpressionResultNumeric", "DateTime"));</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I153" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Month"</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="54"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="55"/>
+        <v>"DateTime"</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="56"/>
+        <v>""</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="57"/>
+        <v>""</v>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="58"/>
+        <v>""</v>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="59"/>
+        <v>""</v>
+      </c>
+      <c r="P153" s="7" t="str">
+        <f t="shared" si="53"/>
+        <v>functions.add(new Function("Month", "ExpressionResultNumeric", "DateTime"));</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I154" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>"Day"</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="54"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="55"/>
+        <v>"DateTime"</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="56"/>
+        <v>""</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="57"/>
+        <v>""</v>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="58"/>
+        <v>""</v>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="59"/>
+        <v>""</v>
+      </c>
+      <c r="P154" s="7" t="str">
+        <f t="shared" si="53"/>
+        <v>functions.add(new Function("Day", "ExpressionResultNumeric", "DateTime"));</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H151"/>
+  <autoFilter ref="A1:H154"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
@@ -14,12 +14,310 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$154</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Valerii</author>
+  </authors>
+  <commentList>
+    <comment ref="E104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E117" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F117" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmMultivalueAttribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valerii:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PdmRepeatingAttribute</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="193">
   <si>
     <t>AltCats</t>
   </si>
@@ -604,13 +902,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -967,11 +1278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,12 +6284,8 @@
       <c r="D104" t="s">
         <v>145</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" t="s">
-        <v>133</v>
-      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="4"/>
       <c r="I104" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"Invariant"</v>
@@ -5993,11 +6300,11 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M104" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" si="14"/>
@@ -6009,7 +6316,7 @@
       </c>
       <c r="P104" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("Invariant", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Invariant", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -6025,12 +6332,8 @@
       <c r="D105" t="s">
         <v>145</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" t="s">
-        <v>133</v>
-      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="4"/>
       <c r="I105" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"InvariantUnit"</v>
@@ -6045,11 +6348,11 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="14"/>
@@ -6061,7 +6364,7 @@
       </c>
       <c r="P105" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("InvariantUnit", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("InvariantUnit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -6515,12 +6818,8 @@
       <c r="D115" t="s">
         <v>145</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" t="s">
-        <v>133</v>
-      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="4"/>
       <c r="I115" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"Unit"</v>
@@ -6535,11 +6834,11 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M115" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="14"/>
@@ -6551,7 +6850,7 @@
       </c>
       <c r="P115" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("Unit", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Unit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -6567,12 +6866,8 @@
       <c r="D116" t="s">
         <v>145</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" t="s">
-        <v>133</v>
-      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="4"/>
       <c r="I116" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"UnitUSM"</v>
@@ -6587,11 +6882,11 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M116" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N116" t="str">
         <f t="shared" si="14"/>
@@ -6603,7 +6898,7 @@
       </c>
       <c r="P116" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("UnitUSM", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("UnitUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -6619,12 +6914,8 @@
       <c r="D117" t="s">
         <v>145</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F117" t="s">
-        <v>133</v>
-      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
         <v>178</v>
       </c>
@@ -6642,11 +6933,11 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M117" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="14"/>
@@ -6658,7 +6949,7 @@
       </c>
       <c r="P117" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("Value", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "Gtin"));</v>
+        <v>functions.add(new Function("Value", "ExpressionResultLiteral", "PdmAttribute", "Gtin"));</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -6674,12 +6965,8 @@
       <c r="D118" t="s">
         <v>145</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F118" t="s">
-        <v>133</v>
-      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="4"/>
       <c r="I118" s="5" t="str">
         <f t="shared" si="9"/>
         <v>"ValueUSM"</v>
@@ -6694,11 +6981,11 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>""</v>
       </c>
       <c r="M118" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>""</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="14"/>
@@ -6710,7 +6997,7 @@
       </c>
       <c r="P118" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("ValueUSM", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("ValueUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -7871,7 +8158,7 @@
         <v>"Width"</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" ref="J145:J152" si="41">CONCATENATE("""",B145,"""")</f>
+        <f t="shared" ref="J145:J151" si="41">CONCATENATE("""",B145,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K145" t="str">
@@ -8287,6 +8574,7 @@
   <autoFilter ref="A1:H154"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$154</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -128,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -176,7 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -185,7 +185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -200,7 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -209,7 +209,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -224,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -233,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -248,7 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -257,7 +257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -272,7 +272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -281,7 +281,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmMultivalueAttribute</t>
@@ -296,7 +296,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valerii:</t>
         </r>
@@ -305,7 +305,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PdmRepeatingAttribute</t>
@@ -914,14 +914,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F128" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,7 +4158,7 @@
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
         <v>126</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
+        <v>"ExpressionResult"</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="3"/>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="P59" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Where()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Where()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>126</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
+        <v>"ExpressionResult"</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="3"/>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="P60" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("WhereNot()", "ExpressionResultList", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("WhereNot()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="194">
   <si>
     <t>AltCats</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>ToString()</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F128" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P154"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,8 +2691,8 @@
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" t="s">
-        <v>160</v>
+      <c r="B30" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="P30" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("ExtractDecimals()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
+        <v>functions.add(new Function("ExtractDecimals()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -5565,13 +5568,19 @@
         <v>113</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
         <v>164</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5579,7 +5588,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
+        <v>"ExpressionResult"</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="11"/>
@@ -5587,11 +5596,11 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="14"/>
@@ -5603,7 +5612,7 @@
       </c>
       <c r="P89" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>functions.add(new Function("MultiplyBy()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
+        <v>functions.add(new Function("MultiplyBy()", "ExpressionResult", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral"));</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -8568,6 +8577,58 @@
       <c r="P154" s="7" t="str">
         <f t="shared" si="53"/>
         <v>functions.add(new Function("Day", "ExpressionResultNumeric", "DateTime"));</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I155" s="5" t="str">
+        <f t="shared" ref="I155" si="60">CONCATENATE("""",A155,"""")</f>
+        <v>"ToString()"</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" ref="J155" si="61">CONCATENATE("""",B155,"""")</f>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" ref="K155" si="62">CONCATENATE("""",D155,"""")</f>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" ref="L155" si="63">CONCATENATE("""",E155,"""")</f>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" ref="M155" si="64">CONCATENATE("""",F155,"""")</f>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" ref="N155" si="65">CONCATENATE("""",G155,"""")</f>
+        <v>"DateTimeOffset"</v>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" ref="O155" si="66">CONCATENATE("""",H155,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P155" s="7" t="str">
+        <f t="shared" ref="P155" si="67">SUBSTITUTE(CONCATENATE($Q$1,I155,$P$1,J155,$P$1,K155,$P$1,L155,$P$1,M155,$P$1,N155,$P$1,O155,$R$1),", """"","")</f>
+        <v>functions.add(new Function("ToString()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
   </sheetData>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="195">
   <si>
     <t>AltCats</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>ToString()</t>
+  </si>
+  <si>
+    <t>DECODE()</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8599,7 +8602,7 @@
         <v>158</v>
       </c>
       <c r="I155" s="5" t="str">
-        <f t="shared" ref="I155" si="60">CONCATENATE("""",A155,"""")</f>
+        <f t="shared" ref="I155:I156" si="60">CONCATENATE("""",A155,"""")</f>
         <v>"ToString()"</v>
       </c>
       <c r="J155" t="str">
@@ -8629,6 +8632,46 @@
       <c r="P155" s="7" t="str">
         <f t="shared" ref="P155" si="67">SUBSTITUTE(CONCATENATE($Q$1,I155,$P$1,J155,$P$1,K155,$P$1,L155,$P$1,M155,$P$1,N155,$P$1,O155,$R$1),", """"","")</f>
         <v>functions.add(new Function("ToString()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I156" s="5" t="str">
+        <f t="shared" si="60"/>
+        <v>"DECODE()"</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" ref="J156" si="68">CONCATENATE("""",B156,"""")</f>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" ref="K156" si="69">CONCATENATE("""",D156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" ref="L156" si="70">CONCATENATE("""",E156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" ref="M156" si="71">CONCATENATE("""",F156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" ref="N156" si="72">CONCATENATE("""",G156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" ref="O156" si="73">CONCATENATE("""",H156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P156" s="7" t="str">
+        <f t="shared" ref="P156" si="74">SUBSTITUTE(CONCATENATE($Q$1,I156,$P$1,J156,$P$1,K156,$P$1,L156,$P$1,M156,$P$1,N156,$P$1,O156,$R$1),", """"","")</f>
+        <v>functions.add(new Function("DECODE()", "You can invoke nothing on it"));</v>
       </c>
     </row>
   </sheetData>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="195">
   <si>
     <t>AltCats</t>
   </si>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,6 +3838,9 @@
       <c r="F52" t="s">
         <v>133</v>
       </c>
+      <c r="G52" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="I52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Values"</v>
@@ -3860,7 +3863,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="6"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="7"/>
@@ -3868,7 +3871,7 @@
       </c>
       <c r="P52" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "DigitalContentItem"));</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="195">
   <si>
     <t>AltCats</t>
   </si>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,6 +1682,9 @@
       <c r="G8" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Count"</v>
@@ -1708,11 +1711,11 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="7"/>
-        <v>""</v>
+        <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute"));</v>
+        <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="196">
   <si>
     <t>AltCats</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>DECODE()</t>
+  </si>
+  <si>
+    <t>GetPath()</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,16 +1304,18 @@
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -1335,14 +1340,14 @@
       <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>137</v>
@@ -1356,17 +1361,23 @@
       <c r="O1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1379,40 +1390,44 @@
       <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="J2" s="5" t="str">
         <f>CONCATENATE("""",A2,"""")</f>
         <v>"Main"</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>CONCATENATE("""",B2,"""")</f>
         <v>"AlternativeCategory"</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:O2" si="0">CONCATENATE("""",D2,"""")</f>
+      <c r="L2" t="str">
+        <f>CONCATENATE("""",D2,"""")</f>
         <v>"ProductCategories"</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
       <c r="M2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("""",E2,"""")</f>
         <v>""</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("""",F2,"""")</f>
         <v>""</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="P2" s="7" t="str">
-        <f>SUBSTITUTE(CONCATENATE($Q$1,I2,$P$1,J2,$P$1,K2,$P$1,L2,$P$1,M2,$P$1,N2,$P$1,O2,$R$1),", """"","")</f>
+        <f>CONCATENATE("""",G2,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P2" t="str">
+        <f>CONCATENATE("""",H2,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>CONCATENATE("""",I2,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="R2" s="7" t="str">
+        <f t="shared" ref="R2:R65" si="0">SUBSTITUTE(CONCATENATE($S$1,J2,$R$1,K2,$R$1,L2,$R$1,M2,$R$1,N2,$R$1,O2,$R$1,P2,$R$1,Q2,$T$1),", """"","")</f>
         <v>functions.add(new Function("Main", "AlternativeCategory", "ProductCategories"));</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,40 +1449,44 @@
       <c r="G3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I66" si="1">CONCATENATE("""",A3,"""")</f>
+      <c r="J3" s="5" t="str">
+        <f t="shared" ref="J3:J66" si="1">CONCATENATE("""",A3,"""")</f>
         <v>"HasText"</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="2">CONCATENATE("""",B3,"""")</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="2">CONCATENATE("""",B3,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="3">CONCATENATE("""",D3,"""")</f>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="3">CONCATENATE("""",D3,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="4">CONCATENATE("""",E3,"""")</f>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="4">CONCATENATE("""",E3,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="5">CONCATENATE("""",F3,"""")</f>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="5">CONCATENATE("""",F3,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="6">CONCATENATE("""",G3,"""")</f>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="6">CONCATENATE("""",G3,"""")</f>
         <v>"String"</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="7">CONCATENATE("""",H3,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f t="shared" ref="P3:P66" si="8">SUBSTITUTE(CONCATENATE($Q$1,I3,$P$1,J3,$P$1,K3,$P$1,L3,$P$1,M3,$P$1,N3,$P$1,O3,$R$1),", """"","")</f>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="7">CONCATENATE("""",H3,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="8">CONCATENATE("""",I3,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="R3" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("HasText", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1489,40 +1508,44 @@
       <c r="G4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="J4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"IsEmpty"</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="6"/>
         <v>"String"</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("IsEmpty", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
@@ -1535,40 +1558,44 @@
       <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="J5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"IsDescendantOf()"</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="3"/>
         <v>"AlternativeCategory"</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P5" s="7" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("IsDescendantOf()", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1581,40 +1608,44 @@
       <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"LaunchDate"</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="2"/>
         <v>"DateTime"</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="3"/>
         <v>"Sku"</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P6" s="7" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("LaunchDate", "DateTime", "Sku"));</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -1627,40 +1658,44 @@
       <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="J7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"GetDateTime()"</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="2"/>
         <v>"DateTimeOffset"</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="3"/>
         <v>"SystemObject"</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P7" s="7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetDateTime()", "DateTimeOffset", "SystemObject"));</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1685,40 +1720,44 @@
       <c r="H8" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="J8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Count"</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="6"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="7"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="P8" s="7" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R8" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1734,40 +1773,44 @@
       <c r="E9" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="J9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Total"</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="3"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="4"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P9" s="7" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R9" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Total", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1780,40 +1823,44 @@
       <c r="D10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="J10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"BestImage"</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R10" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("BestImage", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1826,40 +1873,44 @@
       <c r="D11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="J11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"BoxContents"</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P11" s="7" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R11" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("BoxContents", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1872,40 +1923,44 @@
       <c r="D12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"KeySellingPoints"</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P12" s="7" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R12" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("KeySellingPoints", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1918,40 +1973,44 @@
       <c r="D13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Ksp"</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P13" s="7" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R13" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Ksp", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1964,40 +2023,44 @@
       <c r="D14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="J14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"MarketingText"</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P14" s="7" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R14" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("MarketingText", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2010,40 +2073,44 @@
       <c r="D15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="J15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Msds"</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P15" s="7" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R15" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Msds", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2056,40 +2123,44 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ProductFeatures"</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P16" s="7" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R16" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ProductFeatures", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -2102,40 +2173,44 @@
       <c r="D17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="J17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ProductSheet"</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P17" s="7" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R17" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ProductSheet", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2148,40 +2223,44 @@
       <c r="D18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"QuickStartGuide"</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P18" s="7" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("QuickStartGuide", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2194,40 +2273,44 @@
       <c r="D19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="J19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Thumbnail"</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P19" s="7" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Thumbnail", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -2240,40 +2323,44 @@
       <c r="D20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="J20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"UserManual"</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="2"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="3"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P20" s="7" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R20" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("UserManual", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2286,40 +2373,44 @@
       <c r="D21" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="J21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Distinct"</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P21" s="7" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R21" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Distinct", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2332,40 +2423,44 @@
       <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="J22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Min()"</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P22" s="7" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R22" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Min()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2378,40 +2473,44 @@
       <c r="D23" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"MinMax()"</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P23" s="7" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R23" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("MinMax()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2424,40 +2523,44 @@
       <c r="D24" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="J24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Max()"</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P24" s="7" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R24" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Max()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -2470,40 +2573,44 @@
       <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="J25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Last()"</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P25" s="7" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R25" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Last()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2516,40 +2623,44 @@
       <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"FlattenWithAnd()"</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P26" s="7" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R26" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("FlattenWithAnd()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2568,40 +2679,44 @@
       <c r="F27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="5" t="str">
+      <c r="J27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"HtmlEncode()"</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P27" s="7" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R27" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("HtmlEncode()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2614,40 +2729,44 @@
       <c r="D28" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="J28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"First()"</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P28" s="7" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R28" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("First()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -2660,40 +2779,44 @@
       <c r="D29" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"DiscardNulls()"</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P29" s="7" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R29" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("DiscardNulls()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2712,40 +2835,44 @@
       <c r="F30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ExtractDecimals()"</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P30" s="7" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R30" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ExtractDecimals()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2764,40 +2891,44 @@
       <c r="F31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="J31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ToLower()"</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P31" s="7" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R31" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToLower()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -2816,40 +2947,44 @@
       <c r="F32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ToLowerFirstChar()"</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P32" s="7" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R32" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToLowerFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2868,40 +3003,44 @@
       <c r="F33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="J33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ToTitleCase()"</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P33" s="7" t="str">
+      <c r="Q33" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R33" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToTitleCase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -2920,40 +3059,44 @@
       <c r="F34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="J34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ToUpper()"</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P34" s="7" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R34" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToUpper()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -2972,40 +3115,44 @@
       <c r="F35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="J35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ToUpperFirstChar()"</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P35" s="7" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R35" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToUpperFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -3024,40 +3171,44 @@
       <c r="F36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="J36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Erase()"</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P36" s="7" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R36" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Erase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -3076,40 +3227,44 @@
       <c r="F37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="5" t="str">
+      <c r="J37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"EraseTextSurroundedBy()"</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P37" s="7" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R37" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("EraseTextSurroundedBy()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -3122,40 +3277,44 @@
       <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="J38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"GetLine()"</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="3"/>
         <v>"Specs"</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P38" s="7" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R38" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetLine()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -3168,40 +3327,44 @@
       <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="5" t="str">
+      <c r="J39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"GetLineBody()"</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="3"/>
         <v>"Specs"</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P39" s="7" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R39" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetLineBody()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -3214,40 +3377,44 @@
       <c r="D40" t="s">
         <v>126</v>
       </c>
-      <c r="I40" s="5" t="str">
+      <c r="J40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Flatten()"</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P40" s="7" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R40" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Flatten()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
@@ -3266,40 +3433,44 @@
       <c r="F41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="5" t="str">
+      <c r="J41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"IfLike()"</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P41" s="7" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R41" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("IfLike()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
@@ -3318,40 +3489,44 @@
       <c r="F42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="J42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"IfLongerThan()"</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P42" s="7" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R42" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("IfLongerThan()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3370,40 +3545,44 @@
       <c r="F43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="5" t="str">
+      <c r="J43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Pluralize()"</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P43" s="7" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R43" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
@@ -3425,40 +3604,44 @@
       <c r="G44" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="J44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Postfix()"</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f t="shared" si="6"/>
         <v>"String"</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P44" s="7" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R44" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Postfix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -3480,40 +3663,44 @@
       <c r="G45" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I45" s="5" t="str">
+      <c r="J45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Prefix()"</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f t="shared" si="6"/>
         <v>"String"</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P45" s="7" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R45" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Prefix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>108</v>
       </c>
@@ -3532,40 +3719,44 @@
       <c r="F46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="J46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"RegexReplace()"</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P46" s="7" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R46" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("RegexReplace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -3584,40 +3775,44 @@
       <c r="F47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="5" t="str">
+      <c r="J47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Replace()"</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P47" s="7" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R47" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Replace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -3639,40 +3834,44 @@
       <c r="G48" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="J48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Shorten()"</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f t="shared" si="6"/>
         <v>"String"</v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P48" s="7" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R48" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Shorten()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
@@ -3691,40 +3890,44 @@
       <c r="F49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="5" t="str">
+      <c r="J49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Split()"</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f t="shared" si="4"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="5"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P49" s="7" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R49" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Split()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -3737,40 +3940,44 @@
       <c r="D50" t="s">
         <v>126</v>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="J50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"UseSeparators()"</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P50" s="7" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R50" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("UseSeparators()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -3789,40 +3996,44 @@
       <c r="F51" t="s">
         <v>133</v>
       </c>
-      <c r="I51" s="5" t="str">
+      <c r="J51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"InvariantValues"</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="3"/>
         <v>"PdmAttributeSet"</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f t="shared" si="4"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="5"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P51" s="7" t="str">
+      <c r="Q51" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R51" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("InvariantValues", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -3844,40 +4055,44 @@
       <c r="G52" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="J52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Values"</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="3"/>
         <v>"PdmAttributeSet"</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f t="shared" si="4"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="5"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f t="shared" si="6"/>
         <v>"DigitalContentItem"</v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P52" s="7" t="str">
+      <c r="Q52" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R52" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -3893,40 +4108,44 @@
       <c r="E53" t="s">
         <v>133</v>
       </c>
-      <c r="I53" s="5" t="str">
+      <c r="J53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ValuesAndUnits"</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="3"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f t="shared" si="4"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P53" s="7" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R53" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesAndUnits", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -3942,40 +4161,44 @@
       <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="I54" s="5" t="str">
+      <c r="J54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ValuesAndUnitsUSM"</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="3"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f t="shared" si="4"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P54" s="7" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R54" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesAndUnitsUSM", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -3994,40 +4217,44 @@
       <c r="F55" t="s">
         <v>133</v>
       </c>
-      <c r="I55" s="5" t="str">
+      <c r="J55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"ValuesUSM"</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="3"/>
         <v>"PdmAttributeSet"</v>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f t="shared" si="4"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f t="shared" si="5"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O55" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P55" s="7" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R55" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesUSM", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -4040,40 +4267,44 @@
       <c r="D56" t="s">
         <v>126</v>
       </c>
-      <c r="I56" s="5" t="str">
+      <c r="J56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Format()"</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N56" t="str">
+      <c r="O56" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O56" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P56" s="7" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R56" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Format()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -4086,40 +4317,44 @@
       <c r="D57" t="s">
         <v>126</v>
       </c>
-      <c r="I57" s="5" t="str">
+      <c r="J57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Skip()"</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L57" t="str">
+      <c r="M57" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M57" t="str">
+      <c r="N57" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N57" t="str">
+      <c r="O57" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P57" s="7" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R57" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Skip()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4132,40 +4367,44 @@
       <c r="D58" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="5" t="str">
+      <c r="J58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Take()"</v>
       </c>
-      <c r="J58" t="str">
+      <c r="K58" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L58" t="str">
+      <c r="M58" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M58" t="str">
+      <c r="N58" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N58" t="str">
+      <c r="O58" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P58" s="7" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R58" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Take()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4184,40 +4423,44 @@
       <c r="F59" t="s">
         <v>133</v>
       </c>
-      <c r="I59" s="5" t="str">
+      <c r="J59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Where()"</v>
       </c>
-      <c r="J59" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L59" t="str">
+      <c r="M59" t="str">
         <f t="shared" si="4"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="M59" t="str">
+      <c r="N59" t="str">
         <f t="shared" si="5"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="N59" t="str">
+      <c r="O59" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P59" s="7" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R59" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Where()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -4236,40 +4479,44 @@
       <c r="F60" t="s">
         <v>133</v>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="J60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"WhereNot()"</v>
       </c>
-      <c r="J60" t="str">
+      <c r="K60" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResult"</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L60" t="str">
+      <c r="M60" t="str">
         <f t="shared" si="4"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
-      <c r="M60" t="str">
+      <c r="N60" t="str">
         <f t="shared" si="5"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
-      <c r="N60" t="str">
+      <c r="O60" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O60" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P60" s="7" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R60" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("WhereNot()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -4282,40 +4529,44 @@
       <c r="D61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" s="5" t="str">
+      <c r="J61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"BulletFeatures"</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="3"/>
         <v>"TemplexGenerator"</v>
       </c>
-      <c r="L61" t="str">
+      <c r="M61" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N61" t="str">
+      <c r="O61" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O61" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P61" s="7" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R61" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("BulletFeatures", "ExpressionResultList", "TemplexGenerator"));</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4328,40 +4579,44 @@
       <c r="D62" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="J62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"CategoryCodes"</v>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <f t="shared" si="2"/>
         <v>"IEnumerable`1"</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="3"/>
         <v>"RelatedProductList"</v>
       </c>
-      <c r="L62" t="str">
+      <c r="M62" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N62" t="str">
+      <c r="O62" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P62" s="7" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R62" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("CategoryCodes", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -4374,40 +4629,44 @@
       <c r="D63" t="s">
         <v>141</v>
       </c>
-      <c r="I63" s="5" t="str">
+      <c r="J63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"CategoryKeys"</v>
       </c>
-      <c r="J63" t="str">
+      <c r="K63" t="str">
         <f t="shared" si="2"/>
         <v>"IEnumerable`1"</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="3"/>
         <v>"RelatedProductList"</v>
       </c>
-      <c r="L63" t="str">
+      <c r="M63" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N63" t="str">
+      <c r="O63" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P63" s="7" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R63" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("CategoryKeys", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -4420,40 +4679,44 @@
       <c r="D64" t="s">
         <v>130</v>
       </c>
-      <c r="I64" s="5" t="str">
+      <c r="J64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"Colors"</v>
       </c>
-      <c r="J64" t="str">
+      <c r="K64" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="3"/>
         <v>"Sku"</v>
       </c>
-      <c r="L64" t="str">
+      <c r="M64" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M64" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N64" t="str">
+      <c r="O64" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O64" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P64" s="7" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R64" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("Colors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -4466,40 +4729,44 @@
       <c r="D65" t="s">
         <v>141</v>
       </c>
-      <c r="I65" s="5" t="str">
+      <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"CustomerPns"</v>
       </c>
-      <c r="J65" t="str">
+      <c r="K65" t="str">
         <f t="shared" si="2"/>
         <v>"IEnumerable`1"</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="3"/>
         <v>"RelatedProductList"</v>
       </c>
-      <c r="L65" t="str">
+      <c r="M65" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M65" t="str">
+      <c r="N65" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N65" t="str">
+      <c r="O65" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P65" s="7" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R65" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>functions.add(new Function("CustomerPns", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -4512,40 +4779,44 @@
       <c r="D66" t="s">
         <v>130</v>
       </c>
-      <c r="I66" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>"FancyColors"</v>
       </c>
-      <c r="J66" t="str">
+      <c r="K66" t="str">
         <f t="shared" si="2"/>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K66" t="str">
+      <c r="L66" t="str">
         <f t="shared" si="3"/>
         <v>"Sku"</v>
       </c>
-      <c r="L66" t="str">
+      <c r="M66" t="str">
         <f t="shared" si="4"/>
         <v>""</v>
       </c>
-      <c r="M66" t="str">
+      <c r="N66" t="str">
         <f t="shared" si="5"/>
         <v>""</v>
       </c>
-      <c r="N66" t="str">
+      <c r="O66" t="str">
         <f t="shared" si="6"/>
         <v>""</v>
       </c>
-      <c r="O66" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="7"/>
         <v>""</v>
       </c>
-      <c r="P66" s="7" t="str">
+      <c r="Q66" t="str">
         <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="R66" s="7" t="str">
+        <f t="shared" ref="R66:R110" si="9">SUBSTITUTE(CONCATENATE($S$1,J66,$R$1,K66,$R$1,L66,$R$1,M66,$R$1,N66,$R$1,O66,$R$1,P66,$R$1,Q66,$T$1),", """"","")</f>
         <v>functions.add(new Function("FancyColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -4558,40 +4829,44 @@
       <c r="D67" t="s">
         <v>130</v>
       </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" ref="I67:I131" si="9">CONCATENATE("""",A67,"""")</f>
+      <c r="J67" s="5" t="str">
+        <f t="shared" ref="J67:J131" si="10">CONCATENATE("""",A67,"""")</f>
         <v>"InvariantColors"</v>
       </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J131" si="10">CONCATENATE("""",B67,"""")</f>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K131" si="11">CONCATENATE("""",B67,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" ref="K67:K131" si="11">CONCATENATE("""",D67,"""")</f>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L131" si="12">CONCATENATE("""",D67,"""")</f>
         <v>"Sku"</v>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" ref="L67:L131" si="12">CONCATENATE("""",E67,"""")</f>
-        <v>""</v>
-      </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M131" si="13">CONCATENATE("""",F67,"""")</f>
+        <f t="shared" ref="M67:M131" si="13">CONCATENATE("""",E67,"""")</f>
         <v>""</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N131" si="14">CONCATENATE("""",G67,"""")</f>
+        <f t="shared" ref="N67:N131" si="14">CONCATENATE("""",F67,"""")</f>
         <v>""</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O131" si="15">CONCATENATE("""",H67,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P67" s="7" t="str">
-        <f t="shared" ref="P67:P131" si="16">SUBSTITUTE(CONCATENATE($Q$1,I67,$P$1,J67,$P$1,K67,$P$1,L67,$P$1,M67,$P$1,N67,$P$1,O67,$R$1),", """"","")</f>
+        <f t="shared" ref="O67:O131" si="15">CONCATENATE("""",G67,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P131" si="16">CONCATENATE("""",H67,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q130" si="17">CONCATENATE("""",I67,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="R67" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("InvariantColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -4604,21 +4879,17 @@
       <c r="D68" t="s">
         <v>130</v>
       </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J68" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Keywords"</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultList"</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Sku"</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="13"/>
@@ -4632,12 +4903,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P68" s="7" t="str">
+      <c r="P68" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R68" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Keywords", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
@@ -4650,21 +4929,17 @@
       <c r="D69" t="s">
         <v>141</v>
       </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J69" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ManufacturerNames"</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="13"/>
@@ -4678,12 +4953,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P69" s="7" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R69" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ManufacturerNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -4696,21 +4979,17 @@
       <c r="D70" t="s">
         <v>141</v>
       </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J70" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ModelNames"</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="13"/>
@@ -4724,12 +5003,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P70" s="7" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R70" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ModelNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -4742,21 +5029,17 @@
       <c r="D71" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J71" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductIds"</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="13"/>
@@ -4770,12 +5053,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P71" s="7" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R71" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductIds", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -4788,21 +5079,17 @@
       <c r="D72" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductLineNames"</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="13"/>
@@ -4816,12 +5103,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P72" s="7" t="str">
+      <c r="P72" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R72" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductLineNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>52</v>
       </c>
@@ -4834,21 +5129,17 @@
       <c r="D73" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductNames"</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="13"/>
@@ -4862,12 +5153,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P73" s="7" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R73" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -4880,21 +5179,17 @@
       <c r="D74" t="s">
         <v>138</v>
       </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J74" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"GetLines()"</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultList"</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="11"/>
-        <v>"Specs"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Specs"</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="13"/>
@@ -4908,12 +5203,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P74" s="7" t="str">
+      <c r="P74" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R74" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetLines()", "ExpressionResultList", "Specs"));</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -4926,21 +5229,17 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J75" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"GetAncestry()"</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="11"/>
-        <v>"AlternativeCategory"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"AlternativeCategory"</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="13"/>
@@ -4954,12 +5253,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P75" s="7" t="str">
+      <c r="P75" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R75" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetAncestry()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -4972,21 +5279,17 @@
       <c r="D76" t="s">
         <v>129</v>
       </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"GetDescendants()"</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="10"/>
-        <v>"IEnumerable`1"</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="11"/>
-        <v>"AlternativeCategory"</v>
+        <v>"IEnumerable`1"</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"AlternativeCategory"</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="13"/>
@@ -5000,12 +5303,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P76" s="7" t="str">
+      <c r="P76" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R76" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetDescendants()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -5018,21 +5329,17 @@
       <c r="D77" t="s">
         <v>142</v>
       </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J77" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"CategoryKey"</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProduct"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="13"/>
@@ -5046,12 +5353,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P77" s="7" t="str">
+      <c r="P77" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R77" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("CategoryKey", "ExpressionResultNumeric", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
@@ -5073,40 +5388,44 @@
       <c r="G78" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Length"</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="11"/>
-        <v>"ExpressionResultList"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="12"/>
-        <v>"ExpressionResultLiteral"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="13"/>
-        <v>"ExpressionResultNumeric"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="14"/>
-        <v>"ProductPackage"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O78" t="str">
         <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P78" s="7" t="str">
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="P78" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R78" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Length", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
@@ -5119,21 +5438,17 @@
       <c r="D79" t="s">
         <v>138</v>
       </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J79" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"LineCount"</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="11"/>
-        <v>"Specs"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Specs"</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="13"/>
@@ -5147,12 +5462,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P79" s="7" t="str">
+      <c r="P79" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R79" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("LineCount", "ExpressionResultNumeric", "Specs"));</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>43</v>
       </c>
@@ -5165,21 +5488,17 @@
       <c r="D80" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"NonOemAccessories"</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Sku"</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="13"/>
@@ -5193,12 +5512,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P80" s="7" t="str">
+      <c r="P80" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R80" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("NonOemAccessories", "ExpressionResultNumeric", "Sku"));</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
@@ -5211,21 +5538,17 @@
       <c r="D81" t="s">
         <v>143</v>
       </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J81" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Order"</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="11"/>
-        <v>"SpecLine"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"SpecLine"</v>
       </c>
       <c r="M81" t="str">
         <f t="shared" si="13"/>
@@ -5239,12 +5562,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P81" s="7" t="str">
+      <c r="P81" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R81" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Order", "ExpressionResultNumeric", "SpecLine"));</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -5260,25 +5591,21 @@
       <c r="E82" t="s">
         <v>142</v>
       </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"PackQuantity"</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="14"/>
@@ -5288,12 +5615,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P82" s="7" t="str">
+      <c r="P82" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R82" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("PackQuantity", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>48</v>
       </c>
@@ -5309,25 +5644,21 @@
       <c r="E83" t="s">
         <v>142</v>
       </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J83" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductId"</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="14"/>
@@ -5337,12 +5668,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P83" s="7" t="str">
+      <c r="P83" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R83" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductId", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -5355,21 +5694,17 @@
       <c r="D84" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J84" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"AltCats"</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="10"/>
-        <v>"List`1"</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="11"/>
-        <v>"ProductCategories"</v>
+        <v>"List`1"</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ProductCategories"</v>
       </c>
       <c r="M84" t="str">
         <f t="shared" si="13"/>
@@ -5383,12 +5718,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P84" s="7" t="str">
+      <c r="P84" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R84" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("AltCats", "List`1", "ProductCategories"));</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -5401,21 +5744,17 @@
       <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J85" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"BestImages"</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="10"/>
-        <v>"List`1"</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContent"</v>
+        <v>"List`1"</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContent"</v>
       </c>
       <c r="M85" t="str">
         <f t="shared" si="13"/>
@@ -5429,12 +5768,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P85" s="7" t="str">
+      <c r="P85" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R85" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("BestImages", "List`1", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>69</v>
       </c>
@@ -5447,13 +5794,9 @@
       <c r="D86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J86" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Round()"</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="11"/>
@@ -5461,7 +5804,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="13"/>
@@ -5475,12 +5818,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P86" s="7" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R86" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Round()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -5493,13 +5844,9 @@
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J87" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"AtLeast()"</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="11"/>
@@ -5507,7 +5854,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M87" t="str">
         <f t="shared" si="13"/>
@@ -5521,12 +5868,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P87" s="7" t="str">
+      <c r="P87" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R87" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("AtLeast()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5539,13 +5894,9 @@
       <c r="D88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J88" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"AtMost()"</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="11"/>
@@ -5553,7 +5904,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M88" t="str">
         <f t="shared" si="13"/>
@@ -5567,12 +5918,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P88" s="7" t="str">
+      <c r="P88" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R88" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("AtMost()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -5591,40 +5950,44 @@
       <c r="F89" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J89" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"MultiplyBy()"</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResult"</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
+        <v>"ExpressionResult"</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="12"/>
-        <v>"ExpressionResultList"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="13"/>
-        <v>"ExpressionResultLiteral"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="O89" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P89" s="7" t="str">
+      <c r="P89" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R89" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("MultiplyBy()", "ExpressionResult", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral"));</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>72</v>
       </c>
@@ -5637,21 +6000,17 @@
       <c r="D90" t="s">
         <v>133</v>
       </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J90" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Match()"</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="10"/>
-        <v>"PdmAttributeSet"</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>"PdmAttributeSet"</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="13"/>
@@ -5665,12 +6024,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P90" s="7" t="str">
+      <c r="P90" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R90" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Match()", "PdmAttributeSet", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>122</v>
       </c>
@@ -5683,21 +6050,17 @@
       <c r="D91" t="s">
         <v>133</v>
       </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J91" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereUnit()"</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="10"/>
-        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="13"/>
@@ -5711,12 +6074,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P91" s="7" t="str">
+      <c r="P91" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R91" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereUnit()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>123</v>
       </c>
@@ -5729,21 +6100,17 @@
       <c r="D92" t="s">
         <v>133</v>
       </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J92" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereUnitOrValue()"</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="10"/>
-        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="M92" t="str">
         <f t="shared" si="13"/>
@@ -5757,12 +6124,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P92" s="7" t="str">
+      <c r="P92" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R92" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereUnitOrValue()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>117</v>
       </c>
@@ -5775,13 +6150,9 @@
       <c r="D93" t="s">
         <v>141</v>
       </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J93" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereCategory()"</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProductList"</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="11"/>
@@ -5789,7 +6160,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M93" t="str">
         <f t="shared" si="13"/>
@@ -5803,12 +6174,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P93" s="7" t="str">
+      <c r="P93" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R93" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereCategory()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>118</v>
       </c>
@@ -5821,13 +6200,9 @@
       <c r="D94" t="s">
         <v>141</v>
       </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J94" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereManufacturer()"</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProductList"</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="11"/>
@@ -5835,7 +6210,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="13"/>
@@ -5849,12 +6224,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P94" s="7" t="str">
+      <c r="P94" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R94" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereManufacturer()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>119</v>
       </c>
@@ -5867,13 +6250,9 @@
       <c r="D95" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J95" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereModelName()"</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProductList"</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="11"/>
@@ -5881,7 +6260,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M95" t="str">
         <f t="shared" si="13"/>
@@ -5895,12 +6274,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P95" s="7" t="str">
+      <c r="P95" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R95" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereModelName()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
@@ -5913,13 +6300,9 @@
       <c r="D96" t="s">
         <v>141</v>
       </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J96" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"WhereProductLine()"</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProductList"</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="11"/>
@@ -5927,7 +6310,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="M96" t="str">
         <f t="shared" si="13"/>
@@ -5941,12 +6324,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P96" s="7" t="str">
+      <c r="P96" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R96" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereProductLine()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -5959,21 +6350,17 @@
       <c r="D97" t="s">
         <v>143</v>
       </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J97" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Body"</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="11"/>
-        <v>"SpecLine"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"SpecLine"</v>
       </c>
       <c r="M97" t="str">
         <f t="shared" si="13"/>
@@ -5987,12 +6374,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P97" s="7" t="str">
+      <c r="P97" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R97" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Body", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -6008,25 +6403,21 @@
       <c r="E98" t="s">
         <v>142</v>
       </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J98" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Brand"</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M98" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" si="14"/>
@@ -6036,12 +6427,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P98" s="7" t="str">
+      <c r="P98" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R98" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Brand", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -6060,40 +6459,44 @@
       <c r="F99" t="s">
         <v>141</v>
       </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J99" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"CategoryCode"</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="11"/>
-        <v>"ProductCategories"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"ProductCategories"</v>
       </c>
       <c r="M99" t="str">
         <f t="shared" si="13"/>
-        <v>"RelatedProductList"</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="O99" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P99" s="7" t="str">
+      <c r="P99" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R99" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("CategoryCode", "ExpressionResultLiteral", "ProductCategories", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -6109,25 +6512,21 @@
       <c r="E100" t="s">
         <v>141</v>
       </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J100" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"CustomerPn"</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="11"/>
-        <v>"RelatedProduct"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="M100" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="14"/>
@@ -6137,12 +6536,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P100" s="7" t="str">
+      <c r="P100" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R100" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("CustomerPn", "ExpressionResultLiteral", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>15</v>
       </c>
@@ -6158,25 +6565,21 @@
       <c r="E101" t="s">
         <v>144</v>
       </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J101" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Description"</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="12"/>
-        <v>"DigitalContentItem"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="14"/>
@@ -6186,12 +6589,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P101" s="7" t="str">
+      <c r="P101" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R101" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Description", "ExpressionResultLiteral", "Sku", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -6210,40 +6621,44 @@
       <c r="F102" t="s">
         <v>133</v>
       </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J102" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"GroupName"</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L102" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="O102" t="str">
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P102" s="7" t="str">
+      <c r="P102" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R102" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("GroupName", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
@@ -6256,21 +6671,17 @@
       <c r="D103" t="s">
         <v>143</v>
       </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J103" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Header"</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="11"/>
-        <v>"SpecLine"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L103" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"SpecLine"</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="13"/>
@@ -6284,12 +6695,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P103" s="7" t="str">
+      <c r="P103" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R103" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Header", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -6304,21 +6723,17 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="4"/>
-      <c r="I104" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J104" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Invariant"</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L104" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M104" t="str">
         <f t="shared" si="13"/>
@@ -6332,12 +6747,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P104" s="7" t="str">
+      <c r="P104" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R104" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Invariant", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>23</v>
       </c>
@@ -6352,21 +6775,17 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="4"/>
-      <c r="I105" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J105" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"InvariantUnit"</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L105" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="13"/>
@@ -6380,12 +6799,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P105" s="7" t="str">
+      <c r="P105" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R105" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("InvariantUnit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
@@ -6398,21 +6825,17 @@
       <c r="D106" t="s">
         <v>130</v>
       </c>
-      <c r="I106" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J106" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ItemName"</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L106" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Sku"</v>
       </c>
       <c r="M106" t="str">
         <f t="shared" si="13"/>
@@ -6426,12 +6849,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P106" s="7" t="str">
+      <c r="P106" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R106" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ItemName", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>27</v>
       </c>
@@ -6444,21 +6875,17 @@
       <c r="D107" t="s">
         <v>129</v>
       </c>
-      <c r="I107" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J107" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Key"</v>
-      </c>
-      <c r="J107" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="11"/>
-        <v>"AlternativeCategory"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L107" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"AlternativeCategory"</v>
       </c>
       <c r="M107" t="str">
         <f t="shared" si="13"/>
@@ -6472,12 +6899,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P107" s="7" t="str">
+      <c r="P107" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R107" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Key", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
@@ -6493,25 +6928,21 @@
       <c r="E108" t="s">
         <v>142</v>
       </c>
-      <c r="I108" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J108" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Manufacturer"</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L108" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M108" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="14"/>
@@ -6521,12 +6952,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P108" s="7" t="str">
+      <c r="P108" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R108" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("Manufacturer", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>38</v>
       </c>
@@ -6539,21 +6978,17 @@
       <c r="D109" t="s">
         <v>144</v>
       </c>
-      <c r="I109" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J109" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"MimeType"</v>
-      </c>
-      <c r="J109" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContentItem"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L109" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="M109" t="str">
         <f t="shared" si="13"/>
@@ -6567,12 +7002,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P109" s="7" t="str">
+      <c r="P109" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R109" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("MimeType", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>39</v>
       </c>
@@ -6588,25 +7031,21 @@
       <c r="E110" t="s">
         <v>142</v>
       </c>
-      <c r="I110" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J110" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ModelName"</v>
-      </c>
-      <c r="J110" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L110" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M110" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="14"/>
@@ -6616,12 +7055,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P110" s="7" t="str">
+      <c r="P110" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R110" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>functions.add(new Function("ModelName", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>42</v>
       </c>
@@ -6646,40 +7093,47 @@
       <c r="H111" t="s">
         <v>146</v>
       </c>
-      <c r="I111" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="I111" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Name"</v>
-      </c>
-      <c r="J111" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L111" t="str">
         <f t="shared" si="12"/>
-        <v>"PdmAttribute"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M111" t="str">
         <f t="shared" si="13"/>
-        <v>"PdmMultivalueAttribute"</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="14"/>
-        <v>"PdmRepeatingAttribute"</v>
+        <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="O111" t="str">
         <f t="shared" si="15"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="16"/>
         <v>"SpecSection"</v>
       </c>
-      <c r="P111" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>functions.add(new Function("Name", "ExpressionResultLiteral", "Sku", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "SpecSection"));</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111" t="str">
+        <f t="shared" si="17"/>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="R111" s="7" t="str">
+        <f>SUBSTITUTE(CONCATENATE($S$1,J111,$R$1,K111,$R$1,L111,$R$1,M111,$R$1,N111,$R$1,O111,$R$1,P111,$R$1,Q111,$T$1),", """"","")</f>
+        <v>functions.add(new Function("Name", "ExpressionResultLiteral", "Sku", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "SpecSection", "AlternativeCategory"));</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
@@ -6695,25 +7149,21 @@
       <c r="E112" t="s">
         <v>142</v>
       </c>
-      <c r="I112" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J112" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"PartNumber"</v>
-      </c>
-      <c r="J112" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L112" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M112" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="14"/>
@@ -6723,12 +7173,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P112" s="7" t="str">
+      <c r="P112" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R112" s="7" t="str">
+        <f t="shared" ref="R112:R157" si="18">SUBSTITUTE(CONCATENATE($S$1,J112,$R$1,K112,$R$1,L112,$R$1,M112,$R$1,N112,$R$1,O112,$R$1,P112,$R$1,Q112,$T$1),", """"","")</f>
         <v>functions.add(new Function("PartNumber", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>50</v>
       </c>
@@ -6744,25 +7202,21 @@
       <c r="E113" t="s">
         <v>142</v>
       </c>
-      <c r="I113" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J113" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductLine"</v>
-      </c>
-      <c r="J113" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L113" t="str">
         <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
+        <v>"Sku"</v>
       </c>
       <c r="M113" t="str">
         <f t="shared" si="13"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="14"/>
@@ -6772,12 +7226,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P113" s="7" t="str">
+      <c r="P113" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R113" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ProductLine", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>54</v>
       </c>
@@ -6790,21 +7252,17 @@
       <c r="D114" t="s">
         <v>130</v>
       </c>
-      <c r="I114" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J114" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ProductType"</v>
-      </c>
-      <c r="J114" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" si="11"/>
-        <v>"Sku"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L114" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"Sku"</v>
       </c>
       <c r="M114" t="str">
         <f t="shared" si="13"/>
@@ -6818,12 +7276,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P114" s="7" t="str">
+      <c r="P114" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R114" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ProductType", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
@@ -6838,21 +7304,17 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="4"/>
-      <c r="I115" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J115" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Unit"</v>
-      </c>
-      <c r="J115" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L115" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M115" t="str">
         <f t="shared" si="13"/>
@@ -6866,12 +7328,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P115" s="7" t="str">
+      <c r="P115" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R115" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Unit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
@@ -6886,21 +7356,17 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="4"/>
-      <c r="I116" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J116" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"UnitUSM"</v>
-      </c>
-      <c r="J116" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K116" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L116" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M116" t="str">
         <f t="shared" si="13"/>
@@ -6914,12 +7380,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P116" s="7" t="str">
+      <c r="P116" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R116" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("UnitUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
@@ -6937,21 +7411,17 @@
       <c r="G117" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I117" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J117" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Value"</v>
-      </c>
-      <c r="J117" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L117" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M117" t="str">
         <f t="shared" si="13"/>
@@ -6959,18 +7429,26 @@
       </c>
       <c r="N117" t="str">
         <f t="shared" si="14"/>
-        <v>"Gtin"</v>
+        <v>""</v>
       </c>
       <c r="O117" t="str">
         <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P117" s="7" t="str">
+        <v>"Gtin"</v>
+      </c>
+      <c r="P117" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R117" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Value", "ExpressionResultLiteral", "PdmAttribute", "Gtin"));</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>67</v>
       </c>
@@ -6985,21 +7463,17 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="4"/>
-      <c r="I118" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J118" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ValueUSM"</v>
-      </c>
-      <c r="J118" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttribute"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L118" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttribute"</v>
       </c>
       <c r="M118" t="str">
         <f t="shared" si="13"/>
@@ -7013,12 +7487,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P118" s="7" t="str">
+      <c r="P118" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R118" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ValueUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>68</v>
       </c>
@@ -7031,21 +7513,17 @@
       <c r="D119" t="s">
         <v>144</v>
       </c>
-      <c r="I119" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J119" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"XmlContent"</v>
-      </c>
-      <c r="J119" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContentItem"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L119" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="M119" t="str">
         <f t="shared" si="13"/>
@@ -7059,12 +7537,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P119" s="7" t="str">
+      <c r="P119" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R119" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("XmlContent", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>74</v>
       </c>
@@ -7077,21 +7563,17 @@
       <c r="D120" t="s">
         <v>125</v>
       </c>
-      <c r="I120" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J120" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ListPaths()"</v>
-      </c>
-      <c r="J120" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="11"/>
-        <v>"ProductCategories"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L120" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"ProductCategories"</v>
       </c>
       <c r="M120" t="str">
         <f t="shared" si="13"/>
@@ -7105,12 +7587,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P120" s="7" t="str">
+      <c r="P120" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R120" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ListPaths()", "ExpressionResultLiteral", "ProductCategories"));</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
@@ -7123,21 +7613,17 @@
       <c r="D121" t="s">
         <v>139</v>
       </c>
-      <c r="I121" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J121" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ListUSM()"</v>
-      </c>
-      <c r="J121" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="11"/>
-        <v>"PdmAttributeSet"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L121" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"PdmAttributeSet"</v>
       </c>
       <c r="M121" t="str">
         <f t="shared" si="13"/>
@@ -7151,12 +7637,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P121" s="7" t="str">
+      <c r="P121" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R121" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ListUSM()", "ExpressionResultLiteral", "PdmAttributeSet"));</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
@@ -7169,21 +7663,17 @@
       <c r="D122" t="s">
         <v>140</v>
       </c>
-      <c r="I122" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J122" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"GetFullColorDescription()"</v>
-      </c>
-      <c r="J122" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="11"/>
-        <v>"TemplexGenerator"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L122" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"TemplexGenerator"</v>
       </c>
       <c r="M122" t="str">
         <f t="shared" si="13"/>
@@ -7197,12 +7687,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P122" s="7" t="str">
+      <c r="P122" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R122" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("GetFullColorDescription()", "ExpressionResultLiteral", "TemplexGenerator"));</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
@@ -7215,21 +7713,17 @@
       <c r="D123" t="s">
         <v>144</v>
       </c>
-      <c r="I123" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J123" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ToHtml()"</v>
-      </c>
-      <c r="J123" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContentItem"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L123" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="13"/>
@@ -7243,12 +7737,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P123" s="7" t="str">
+      <c r="P123" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R123" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ToHtml()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>90</v>
       </c>
@@ -7261,21 +7763,17 @@
       <c r="D124" t="s">
         <v>144</v>
       </c>
-      <c r="I124" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J124" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ToPlainText()"</v>
-      </c>
-      <c r="J124" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContentItem"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L124" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="M124" t="str">
         <f t="shared" si="13"/>
@@ -7289,12 +7787,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P124" s="7" t="str">
+      <c r="P124" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R124" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ToPlainText()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>115</v>
       </c>
@@ -7317,40 +7823,45 @@
         <v>158</v>
       </c>
       <c r="H125" s="2"/>
-      <c r="I125" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ToText()"</v>
-      </c>
-      <c r="J125" t="str">
-        <f t="shared" si="10"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="11"/>
-        <v>"ExpressionResultList"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L125" t="str">
         <f t="shared" si="12"/>
-        <v>"ExpressionResultLiteral"</v>
+        <v>"ExpressionResultList"</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="13"/>
-        <v>"ExpressionResultNumeric"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" si="14"/>
-        <v>"DateTimeOffset"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O125" t="str">
         <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P125" s="7" t="str">
+        <v>"DateTimeOffset"</v>
+      </c>
+      <c r="P125" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R125" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ToText()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -7363,21 +7874,17 @@
       <c r="D126" t="s">
         <v>144</v>
       </c>
-      <c r="I126" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J126" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Url"</v>
-      </c>
-      <c r="J126" t="str">
-        <f t="shared" si="10"/>
-        <v>"Uri"</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" si="11"/>
-        <v>"DigitalContentItem"</v>
+        <v>"Uri"</v>
       </c>
       <c r="L126" t="str">
         <f t="shared" si="12"/>
-        <v>""</v>
+        <v>"DigitalContentItem"</v>
       </c>
       <c r="M126" t="str">
         <f t="shared" si="13"/>
@@ -7391,12 +7898,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P126" s="7" t="str">
+      <c r="P126" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R126" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Url", "Uri", "DigitalContentItem"));</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>172</v>
       </c>
@@ -7406,40 +7921,44 @@
       <c r="D127" t="s">
         <v>138</v>
       </c>
-      <c r="I127" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J127" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"CompatibleProducts"</v>
       </c>
-      <c r="J127" t="str">
-        <f t="shared" ref="J127" si="17">CONCATENATE("""",B127,"""")</f>
+      <c r="K127" t="str">
+        <f t="shared" ref="K127" si="19">CONCATENATE("""",B127,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="K127" t="str">
-        <f t="shared" ref="K127" si="18">CONCATENATE("""",D127,"""")</f>
+      <c r="L127" t="str">
+        <f t="shared" ref="L127" si="20">CONCATENATE("""",D127,"""")</f>
         <v>"Specs"</v>
       </c>
-      <c r="L127" t="str">
-        <f t="shared" ref="L127" si="19">CONCATENATE("""",E127,"""")</f>
-        <v>""</v>
-      </c>
       <c r="M127" t="str">
-        <f t="shared" ref="M127" si="20">CONCATENATE("""",F127,"""")</f>
+        <f t="shared" ref="M127" si="21">CONCATENATE("""",E127,"""")</f>
         <v>""</v>
       </c>
       <c r="N127" t="str">
-        <f t="shared" ref="N127" si="21">CONCATENATE("""",G127,"""")</f>
+        <f t="shared" ref="N127" si="22">CONCATENATE("""",F127,"""")</f>
         <v>""</v>
       </c>
       <c r="O127" t="str">
-        <f t="shared" ref="O127" si="22">CONCATENATE("""",H127,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P127" s="7" t="str">
-        <f t="shared" ref="P127" si="23">SUBSTITUTE(CONCATENATE($Q$1,I127,$P$1,J127,$P$1,K127,$P$1,L127,$P$1,M127,$P$1,N127,$P$1,O127,$R$1),", """"","")</f>
+        <f t="shared" ref="O127" si="23">CONCATENATE("""",G127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P127" t="str">
+        <f t="shared" ref="P127" si="24">CONCATENATE("""",H127,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q127" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R127" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("CompatibleProducts", "ExpressionResultList", "Specs"));</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -7449,17 +7968,13 @@
       <c r="C128" t="s">
         <v>125</v>
       </c>
-      <c r="I128" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J128" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"CAT"</v>
-      </c>
-      <c r="J128" t="str">
-        <f t="shared" si="10"/>
-        <v>"ProductCategories"</v>
       </c>
       <c r="K128" t="str">
         <f t="shared" si="11"/>
-        <v>""</v>
+        <v>"ProductCategories"</v>
       </c>
       <c r="L128" t="str">
         <f t="shared" si="12"/>
@@ -7477,12 +7992,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P128" s="7" t="str">
+      <c r="P128" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R128" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("CAT", "ProductCategories"));</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>148</v>
       </c>
@@ -7492,17 +8015,13 @@
       <c r="C129" t="s">
         <v>130</v>
       </c>
-      <c r="I129" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J129" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"SKU"</v>
-      </c>
-      <c r="J129" t="str">
-        <f t="shared" si="10"/>
-        <v>"Sku"</v>
       </c>
       <c r="K129" t="str">
         <f t="shared" si="11"/>
-        <v>""</v>
+        <v>"Sku"</v>
       </c>
       <c r="L129" t="str">
         <f t="shared" si="12"/>
@@ -7520,12 +8039,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P129" s="7" t="str">
+      <c r="P129" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R129" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("SKU", "Sku"));</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -7535,17 +8062,13 @@
       <c r="C130" t="s">
         <v>142</v>
       </c>
-      <c r="I130" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J130" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"Request"</v>
-      </c>
-      <c r="J130" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProduct"</v>
       </c>
       <c r="K130" t="str">
         <f t="shared" si="11"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="L130" t="str">
         <f t="shared" si="12"/>
@@ -7563,12 +8086,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P130" s="7" t="str">
+      <c r="P130" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="R130" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Request", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
@@ -7578,17 +8109,13 @@
       <c r="C131" t="s">
         <v>141</v>
       </c>
-      <c r="I131" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="J131" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>"ParentProducts"</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" si="10"/>
-        <v>"RelatedProductList"</v>
       </c>
       <c r="K131" t="str">
         <f t="shared" si="11"/>
-        <v>""</v>
+        <v>"RelatedProductList"</v>
       </c>
       <c r="L131" t="str">
         <f t="shared" si="12"/>
@@ -7606,12 +8133,20 @@
         <f t="shared" si="15"/>
         <v>""</v>
       </c>
-      <c r="P131" s="7" t="str">
+      <c r="P131" t="str">
         <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" ref="Q131:Q157" si="25">CONCATENATE("""",I131,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="R131" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ParentProducts", "RelatedProductList"));</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -7621,40 +8156,44 @@
       <c r="C132" t="s">
         <v>138</v>
       </c>
-      <c r="I132" s="5" t="str">
-        <f t="shared" ref="I132:I136" si="24">CONCATENATE("""",A132,"""")</f>
+      <c r="J132" s="5" t="str">
+        <f t="shared" ref="J132:J136" si="26">CONCATENATE("""",A132,"""")</f>
         <v>"MS"</v>
       </c>
-      <c r="J132" t="str">
-        <f t="shared" ref="J132:J137" si="25">CONCATENATE("""",B132,"""")</f>
+      <c r="K132" t="str">
+        <f t="shared" ref="K132:K137" si="27">CONCATENATE("""",B132,"""")</f>
         <v>"Specs"</v>
       </c>
-      <c r="K132" t="str">
-        <f t="shared" ref="K132:K137" si="26">CONCATENATE("""",D132,"""")</f>
-        <v>""</v>
-      </c>
       <c r="L132" t="str">
-        <f t="shared" ref="L132:L137" si="27">CONCATENATE("""",E132,"""")</f>
+        <f t="shared" ref="L132:L137" si="28">CONCATENATE("""",D132,"""")</f>
         <v>""</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" ref="M132:M137" si="28">CONCATENATE("""",F132,"""")</f>
+        <f t="shared" ref="M132:M137" si="29">CONCATENATE("""",E132,"""")</f>
         <v>""</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" ref="N132:N137" si="29">CONCATENATE("""",G132,"""")</f>
+        <f t="shared" ref="N132:N137" si="30">CONCATENATE("""",F132,"""")</f>
         <v>""</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" ref="O132:O137" si="30">CONCATENATE("""",H132,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P132" s="7" t="str">
-        <f t="shared" ref="P132:P137" si="31">SUBSTITUTE(CONCATENATE($Q$1,I132,$P$1,J132,$P$1,K132,$P$1,L132,$P$1,M132,$P$1,N132,$P$1,O132,$R$1),", """"","")</f>
+        <f t="shared" ref="O132:O137" si="31">CONCATENATE("""",G132,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" ref="P132:P137" si="32">CONCATENATE("""",H132,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q132" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R132" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("MS", "Specs"));</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>152</v>
       </c>
@@ -7664,40 +8203,44 @@
       <c r="C133" t="s">
         <v>131</v>
       </c>
-      <c r="I133" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="J133" s="5" t="str">
+        <f t="shared" si="26"/>
         <v>"Sys"</v>
       </c>
-      <c r="J133" t="str">
+      <c r="K133" t="str">
+        <f t="shared" si="27"/>
+        <v>"SystemObject"</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="Q133" t="str">
         <f t="shared" si="25"/>
-        <v>"SystemObject"</v>
-      </c>
-      <c r="K133" t="str">
-        <f t="shared" si="26"/>
-        <v>""</v>
-      </c>
-      <c r="L133" t="str">
-        <f t="shared" si="27"/>
-        <v>""</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="N133" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="O133" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="P133" s="7" t="str">
-        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="R133" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Sys", "SystemObject"));</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -7707,40 +8250,44 @@
       <c r="C134" t="s">
         <v>134</v>
       </c>
-      <c r="I134" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="J134" s="5" t="str">
+        <f t="shared" si="26"/>
         <v>"DC"</v>
       </c>
-      <c r="J134" t="str">
+      <c r="K134" t="str">
+        <f t="shared" si="27"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="Q134" t="str">
         <f t="shared" si="25"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="K134" t="str">
-        <f t="shared" si="26"/>
-        <v>""</v>
-      </c>
-      <c r="L134" t="str">
-        <f t="shared" si="27"/>
-        <v>""</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="N134" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="O134" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="P134" s="7" t="str">
-        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="R134" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("DC", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>154</v>
       </c>
@@ -7750,40 +8297,44 @@
       <c r="C135" t="s">
         <v>140</v>
       </c>
-      <c r="I135" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="J135" s="5" t="str">
+        <f t="shared" si="26"/>
         <v>"Generator"</v>
       </c>
-      <c r="J135" t="str">
+      <c r="K135" t="str">
+        <f t="shared" si="27"/>
+        <v>"TemplexGenerator"</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="Q135" t="str">
         <f t="shared" si="25"/>
-        <v>"TemplexGenerator"</v>
-      </c>
-      <c r="K135" t="str">
-        <f t="shared" si="26"/>
-        <v>""</v>
-      </c>
-      <c r="L135" t="str">
-        <f t="shared" si="27"/>
-        <v>""</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="N135" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="O135" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="P135" s="7" t="str">
-        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="R135" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Generator", "TemplexGenerator"));</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -7793,137 +8344,145 @@
       <c r="C136" t="s">
         <v>138</v>
       </c>
-      <c r="I136" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="J136" s="5" t="str">
+        <f t="shared" si="26"/>
         <v>"ES"</v>
       </c>
-      <c r="J136" t="str">
+      <c r="K136" t="str">
+        <f t="shared" si="27"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="Q136" t="str">
         <f t="shared" si="25"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="K136" t="str">
-        <f t="shared" si="26"/>
-        <v>""</v>
-      </c>
-      <c r="L136" t="str">
-        <f t="shared" si="27"/>
-        <v>""</v>
-      </c>
-      <c r="M136" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="N136" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="O136" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="P136" s="7" t="str">
-        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="R136" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ES", "Specs"));</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>173</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I137" s="5" t="str">
-        <f t="shared" ref="I137" si="32">CONCATENATE("""",A137,"""")</f>
+      <c r="J137" s="5" t="str">
+        <f t="shared" ref="J137" si="33">CONCATENATE("""",A137,"""")</f>
         <v>"COALESCE()"</v>
       </c>
-      <c r="J137" t="str">
+      <c r="K137" t="str">
+        <f t="shared" si="27"/>
+        <v>"You can invoke nothing on it"</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="28"/>
+        <v>""</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="Q137" t="str">
         <f t="shared" si="25"/>
-        <v>"You can invoke nothing on it"</v>
-      </c>
-      <c r="K137" t="str">
-        <f t="shared" si="26"/>
-        <v>""</v>
-      </c>
-      <c r="L137" t="str">
-        <f t="shared" si="27"/>
-        <v>""</v>
-      </c>
-      <c r="M137" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="N137" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="O137" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="P137" s="7" t="str">
-        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="R137" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("COALESCE()", "You can invoke nothing on it"));</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I138" s="5" t="str">
-        <f t="shared" ref="I138:I154" si="33">CONCATENATE("""",A138,"""")</f>
+      <c r="J138" s="5" t="str">
+        <f t="shared" ref="J138:J154" si="34">CONCATENATE("""",A138,"""")</f>
         <v>"NOT NULL"</v>
       </c>
-      <c r="J138" t="str">
-        <f t="shared" ref="J138:J144" si="34">CONCATENATE("""",B138,"""")</f>
+      <c r="K138" t="str">
+        <f t="shared" ref="K138:K144" si="35">CONCATENATE("""",B138,"""")</f>
         <v>"You can invoke nothing on it"</v>
       </c>
-      <c r="K138" t="str">
-        <f t="shared" ref="K138:K144" si="35">CONCATENATE("""",D138,"""")</f>
-        <v>""</v>
-      </c>
       <c r="L138" t="str">
-        <f t="shared" ref="L138:L144" si="36">CONCATENATE("""",E138,"""")</f>
+        <f t="shared" ref="L138:L144" si="36">CONCATENATE("""",D138,"""")</f>
         <v>""</v>
       </c>
       <c r="M138" t="str">
-        <f t="shared" ref="M138:M144" si="37">CONCATENATE("""",F138,"""")</f>
+        <f t="shared" ref="M138:M144" si="37">CONCATENATE("""",E138,"""")</f>
         <v>""</v>
       </c>
       <c r="N138" t="str">
-        <f t="shared" ref="N138:N144" si="38">CONCATENATE("""",G138,"""")</f>
+        <f t="shared" ref="N138:N144" si="38">CONCATENATE("""",F138,"""")</f>
         <v>""</v>
       </c>
       <c r="O138" t="str">
-        <f t="shared" ref="O138:O144" si="39">CONCATENATE("""",H138,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P138" s="7" t="str">
-        <f t="shared" ref="P138:P144" si="40">SUBSTITUTE(CONCATENATE($Q$1,I138,$P$1,J138,$P$1,K138,$P$1,L138,$P$1,M138,$P$1,N138,$P$1,O138,$R$1),", """"","")</f>
+        <f t="shared" ref="O138:O144" si="39">CONCATENATE("""",G138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" ref="P138:P144" si="40">CONCATENATE("""",H138,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q138" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R138" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("NOT NULL", "You can invoke nothing on it"));</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I139" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J139" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"NULL"</v>
-      </c>
-      <c r="J139" t="str">
-        <f t="shared" si="34"/>
-        <v>"You can invoke nothing on it"</v>
       </c>
       <c r="K139" t="str">
         <f t="shared" si="35"/>
-        <v>""</v>
+        <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L139" t="str">
         <f t="shared" si="36"/>
@@ -7941,12 +8500,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P139" s="7" t="str">
+      <c r="P139" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q139" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R139" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("NULL", "You can invoke nothing on it"));</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>177</v>
       </c>
@@ -7956,21 +8523,17 @@
       <c r="D140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I140" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J140" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Data[\"\"]"</v>
-      </c>
-      <c r="J140" t="str">
-        <f t="shared" si="34"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K140" t="str">
         <f t="shared" si="35"/>
-        <v>"RelatedProduct"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L140" t="str">
         <f t="shared" si="36"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="M140" t="str">
         <f t="shared" si="37"/>
@@ -7984,12 +8547,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P140" s="7" t="str">
+      <c r="P140" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q140" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R140" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Data[\"\"]", "ExpressionResultLiteral", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>178</v>
       </c>
@@ -7999,21 +8570,17 @@
       <c r="D141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I141" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>"Gtin"</v>
-      </c>
-      <c r="J141" t="str">
+      <c r="J141" s="5" t="str">
         <f t="shared" si="34"/>
         <v>"Gtin"</v>
       </c>
       <c r="K141" t="str">
         <f t="shared" si="35"/>
-        <v>"RelatedProduct"</v>
+        <v>"Gtin"</v>
       </c>
       <c r="L141" t="str">
         <f t="shared" si="36"/>
-        <v>""</v>
+        <v>"RelatedProduct"</v>
       </c>
       <c r="M141" t="str">
         <f t="shared" si="37"/>
@@ -8027,12 +8594,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P141" s="7" t="str">
+      <c r="P141" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q141" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R141" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Gtin", "Gtin", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>179</v>
       </c>
@@ -8042,21 +8617,17 @@
       <c r="D142" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I142" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J142" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Format"</v>
-      </c>
-      <c r="J142" t="str">
-        <f t="shared" si="34"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K142" t="str">
         <f t="shared" si="35"/>
-        <v>"Gtin"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L142" t="str">
         <f t="shared" si="36"/>
-        <v>""</v>
+        <v>"Gtin"</v>
       </c>
       <c r="M142" t="str">
         <f t="shared" si="37"/>
@@ -8070,12 +8641,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P142" s="7" t="str">
+      <c r="P142" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q142" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R142" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Format", "ExpressionResultLiteral", "Gtin"));</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>180</v>
       </c>
@@ -8085,21 +8664,17 @@
       <c r="D143" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I143" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J143" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"HasValue"</v>
-      </c>
-      <c r="J143" t="str">
-        <f t="shared" si="34"/>
-        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="K143" t="str">
         <f t="shared" si="35"/>
-        <v>"ExpressionResultNumeric"</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L143" t="str">
         <f t="shared" si="36"/>
-        <v>""</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M143" t="str">
         <f t="shared" si="37"/>
@@ -8113,12 +8688,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P143" s="7" t="str">
+      <c r="P143" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q143" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R143" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("HasValue", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>181</v>
       </c>
@@ -8128,21 +8711,17 @@
       <c r="D144" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I144" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J144" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Height"</v>
-      </c>
-      <c r="J144" t="str">
-        <f t="shared" si="34"/>
-        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="K144" t="str">
         <f t="shared" si="35"/>
-        <v>"ProductPackage"</v>
+        <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L144" t="str">
         <f t="shared" si="36"/>
-        <v>""</v>
+        <v>"ProductPackage"</v>
       </c>
       <c r="M144" t="str">
         <f t="shared" si="37"/>
@@ -8156,12 +8735,20 @@
         <f t="shared" si="39"/>
         <v>""</v>
       </c>
-      <c r="P144" s="7" t="str">
+      <c r="P144" t="str">
         <f t="shared" si="40"/>
+        <v>""</v>
+      </c>
+      <c r="Q144" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R144" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Height", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>182</v>
       </c>
@@ -8171,40 +8758,44 @@
       <c r="D145" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I145" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J145" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Width"</v>
       </c>
-      <c r="J145" t="str">
-        <f t="shared" ref="J145:J151" si="41">CONCATENATE("""",B145,"""")</f>
+      <c r="K145" t="str">
+        <f t="shared" ref="K145:K151" si="41">CONCATENATE("""",B145,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="K145" t="str">
-        <f t="shared" ref="K145:K150" si="42">CONCATENATE("""",D145,"""")</f>
+      <c r="L145" t="str">
+        <f t="shared" ref="L145:L150" si="42">CONCATENATE("""",D145,"""")</f>
         <v>"ProductPackage"</v>
       </c>
-      <c r="L145" t="str">
-        <f t="shared" ref="L145:L150" si="43">CONCATENATE("""",E145,"""")</f>
-        <v>""</v>
-      </c>
       <c r="M145" t="str">
-        <f t="shared" ref="M145:M150" si="44">CONCATENATE("""",F145,"""")</f>
+        <f t="shared" ref="M145:M150" si="43">CONCATENATE("""",E145,"""")</f>
         <v>""</v>
       </c>
       <c r="N145" t="str">
-        <f t="shared" ref="N145:N150" si="45">CONCATENATE("""",G145,"""")</f>
+        <f t="shared" ref="N145:N150" si="44">CONCATENATE("""",F145,"""")</f>
         <v>""</v>
       </c>
       <c r="O145" t="str">
-        <f t="shared" ref="O145:O150" si="46">CONCATENATE("""",H145,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P145" s="7" t="str">
-        <f t="shared" ref="P145:P150" si="47">SUBSTITUTE(CONCATENATE($Q$1,I145,$P$1,J145,$P$1,K145,$P$1,L145,$P$1,M145,$P$1,N145,$P$1,O145,$R$1),", """"","")</f>
+        <f t="shared" ref="O145:O150" si="45">CONCATENATE("""",G145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" ref="P145:P150" si="46">CONCATENATE("""",H145,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q145" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R145" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Width", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>183</v>
       </c>
@@ -8214,40 +8805,44 @@
       <c r="D146" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I146" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J146" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Weight"</v>
       </c>
-      <c r="J146" t="str">
+      <c r="K146" t="str">
         <f t="shared" si="41"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="K146" t="str">
+      <c r="L146" t="str">
         <f t="shared" si="42"/>
         <v>"ProductPackage"</v>
       </c>
-      <c r="L146" t="str">
+      <c r="M146" t="str">
         <f t="shared" si="43"/>
         <v>""</v>
       </c>
-      <c r="M146" t="str">
+      <c r="N146" t="str">
         <f t="shared" si="44"/>
         <v>""</v>
       </c>
-      <c r="N146" t="str">
+      <c r="O146" t="str">
         <f t="shared" si="45"/>
         <v>""</v>
       </c>
-      <c r="O146" t="str">
+      <c r="P146" t="str">
         <f t="shared" si="46"/>
         <v>""</v>
       </c>
-      <c r="P146" s="7" t="str">
-        <f t="shared" si="47"/>
+      <c r="Q146" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R146" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Weight", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>185</v>
       </c>
@@ -8257,40 +8852,44 @@
       <c r="D147" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I147" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J147" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Package"</v>
       </c>
-      <c r="J147" t="str">
+      <c r="K147" t="str">
         <f t="shared" si="41"/>
         <v>"ProductPackage"</v>
       </c>
-      <c r="K147" t="str">
+      <c r="L147" t="str">
         <f t="shared" si="42"/>
         <v>"RelatedProduct"</v>
       </c>
-      <c r="L147" t="str">
+      <c r="M147" t="str">
         <f t="shared" si="43"/>
         <v>""</v>
       </c>
-      <c r="M147" t="str">
+      <c r="N147" t="str">
         <f t="shared" si="44"/>
         <v>""</v>
       </c>
-      <c r="N147" t="str">
+      <c r="O147" t="str">
         <f t="shared" si="45"/>
         <v>""</v>
       </c>
-      <c r="O147" t="str">
+      <c r="P147" t="str">
         <f t="shared" si="46"/>
         <v>""</v>
       </c>
-      <c r="P147" s="7" t="str">
-        <f t="shared" si="47"/>
+      <c r="Q147" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R147" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Package", "ProductPackage", "RelatedProduct"));</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>186</v>
       </c>
@@ -8300,40 +8899,44 @@
       <c r="D148" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I148" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J148" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"IsBiggerThan()"</v>
       </c>
-      <c r="J148" t="str">
+      <c r="K148" t="str">
         <f t="shared" si="41"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K148" t="str">
+      <c r="L148" t="str">
         <f t="shared" si="42"/>
         <v>"ProductPackage"</v>
       </c>
-      <c r="L148" t="str">
+      <c r="M148" t="str">
         <f t="shared" si="43"/>
         <v>""</v>
       </c>
-      <c r="M148" t="str">
+      <c r="N148" t="str">
         <f t="shared" si="44"/>
         <v>""</v>
       </c>
-      <c r="N148" t="str">
+      <c r="O148" t="str">
         <f t="shared" si="45"/>
         <v>""</v>
       </c>
-      <c r="O148" t="str">
+      <c r="P148" t="str">
         <f t="shared" si="46"/>
         <v>""</v>
       </c>
-      <c r="P148" s="7" t="str">
-        <f t="shared" si="47"/>
+      <c r="Q148" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R148" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("IsBiggerThan()", "ExpressionResultLiteral", "ProductPackage"));</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>187</v>
       </c>
@@ -8343,40 +8946,44 @@
       <c r="D149" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I149" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J149" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"BulletFeatures[]"</v>
       </c>
-      <c r="J149" t="str">
+      <c r="K149" t="str">
         <f t="shared" si="41"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K149" t="str">
+      <c r="L149" t="str">
         <f t="shared" si="42"/>
         <v>"TemplexGenerator"</v>
       </c>
-      <c r="L149" t="str">
+      <c r="M149" t="str">
         <f t="shared" si="43"/>
         <v>""</v>
       </c>
-      <c r="M149" t="str">
+      <c r="N149" t="str">
         <f t="shared" si="44"/>
         <v>""</v>
       </c>
-      <c r="N149" t="str">
+      <c r="O149" t="str">
         <f t="shared" si="45"/>
         <v>""</v>
       </c>
-      <c r="O149" t="str">
+      <c r="P149" t="str">
         <f t="shared" si="46"/>
         <v>""</v>
       </c>
-      <c r="P149" s="7" t="str">
-        <f t="shared" si="47"/>
+      <c r="Q149" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R149" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("BulletFeatures[]", "ExpressionResultLiteral", "TemplexGenerator"));</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>188</v>
       </c>
@@ -8386,80 +8993,88 @@
       <c r="D150" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I150" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J150" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Ksp[]"</v>
       </c>
-      <c r="J150" t="str">
+      <c r="K150" t="str">
         <f t="shared" si="41"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K150" t="str">
+      <c r="L150" t="str">
         <f t="shared" si="42"/>
         <v>"DigitalContent"</v>
       </c>
-      <c r="L150" t="str">
+      <c r="M150" t="str">
         <f t="shared" si="43"/>
         <v>""</v>
       </c>
-      <c r="M150" t="str">
+      <c r="N150" t="str">
         <f t="shared" si="44"/>
         <v>""</v>
       </c>
-      <c r="N150" t="str">
+      <c r="O150" t="str">
         <f t="shared" si="45"/>
         <v>""</v>
       </c>
-      <c r="O150" t="str">
+      <c r="P150" t="str">
         <f t="shared" si="46"/>
         <v>""</v>
       </c>
-      <c r="P150" s="7" t="str">
-        <f t="shared" si="47"/>
+      <c r="Q150" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R150" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Ksp[]", "ExpressionResultLiteral", "DigitalContent"));</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I151" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J151" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"\"\""</v>
       </c>
-      <c r="J151" t="str">
+      <c r="K151" t="str">
         <f t="shared" si="41"/>
         <v>"You can invoke nothing on it"</v>
       </c>
-      <c r="K151" t="str">
-        <f t="shared" ref="K151" si="48">CONCATENATE("""",D151,"""")</f>
-        <v>""</v>
-      </c>
       <c r="L151" t="str">
-        <f t="shared" ref="L151" si="49">CONCATENATE("""",E151,"""")</f>
+        <f t="shared" ref="L151" si="47">CONCATENATE("""",D151,"""")</f>
         <v>""</v>
       </c>
       <c r="M151" t="str">
-        <f t="shared" ref="M151" si="50">CONCATENATE("""",F151,"""")</f>
+        <f t="shared" ref="M151" si="48">CONCATENATE("""",E151,"""")</f>
         <v>""</v>
       </c>
       <c r="N151" t="str">
-        <f t="shared" ref="N151" si="51">CONCATENATE("""",G151,"""")</f>
+        <f t="shared" ref="N151" si="49">CONCATENATE("""",F151,"""")</f>
         <v>""</v>
       </c>
       <c r="O151" t="str">
-        <f t="shared" ref="O151" si="52">CONCATENATE("""",H151,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P151" s="7" t="str">
-        <f t="shared" ref="P151:P154" si="53">SUBSTITUTE(CONCATENATE($Q$1,I151,$P$1,J151,$P$1,K151,$P$1,L151,$P$1,M151,$P$1,N151,$P$1,O151,$R$1),", """"","")</f>
+        <f t="shared" ref="O151" si="50">CONCATENATE("""",G151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" ref="P151" si="51">CONCATENATE("""",H151,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q151" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R151" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("\"\"", "You can invoke nothing on it"));</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>190</v>
       </c>
@@ -8469,40 +9084,44 @@
       <c r="D152" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I152" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J152" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Year"</v>
       </c>
-      <c r="J152" t="str">
-        <f t="shared" ref="J152:J154" si="54">CONCATENATE("""",B152,"""")</f>
+      <c r="K152" t="str">
+        <f t="shared" ref="K152:K154" si="52">CONCATENATE("""",B152,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="K152" t="str">
-        <f t="shared" ref="K152:K154" si="55">CONCATENATE("""",D152,"""")</f>
+      <c r="L152" t="str">
+        <f t="shared" ref="L152:L154" si="53">CONCATENATE("""",D152,"""")</f>
         <v>"DateTime"</v>
       </c>
-      <c r="L152" t="str">
-        <f t="shared" ref="L152:L154" si="56">CONCATENATE("""",E152,"""")</f>
-        <v>""</v>
-      </c>
       <c r="M152" t="str">
-        <f t="shared" ref="M152:M154" si="57">CONCATENATE("""",F152,"""")</f>
+        <f t="shared" ref="M152:M154" si="54">CONCATENATE("""",E152,"""")</f>
         <v>""</v>
       </c>
       <c r="N152" t="str">
-        <f t="shared" ref="N152:N154" si="58">CONCATENATE("""",G152,"""")</f>
+        <f t="shared" ref="N152:N154" si="55">CONCATENATE("""",F152,"""")</f>
         <v>""</v>
       </c>
       <c r="O152" t="str">
-        <f t="shared" ref="O152:O154" si="59">CONCATENATE("""",H152,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P152" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="O152:O154" si="56">CONCATENATE("""",G152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" ref="P152:P154" si="57">CONCATENATE("""",H152,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q152" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R152" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Year", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>191</v>
       </c>
@@ -8512,40 +9131,44 @@
       <c r="D153" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I153" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J153" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Month"</v>
       </c>
-      <c r="J153" t="str">
+      <c r="K153" t="str">
+        <f t="shared" si="52"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="53"/>
+        <v>"DateTime"</v>
+      </c>
+      <c r="M153" t="str">
         <f t="shared" si="54"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="K153" t="str">
+        <v>""</v>
+      </c>
+      <c r="N153" t="str">
         <f t="shared" si="55"/>
-        <v>"DateTime"</v>
-      </c>
-      <c r="L153" t="str">
+        <v>""</v>
+      </c>
+      <c r="O153" t="str">
         <f t="shared" si="56"/>
         <v>""</v>
       </c>
-      <c r="M153" t="str">
+      <c r="P153" t="str">
         <f t="shared" si="57"/>
         <v>""</v>
       </c>
-      <c r="N153" t="str">
-        <f t="shared" si="58"/>
-        <v>""</v>
-      </c>
-      <c r="O153" t="str">
-        <f t="shared" si="59"/>
-        <v>""</v>
-      </c>
-      <c r="P153" s="7" t="str">
-        <f t="shared" si="53"/>
+      <c r="Q153" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R153" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Month", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>192</v>
       </c>
@@ -8555,40 +9178,44 @@
       <c r="D154" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I154" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="J154" s="5" t="str">
+        <f t="shared" si="34"/>
         <v>"Day"</v>
       </c>
-      <c r="J154" t="str">
+      <c r="K154" t="str">
+        <f t="shared" si="52"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="53"/>
+        <v>"DateTime"</v>
+      </c>
+      <c r="M154" t="str">
         <f t="shared" si="54"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="K154" t="str">
+        <v>""</v>
+      </c>
+      <c r="N154" t="str">
         <f t="shared" si="55"/>
-        <v>"DateTime"</v>
-      </c>
-      <c r="L154" t="str">
+        <v>""</v>
+      </c>
+      <c r="O154" t="str">
         <f t="shared" si="56"/>
         <v>""</v>
       </c>
-      <c r="M154" t="str">
+      <c r="P154" t="str">
         <f t="shared" si="57"/>
         <v>""</v>
       </c>
-      <c r="N154" t="str">
-        <f t="shared" si="58"/>
-        <v>""</v>
-      </c>
-      <c r="O154" t="str">
-        <f t="shared" si="59"/>
-        <v>""</v>
-      </c>
-      <c r="P154" s="7" t="str">
-        <f t="shared" si="53"/>
+      <c r="Q154" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R154" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("Day", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>193</v>
       </c>
@@ -8607,81 +9234,183 @@
       <c r="G155" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I155" s="5" t="str">
-        <f t="shared" ref="I155:I156" si="60">CONCATENATE("""",A155,"""")</f>
+      <c r="J155" s="5" t="str">
+        <f t="shared" ref="J155:J158" si="58">CONCATENATE("""",A155,"""")</f>
         <v>"ToString()"</v>
       </c>
-      <c r="J155" t="str">
-        <f t="shared" ref="J155" si="61">CONCATENATE("""",B155,"""")</f>
+      <c r="K155" t="str">
+        <f t="shared" ref="K155" si="59">CONCATENATE("""",B155,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="K155" t="str">
-        <f t="shared" ref="K155" si="62">CONCATENATE("""",D155,"""")</f>
+      <c r="L155" t="str">
+        <f t="shared" ref="L155" si="60">CONCATENATE("""",D155,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
-      <c r="L155" t="str">
-        <f t="shared" ref="L155" si="63">CONCATENATE("""",E155,"""")</f>
+      <c r="M155" t="str">
+        <f t="shared" ref="M155" si="61">CONCATENATE("""",E155,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
-      <c r="M155" t="str">
-        <f t="shared" ref="M155" si="64">CONCATENATE("""",F155,"""")</f>
+      <c r="N155" t="str">
+        <f t="shared" ref="N155" si="62">CONCATENATE("""",F155,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
-      <c r="N155" t="str">
-        <f t="shared" ref="N155" si="65">CONCATENATE("""",G155,"""")</f>
+      <c r="O155" t="str">
+        <f t="shared" ref="O155" si="63">CONCATENATE("""",G155,"""")</f>
         <v>"DateTimeOffset"</v>
       </c>
-      <c r="O155" t="str">
-        <f t="shared" ref="O155" si="66">CONCATENATE("""",H155,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P155" s="7" t="str">
-        <f t="shared" ref="P155" si="67">SUBSTITUTE(CONCATENATE($Q$1,I155,$P$1,J155,$P$1,K155,$P$1,L155,$P$1,M155,$P$1,N155,$P$1,O155,$R$1),", """"","")</f>
+      <c r="P155" t="str">
+        <f t="shared" ref="P155" si="64">CONCATENATE("""",H155,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q155" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R155" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("ToString()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I156" s="5" t="str">
-        <f t="shared" si="60"/>
+      <c r="J156" s="5" t="str">
+        <f t="shared" si="58"/>
         <v>"DECODE()"</v>
       </c>
-      <c r="J156" t="str">
-        <f t="shared" ref="J156" si="68">CONCATENATE("""",B156,"""")</f>
+      <c r="K156" t="str">
+        <f t="shared" ref="K156" si="65">CONCATENATE("""",B156,"""")</f>
         <v>"You can invoke nothing on it"</v>
       </c>
-      <c r="K156" t="str">
-        <f t="shared" ref="K156" si="69">CONCATENATE("""",D156,"""")</f>
-        <v>""</v>
-      </c>
       <c r="L156" t="str">
-        <f t="shared" ref="L156" si="70">CONCATENATE("""",E156,"""")</f>
+        <f t="shared" ref="L156" si="66">CONCATENATE("""",D156,"""")</f>
         <v>""</v>
       </c>
       <c r="M156" t="str">
-        <f t="shared" ref="M156" si="71">CONCATENATE("""",F156,"""")</f>
+        <f t="shared" ref="M156" si="67">CONCATENATE("""",E156,"""")</f>
         <v>""</v>
       </c>
       <c r="N156" t="str">
-        <f t="shared" ref="N156" si="72">CONCATENATE("""",G156,"""")</f>
+        <f t="shared" ref="N156" si="68">CONCATENATE("""",F156,"""")</f>
         <v>""</v>
       </c>
       <c r="O156" t="str">
-        <f t="shared" ref="O156" si="73">CONCATENATE("""",H156,"""")</f>
-        <v>""</v>
-      </c>
-      <c r="P156" s="7" t="str">
-        <f t="shared" ref="P156" si="74">SUBSTITUTE(CONCATENATE($Q$1,I156,$P$1,J156,$P$1,K156,$P$1,L156,$P$1,M156,$P$1,N156,$P$1,O156,$R$1),", """"","")</f>
+        <f t="shared" ref="O156" si="69">CONCATENATE("""",G156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" ref="P156" si="70">CONCATENATE("""",H156,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q156" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R156" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>functions.add(new Function("DECODE()", "You can invoke nothing on it"));</v>
       </c>
     </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J157" s="5" t="str">
+        <f t="shared" si="58"/>
+        <v>"GetPath()"</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" ref="K157" si="71">CONCATENATE("""",B157,"""")</f>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" ref="L157" si="72">CONCATENATE("""",D157,"""")</f>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" ref="M157" si="73">CONCATENATE("""",E157,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" ref="N157" si="74">CONCATENATE("""",F157,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" ref="O157" si="75">CONCATENATE("""",G157,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P157" t="str">
+        <f t="shared" ref="P157" si="76">CONCATENATE("""",H157,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q157" t="str">
+        <f t="shared" si="25"/>
+        <v>""</v>
+      </c>
+      <c r="R157" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>functions.add(new Function("GetPath()", "ExpressionResultLiteral", "AlternativeCategory"));</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J158" s="5" t="str">
+        <f t="shared" si="58"/>
+        <v>"CategoryCode"</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" ref="K158" si="77">CONCATENATE("""",B158,"""")</f>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" ref="L158" si="78">CONCATENATE("""",D158,"""")</f>
+        <v>"Sku"</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" ref="M158" si="79">CONCATENATE("""",E158,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" ref="N158" si="80">CONCATENATE("""",F158,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" ref="O158" si="81">CONCATENATE("""",G158,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" ref="P158" si="82">CONCATENATE("""",H158,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="Q158" t="str">
+        <f t="shared" ref="Q158" si="83">CONCATENATE("""",I158,"""")</f>
+        <v>""</v>
+      </c>
+      <c r="R158" s="7" t="str">
+        <f t="shared" ref="R158" si="84">SUBSTITUTE(CONCATENATE($S$1,J158,$R$1,K158,$R$1,L158,$R$1,M158,$R$1,N158,$R$1,O158,$R$1,P158,$R$1,Q158,$T$1),", """"","")</f>
+        <v>functions.add(new Function("CategoryCode", "ExpressionResultLiteral", "Sku"));</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H154"/>
+  <autoFilter ref="A1:H157"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$158</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="196">
   <si>
     <t>AltCats</t>
   </si>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,31 +1399,31 @@
         <v>"AlternativeCategory"</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE("""",D2,"""")</f>
+        <f t="shared" ref="L2:Q2" si="0">CONCATENATE("""",D2,"""")</f>
         <v>"ProductCategories"</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE("""",E2,"""")</f>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE("""",F2,"""")</f>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
       <c r="O2" t="str">
-        <f>CONCATENATE("""",G2,"""")</f>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
       <c r="P2" t="str">
-        <f>CONCATENATE("""",H2,"""")</f>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
       <c r="Q2" t="str">
-        <f>CONCATENATE("""",I2,"""")</f>
+        <f t="shared" si="0"/>
         <v>""</v>
       </c>
       <c r="R2" s="7" t="str">
-        <f t="shared" ref="R2:R65" si="0">SUBSTITUTE(CONCATENATE($S$1,J2,$R$1,K2,$R$1,L2,$R$1,M2,$R$1,N2,$R$1,O2,$R$1,P2,$R$1,Q2,$T$1),", """"","")</f>
+        <f t="shared" ref="R2:R65" si="1">SUBSTITUTE(CONCATENATE($S$1,J2,$R$1,K2,$R$1,L2,$R$1,M2,$R$1,N2,$R$1,O2,$R$1,P2,$R$1,Q2,$T$1),", """"","")</f>
         <v>functions.add(new Function("Main", "AlternativeCategory", "ProductCategories"));</v>
       </c>
     </row>
@@ -1450,39 +1450,39 @@
         <v>165</v>
       </c>
       <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J66" si="1">CONCATENATE("""",A3,"""")</f>
+        <f t="shared" ref="J3:J66" si="2">CONCATENATE("""",A3,"""")</f>
         <v>"HasText"</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="2">CONCATENATE("""",B3,"""")</f>
+        <f t="shared" ref="K3:K66" si="3">CONCATENATE("""",B3,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="3">CONCATENATE("""",D3,"""")</f>
+        <f t="shared" ref="L3:L66" si="4">CONCATENATE("""",D3,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="4">CONCATENATE("""",E3,"""")</f>
+        <f t="shared" ref="M3:M66" si="5">CONCATENATE("""",E3,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="5">CONCATENATE("""",F3,"""")</f>
+        <f t="shared" ref="N3:N66" si="6">CONCATENATE("""",F3,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="6">CONCATENATE("""",G3,"""")</f>
+        <f t="shared" ref="O3:O66" si="7">CONCATENATE("""",G3,"""")</f>
         <v>"String"</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="7">CONCATENATE("""",H3,"""")</f>
+        <f t="shared" ref="P3:P66" si="8">CONCATENATE("""",H3,"""")</f>
         <v>""</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="8">CONCATENATE("""",I3,"""")</f>
+        <f t="shared" ref="Q3:Q66" si="9">CONCATENATE("""",I3,"""")</f>
         <v>""</v>
       </c>
       <c r="R3" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("HasText", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
@@ -1509,39 +1509,39 @@
         <v>165</v>
       </c>
       <c r="J4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"IsEmpty"</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="7"/>
+        <v>"String"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R4" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"IsEmpty"</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>"String"</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R4" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("IsEmpty", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
@@ -1559,39 +1559,39 @@
         <v>129</v>
       </c>
       <c r="J5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"IsDescendantOf()"</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"IsDescendantOf()"</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="3"/>
-        <v>"AlternativeCategory"</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R5" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("IsDescendantOf()", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
@@ -1609,39 +1609,39 @@
         <v>130</v>
       </c>
       <c r="J6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"LaunchDate"</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>"DateTime"</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"LaunchDate"</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>"DateTime"</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="3"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R6" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("LaunchDate", "DateTime", "Sku"));</v>
       </c>
     </row>
@@ -1659,39 +1659,39 @@
         <v>131</v>
       </c>
       <c r="J7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"GetDateTime()"</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>"DateTimeOffset"</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>"SystemObject"</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"GetDateTime()"</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>"DateTimeOffset"</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="3"/>
-        <v>"SystemObject"</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R7" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetDateTime()", "DateTimeOffset", "SystemObject"));</v>
       </c>
     </row>
@@ -1720,41 +1720,44 @@
       <c r="H8" t="s">
         <v>133</v>
       </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
       <c r="J8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Count"</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="7"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="8"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="9"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="R8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Count"</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="7"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
+        <v>functions.add(new Function("Count", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "Specs"));</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1774,39 +1777,39 @@
         <v>133</v>
       </c>
       <c r="J9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Total"</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Total"</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R9" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Total", "ExpressionResultNumeric", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -1824,39 +1827,39 @@
         <v>134</v>
       </c>
       <c r="J10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"BestImage"</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"BestImage"</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R10" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("BestImage", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -1874,39 +1877,39 @@
         <v>134</v>
       </c>
       <c r="J11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"BoxContents"</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"BoxContents"</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R11" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("BoxContents", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -1924,39 +1927,39 @@
         <v>134</v>
       </c>
       <c r="J12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"KeySellingPoints"</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"KeySellingPoints"</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R12" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("KeySellingPoints", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -1974,39 +1977,39 @@
         <v>134</v>
       </c>
       <c r="J13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Ksp"</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Ksp"</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R13" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Ksp", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2024,39 +2027,39 @@
         <v>134</v>
       </c>
       <c r="J14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"MarketingText"</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"MarketingText"</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R14" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("MarketingText", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2074,39 +2077,39 @@
         <v>134</v>
       </c>
       <c r="J15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Msds"</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Msds"</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R15" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Msds", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2124,39 +2127,39 @@
         <v>134</v>
       </c>
       <c r="J16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ProductFeatures"</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ProductFeatures"</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R16" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ProductFeatures", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2174,39 +2177,39 @@
         <v>134</v>
       </c>
       <c r="J17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ProductSheet"</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ProductSheet"</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R17" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ProductSheet", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2224,39 +2227,39 @@
         <v>134</v>
       </c>
       <c r="J18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"QuickStartGuide"</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"QuickStartGuide"</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R18" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("QuickStartGuide", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2274,39 +2277,39 @@
         <v>134</v>
       </c>
       <c r="J19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Thumbnail"</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Thumbnail"</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R19" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Thumbnail", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2324,39 +2327,39 @@
         <v>134</v>
       </c>
       <c r="J20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"UserManual"</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"UserManual"</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R20" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("UserManual", "DigitalContentItem", "DigitalContent"));</v>
       </c>
     </row>
@@ -2374,39 +2377,39 @@
         <v>126</v>
       </c>
       <c r="J21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Distinct"</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Distinct"</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R21" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Distinct", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2424,39 +2427,39 @@
         <v>126</v>
       </c>
       <c r="J22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Min()"</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R22" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Min()"</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R22" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Min()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2474,39 +2477,39 @@
         <v>126</v>
       </c>
       <c r="J23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"MinMax()"</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"MinMax()"</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R23" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("MinMax()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2524,39 +2527,39 @@
         <v>126</v>
       </c>
       <c r="J24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Max()"</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Max()"</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R24" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Max()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2574,39 +2577,39 @@
         <v>126</v>
       </c>
       <c r="J25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Last()"</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Last()"</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R25" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Last()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2624,39 +2627,39 @@
         <v>126</v>
       </c>
       <c r="J26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"FlattenWithAnd()"</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"FlattenWithAnd()"</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R26" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("FlattenWithAnd()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2680,39 +2683,39 @@
         <v>127</v>
       </c>
       <c r="J27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"HtmlEncode()"</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"HtmlEncode()"</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R27" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("HtmlEncode()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -2730,39 +2733,39 @@
         <v>126</v>
       </c>
       <c r="J28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"First()"</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R28" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"First()"</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R28" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("First()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2780,39 +2783,39 @@
         <v>126</v>
       </c>
       <c r="J29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"DiscardNulls()"</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"DiscardNulls()"</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R29" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("DiscardNulls()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -2836,39 +2839,39 @@
         <v>127</v>
       </c>
       <c r="J30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"ExtractDecimals()"</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L30" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
       <c r="M30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("ExtractDecimals()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -2892,39 +2895,39 @@
         <v>127</v>
       </c>
       <c r="J31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ToLower()"</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ToLower()"</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R31" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToLower()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -2948,39 +2951,39 @@
         <v>127</v>
       </c>
       <c r="J32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ToLowerFirstChar()"</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R32" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ToLowerFirstChar()"</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R32" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToLowerFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3004,39 +3007,39 @@
         <v>127</v>
       </c>
       <c r="J33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ToTitleCase()"</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ToTitleCase()"</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R33" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToTitleCase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3060,39 +3063,39 @@
         <v>127</v>
       </c>
       <c r="J34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ToUpper()"</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R34" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ToUpper()"</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R34" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToUpper()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3116,39 +3119,39 @@
         <v>127</v>
       </c>
       <c r="J35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ToUpperFirstChar()"</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ToUpperFirstChar()"</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R35" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ToUpperFirstChar()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3172,39 +3175,39 @@
         <v>127</v>
       </c>
       <c r="J36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Erase()"</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R36" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Erase()"</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R36" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Erase()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3228,39 +3231,39 @@
         <v>127</v>
       </c>
       <c r="J37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"EraseTextSurroundedBy()"</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"EraseTextSurroundedBy()"</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R37" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("EraseTextSurroundedBy()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3278,39 +3281,39 @@
         <v>138</v>
       </c>
       <c r="J38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"GetLine()"</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="4"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R38" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"GetLine()"</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="3"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R38" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetLine()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
@@ -3328,39 +3331,39 @@
         <v>138</v>
       </c>
       <c r="J39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"GetLineBody()"</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="4"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"GetLineBody()"</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="3"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R39" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("GetLineBody()", "ExpressionResultLiteral", "Specs"));</v>
       </c>
     </row>
@@ -3378,39 +3381,39 @@
         <v>126</v>
       </c>
       <c r="J40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Flatten()"</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R40" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Flatten()"</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R40" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Flatten()", "ExpressionResultLiteral", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -3434,39 +3437,39 @@
         <v>127</v>
       </c>
       <c r="J41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"IfLike()"</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R41" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"IfLike()"</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R41" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("IfLike()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3490,39 +3493,39 @@
         <v>127</v>
       </c>
       <c r="J42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"IfLongerThan()"</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R42" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"IfLongerThan()"</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R42" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("IfLongerThan()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3546,39 +3549,39 @@
         <v>127</v>
       </c>
       <c r="J43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Pluralize()"</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R43" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Pluralize()"</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R43" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Pluralize()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3605,39 +3608,39 @@
         <v>165</v>
       </c>
       <c r="J44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Postfix()"</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="7"/>
+        <v>"String"</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R44" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Postfix()"</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="6"/>
-        <v>"String"</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R44" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Postfix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
@@ -3664,39 +3667,39 @@
         <v>165</v>
       </c>
       <c r="J45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Prefix()"</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="7"/>
+        <v>"String"</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R45" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Prefix()"</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="6"/>
-        <v>"String"</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R45" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Prefix()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
@@ -3720,39 +3723,39 @@
         <v>127</v>
       </c>
       <c r="J46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"RegexReplace()"</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R46" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"RegexReplace()"</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R46" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("RegexReplace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3776,39 +3779,39 @@
         <v>127</v>
       </c>
       <c r="J47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Replace()"</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R47" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Replace()"</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R47" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Replace()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3835,39 +3838,39 @@
         <v>165</v>
       </c>
       <c r="J48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Shorten()"</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="5"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="6"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="7"/>
+        <v>"String"</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R48" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Shorten()"</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="4"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="5"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="6"/>
-        <v>"String"</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R48" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Shorten()", "ExpressionResult", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "String"));</v>
       </c>
     </row>
@@ -3891,39 +3894,39 @@
         <v>127</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Split()"</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L49" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
+      <c r="L49" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
       <c r="M49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R49" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("Split()", "ExpressionResultList", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -3941,39 +3944,39 @@
         <v>126</v>
       </c>
       <c r="J50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"UseSeparators()"</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R50" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"UseSeparators()"</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R50" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("UseSeparators()", "ExpressionResult", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -3997,39 +4000,39 @@
         <v>133</v>
       </c>
       <c r="J51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"InvariantValues"</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmAttributeSet"</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="6"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R51" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"InvariantValues"</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmAttributeSet"</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="5"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R51" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("InvariantValues", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4056,39 +4059,39 @@
         <v>144</v>
       </c>
       <c r="J52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Values"</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmAttributeSet"</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="6"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="7"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R52" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Values"</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmAttributeSet"</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="5"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="6"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R52" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Values", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -4109,39 +4112,39 @@
         <v>133</v>
       </c>
       <c r="J53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ValuesAndUnits"</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R53" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ValuesAndUnits"</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="M53" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P53" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R53" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesAndUnits", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4162,39 +4165,39 @@
         <v>133</v>
       </c>
       <c r="J54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ValuesAndUnitsUSM"</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R54" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ValuesAndUnitsUSM"</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="M54" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P54" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R54" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesAndUnitsUSM", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4218,39 +4221,39 @@
         <v>133</v>
       </c>
       <c r="J55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"ValuesUSM"</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="4"/>
+        <v>"PdmAttributeSet"</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="6"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R55" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"ValuesUSM"</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="3"/>
-        <v>"PdmAttributeSet"</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="5"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P55" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R55" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("ValuesUSM", "ExpressionResultList", "PdmAttributeSet", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4268,39 +4271,39 @@
         <v>126</v>
       </c>
       <c r="J56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Format()"</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L56" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
+      <c r="L56" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
       <c r="M56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>""</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>""</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R56" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("Format()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -4318,39 +4321,39 @@
         <v>126</v>
       </c>
       <c r="J57" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Skip()"</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L57" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
+      <c r="L57" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
       <c r="M57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>""</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>""</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R57" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("Skip()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -4368,39 +4371,39 @@
         <v>126</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Take()"</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L58" t="str">
         <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
+      <c r="L58" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
       <c r="M58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>""</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>""</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R58" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>functions.add(new Function("Take()", "ExpressionResultList", "ExpressionResultList"));</v>
       </c>
     </row>
@@ -4424,39 +4427,39 @@
         <v>133</v>
       </c>
       <c r="J59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Where()"</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="6"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R59" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Where()"</v>
-      </c>
-      <c r="K59" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M59" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="5"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P59" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R59" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Where()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4480,39 +4483,39 @@
         <v>133</v>
       </c>
       <c r="J60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"WhereNot()"</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="4"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="5"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="6"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R60" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"WhereNot()"</v>
-      </c>
-      <c r="K60" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="3"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M60" t="str">
-        <f t="shared" si="4"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="5"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P60" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R60" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("WhereNot()", "ExpressionResult", "ExpressionResultList", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -4530,39 +4533,39 @@
         <v>140</v>
       </c>
       <c r="J61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"BulletFeatures"</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="4"/>
+        <v>"TemplexGenerator"</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R61" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"BulletFeatures"</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="3"/>
-        <v>"TemplexGenerator"</v>
-      </c>
-      <c r="M61" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P61" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R61" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("BulletFeatures", "ExpressionResultList", "TemplexGenerator"));</v>
       </c>
     </row>
@@ -4580,39 +4583,39 @@
         <v>141</v>
       </c>
       <c r="J62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"CategoryCodes"</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="3"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="4"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R62" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"CategoryCodes"</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="3"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M62" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P62" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R62" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("CategoryCodes", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -4630,39 +4633,39 @@
         <v>141</v>
       </c>
       <c r="J63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"CategoryKeys"</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="3"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="4"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R63" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"CategoryKeys"</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="3"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M63" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N63" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P63" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R63" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("CategoryKeys", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -4680,39 +4683,39 @@
         <v>130</v>
       </c>
       <c r="J64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"Colors"</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="3"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R64" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"Colors"</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="2"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="3"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M64" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P64" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R64" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("Colors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
@@ -4730,39 +4733,39 @@
         <v>141</v>
       </c>
       <c r="J65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>"CustomerPns"</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="3"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="4"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="5"/>
+        <v>""</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="6"/>
+        <v>""</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="7"/>
+        <v>""</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="8"/>
+        <v>""</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="9"/>
+        <v>""</v>
+      </c>
+      <c r="R65" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>"CustomerPns"</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="2"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="3"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M65" t="str">
-        <f t="shared" si="4"/>
-        <v>""</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="5"/>
-        <v>""</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="6"/>
-        <v>""</v>
-      </c>
-      <c r="P65" t="str">
-        <f t="shared" si="7"/>
-        <v>""</v>
-      </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="8"/>
-        <v>""</v>
-      </c>
-      <c r="R65" s="7" t="str">
-        <f t="shared" si="0"/>
         <v>functions.add(new Function("CustomerPns", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -4780,39 +4783,39 @@
         <v>130</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"FancyColors"</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>"Sku"</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>""</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>""</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>""</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>""</v>
       </c>
       <c r="R66" s="7" t="str">
-        <f t="shared" ref="R66:R110" si="9">SUBSTITUTE(CONCATENATE($S$1,J66,$R$1,K66,$R$1,L66,$R$1,M66,$R$1,N66,$R$1,O66,$R$1,P66,$R$1,Q66,$T$1),", """"","")</f>
+        <f t="shared" ref="R66:R110" si="10">SUBSTITUTE(CONCATENATE($S$1,J66,$R$1,K66,$R$1,L66,$R$1,M66,$R$1,N66,$R$1,O66,$R$1,P66,$R$1,Q66,$T$1),", """"","")</f>
         <v>functions.add(new Function("FancyColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
@@ -4830,39 +4833,39 @@
         <v>130</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" ref="J67:J131" si="10">CONCATENATE("""",A67,"""")</f>
+        <f t="shared" ref="J67:J131" si="11">CONCATENATE("""",A67,"""")</f>
         <v>"InvariantColors"</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K131" si="11">CONCATENATE("""",B67,"""")</f>
+        <f t="shared" ref="K67:K131" si="12">CONCATENATE("""",B67,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L131" si="12">CONCATENATE("""",D67,"""")</f>
+        <f t="shared" ref="L67:L131" si="13">CONCATENATE("""",D67,"""")</f>
         <v>"Sku"</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M131" si="13">CONCATENATE("""",E67,"""")</f>
+        <f t="shared" ref="M67:M131" si="14">CONCATENATE("""",E67,"""")</f>
         <v>""</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N131" si="14">CONCATENATE("""",F67,"""")</f>
+        <f t="shared" ref="N67:N131" si="15">CONCATENATE("""",F67,"""")</f>
         <v>""</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O131" si="15">CONCATENATE("""",G67,"""")</f>
+        <f t="shared" ref="O67:O131" si="16">CONCATENATE("""",G67,"""")</f>
         <v>""</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P131" si="16">CONCATENATE("""",H67,"""")</f>
+        <f t="shared" ref="P67:P131" si="17">CONCATENATE("""",H67,"""")</f>
         <v>""</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q130" si="17">CONCATENATE("""",I67,"""")</f>
+        <f t="shared" ref="Q67:Q130" si="18">CONCATENATE("""",I67,"""")</f>
         <v>""</v>
       </c>
       <c r="R67" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("InvariantColors", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
@@ -4880,39 +4883,39 @@
         <v>130</v>
       </c>
       <c r="J68" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Keywords"</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R68" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Keywords"</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M68" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P68" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R68" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Keywords", "ExpressionResultList", "Sku"));</v>
       </c>
     </row>
@@ -4930,39 +4933,39 @@
         <v>141</v>
       </c>
       <c r="J69" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ManufacturerNames"</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R69" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ManufacturerNames"</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M69" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P69" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R69" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ManufacturerNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -4980,39 +4983,39 @@
         <v>141</v>
       </c>
       <c r="J70" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ModelNames"</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R70" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ModelNames"</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P70" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R70" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ModelNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -5030,39 +5033,39 @@
         <v>141</v>
       </c>
       <c r="J71" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ProductIds"</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R71" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ProductIds"</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M71" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P71" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R71" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductIds", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -5080,39 +5083,39 @@
         <v>141</v>
       </c>
       <c r="J72" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ProductLineNames"</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R72" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ProductLineNames"</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P72" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R72" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductLineNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -5130,39 +5133,39 @@
         <v>141</v>
       </c>
       <c r="J73" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ProductNames"</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R73" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ProductNames"</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="M73" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P73" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R73" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductNames", "IEnumerable`1", "RelatedProductList"));</v>
       </c>
     </row>
@@ -5180,39 +5183,39 @@
         <v>138</v>
       </c>
       <c r="J74" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"GetLines()"</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="13"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R74" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"GetLines()"</v>
-      </c>
-      <c r="K74" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="12"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="M74" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P74" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q74" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R74" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetLines()", "ExpressionResultList", "Specs"));</v>
       </c>
     </row>
@@ -5230,39 +5233,39 @@
         <v>129</v>
       </c>
       <c r="J75" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"GetAncestry()"</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="13"/>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R75" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"GetAncestry()"</v>
-      </c>
-      <c r="K75" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L75" t="str">
-        <f t="shared" si="12"/>
-        <v>"AlternativeCategory"</v>
-      </c>
-      <c r="M75" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P75" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q75" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R75" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetAncestry()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
@@ -5280,39 +5283,39 @@
         <v>129</v>
       </c>
       <c r="J76" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"GetDescendants()"</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="12"/>
+        <v>"IEnumerable`1"</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="13"/>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R76" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"GetDescendants()"</v>
-      </c>
-      <c r="K76" t="str">
-        <f t="shared" si="11"/>
-        <v>"IEnumerable`1"</v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" si="12"/>
-        <v>"AlternativeCategory"</v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P76" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q76" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R76" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("GetDescendants()", "IEnumerable`1", "AlternativeCategory"));</v>
       </c>
     </row>
@@ -5330,39 +5333,39 @@
         <v>142</v>
       </c>
       <c r="J77" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"CategoryKey"</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R77" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"CategoryKey"</v>
-      </c>
-      <c r="K77" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L77" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="M77" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P77" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q77" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R77" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("CategoryKey", "ExpressionResultNumeric", "RelatedProduct"));</v>
       </c>
     </row>
@@ -5389,39 +5392,39 @@
         <v>184</v>
       </c>
       <c r="J78" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Length"</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="13"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="14"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="15"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="16"/>
+        <v>"ProductPackage"</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R78" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Length"</v>
-      </c>
-      <c r="K78" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L78" t="str">
-        <f t="shared" si="12"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="13"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="14"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="15"/>
-        <v>"ProductPackage"</v>
-      </c>
-      <c r="P78" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q78" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R78" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Length", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
@@ -5439,39 +5442,39 @@
         <v>138</v>
       </c>
       <c r="J79" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"LineCount"</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="13"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R79" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"LineCount"</v>
-      </c>
-      <c r="K79" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L79" t="str">
-        <f t="shared" si="12"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P79" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q79" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R79" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("LineCount", "ExpressionResultNumeric", "Specs"));</v>
       </c>
     </row>
@@ -5489,39 +5492,39 @@
         <v>130</v>
       </c>
       <c r="J80" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"NonOemAccessories"</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R80" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"NonOemAccessories"</v>
-      </c>
-      <c r="K80" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L80" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M80" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P80" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q80" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R80" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("NonOemAccessories", "ExpressionResultNumeric", "Sku"));</v>
       </c>
     </row>
@@ -5539,39 +5542,39 @@
         <v>143</v>
       </c>
       <c r="J81" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Order"</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="13"/>
+        <v>"SpecLine"</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R81" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Order"</v>
-      </c>
-      <c r="K81" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L81" t="str">
-        <f t="shared" si="12"/>
-        <v>"SpecLine"</v>
-      </c>
-      <c r="M81" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P81" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q81" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R81" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Order", "ExpressionResultNumeric", "SpecLine"));</v>
       </c>
     </row>
@@ -5592,39 +5595,39 @@
         <v>142</v>
       </c>
       <c r="J82" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"PackQuantity"</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R82" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"PackQuantity"</v>
-      </c>
-      <c r="K82" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L82" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M82" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P82" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q82" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R82" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("PackQuantity", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -5645,39 +5648,39 @@
         <v>142</v>
       </c>
       <c r="J83" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ProductId"</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R83" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ProductId"</v>
-      </c>
-      <c r="K83" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L83" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M83" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P83" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q83" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R83" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ProductId", "ExpressionResultNumeric", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -5695,39 +5698,39 @@
         <v>125</v>
       </c>
       <c r="J84" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"AltCats"</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="12"/>
+        <v>"List`1"</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="13"/>
+        <v>"ProductCategories"</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R84" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"AltCats"</v>
-      </c>
-      <c r="K84" t="str">
-        <f t="shared" si="11"/>
-        <v>"List`1"</v>
-      </c>
-      <c r="L84" t="str">
-        <f t="shared" si="12"/>
-        <v>"ProductCategories"</v>
-      </c>
-      <c r="M84" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P84" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q84" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R84" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("AltCats", "List`1", "ProductCategories"));</v>
       </c>
     </row>
@@ -5745,39 +5748,39 @@
         <v>134</v>
       </c>
       <c r="J85" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"BestImages"</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="12"/>
+        <v>"List`1"</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="13"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R85" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"BestImages"</v>
-      </c>
-      <c r="K85" t="str">
-        <f t="shared" si="11"/>
-        <v>"List`1"</v>
-      </c>
-      <c r="L85" t="str">
-        <f t="shared" si="12"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="M85" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P85" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q85" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R85" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("BestImages", "List`1", "DigitalContent"));</v>
       </c>
     </row>
@@ -5795,39 +5798,39 @@
         <v>127</v>
       </c>
       <c r="J86" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Round()"</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L86" t="str">
         <f t="shared" si="12"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
+      <c r="L86" t="str">
+        <f t="shared" si="13"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
       <c r="M86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R86" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("Round()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -5845,39 +5848,39 @@
         <v>127</v>
       </c>
       <c r="J87" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"AtLeast()"</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L87" t="str">
         <f t="shared" si="12"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
+      <c r="L87" t="str">
+        <f t="shared" si="13"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
       <c r="M87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R87" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("AtLeast()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -5895,39 +5898,39 @@
         <v>127</v>
       </c>
       <c r="J88" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"AtMost()"</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="L88" t="str">
         <f t="shared" si="12"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
+      <c r="L88" t="str">
+        <f t="shared" si="13"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
       <c r="M88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R88" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("AtMost()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -5951,39 +5954,39 @@
         <v>128</v>
       </c>
       <c r="J89" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"MultiplyBy()"</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResult"</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="13"/>
+        <v>"ExpressionResultNumeric"</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="14"/>
+        <v>"ExpressionResultList"</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="15"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R89" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"MultiplyBy()"</v>
-      </c>
-      <c r="K89" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResult"</v>
-      </c>
-      <c r="L89" t="str">
-        <f t="shared" si="12"/>
-        <v>"ExpressionResultNumeric"</v>
-      </c>
-      <c r="M89" t="str">
-        <f t="shared" si="13"/>
-        <v>"ExpressionResultList"</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="14"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="O89" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P89" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q89" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R89" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("MultiplyBy()", "ExpressionResult", "ExpressionResultNumeric", "ExpressionResultList", "ExpressionResultLiteral"));</v>
       </c>
     </row>
@@ -6001,39 +6004,39 @@
         <v>133</v>
       </c>
       <c r="J90" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Match()"</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="12"/>
+        <v>"PdmAttributeSet"</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R90" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Match()"</v>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" si="11"/>
-        <v>"PdmAttributeSet"</v>
-      </c>
-      <c r="L90" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="M90" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O90" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P90" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q90" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R90" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Match()", "PdmAttributeSet", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -6051,39 +6054,39 @@
         <v>133</v>
       </c>
       <c r="J91" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"WhereUnit()"</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="12"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R91" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"WhereUnit()"</v>
-      </c>
-      <c r="K91" t="str">
-        <f t="shared" si="11"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="L91" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="M91" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O91" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P91" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q91" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R91" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereUnit()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -6101,39 +6104,39 @@
         <v>133</v>
       </c>
       <c r="J92" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"WhereUnitOrValue()"</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="12"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R92" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"WhereUnitOrValue()"</v>
-      </c>
-      <c r="K92" t="str">
-        <f t="shared" si="11"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="L92" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O92" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P92" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q92" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R92" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("WhereUnitOrValue()", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -6151,39 +6154,39 @@
         <v>141</v>
       </c>
       <c r="J93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"WhereCategory()"</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="L93" t="str">
         <f t="shared" si="12"/>
         <v>"RelatedProductList"</v>
       </c>
+      <c r="L93" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
       <c r="M93" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O93" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R93" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("WhereCategory()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6201,39 +6204,39 @@
         <v>141</v>
       </c>
       <c r="J94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"WhereManufacturer()"</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="L94" t="str">
         <f t="shared" si="12"/>
         <v>"RelatedProductList"</v>
       </c>
+      <c r="L94" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
       <c r="M94" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O94" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R94" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("WhereManufacturer()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6251,39 +6254,39 @@
         <v>141</v>
       </c>
       <c r="J95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"WhereModelName()"</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="L95" t="str">
         <f t="shared" si="12"/>
         <v>"RelatedProductList"</v>
       </c>
+      <c r="L95" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
       <c r="M95" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O95" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R95" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("WhereModelName()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6301,39 +6304,39 @@
         <v>141</v>
       </c>
       <c r="J96" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"WhereProductLine()"</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="11"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="L96" t="str">
         <f t="shared" si="12"/>
         <v>"RelatedProductList"</v>
       </c>
+      <c r="L96" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProductList"</v>
+      </c>
       <c r="M96" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R96" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>functions.add(new Function("WhereProductLine()", "RelatedProductList", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6351,39 +6354,39 @@
         <v>143</v>
       </c>
       <c r="J97" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Body"</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="13"/>
+        <v>"SpecLine"</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R97" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Body"</v>
-      </c>
-      <c r="K97" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L97" t="str">
-        <f t="shared" si="12"/>
-        <v>"SpecLine"</v>
-      </c>
-      <c r="M97" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O97" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P97" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q97" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R97" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Body", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
@@ -6404,39 +6407,39 @@
         <v>142</v>
       </c>
       <c r="J98" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Brand"</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R98" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Brand"</v>
-      </c>
-      <c r="K98" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L98" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M98" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O98" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P98" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q98" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R98" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Brand", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -6460,39 +6463,39 @@
         <v>141</v>
       </c>
       <c r="J99" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"CategoryCode"</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="13"/>
+        <v>"ProductCategories"</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="15"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R99" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"CategoryCode"</v>
-      </c>
-      <c r="K99" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L99" t="str">
-        <f t="shared" si="12"/>
-        <v>"ProductCategories"</v>
-      </c>
-      <c r="M99" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N99" t="str">
-        <f t="shared" si="14"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="O99" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P99" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q99" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R99" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("CategoryCode", "ExpressionResultLiteral", "ProductCategories", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6513,39 +6516,39 @@
         <v>141</v>
       </c>
       <c r="J100" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"CustomerPn"</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="13"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProductList"</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R100" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"CustomerPn"</v>
-      </c>
-      <c r="K100" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L100" t="str">
-        <f t="shared" si="12"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="M100" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProductList"</v>
-      </c>
-      <c r="N100" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O100" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P100" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q100" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R100" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("CustomerPn", "ExpressionResultLiteral", "RelatedProduct", "RelatedProductList"));</v>
       </c>
     </row>
@@ -6566,39 +6569,39 @@
         <v>144</v>
       </c>
       <c r="J101" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Description"</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="14"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R101" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Description"</v>
-      </c>
-      <c r="K101" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L101" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M101" t="str">
-        <f t="shared" si="13"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O101" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P101" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q101" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R101" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Description", "ExpressionResultLiteral", "Sku", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -6622,39 +6625,39 @@
         <v>133</v>
       </c>
       <c r="J102" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"GroupName"</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmAttribute"</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="14"/>
+        <v>"PdmMultivalueAttribute"</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="15"/>
+        <v>"PdmRepeatingAttribute"</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R102" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"GroupName"</v>
-      </c>
-      <c r="K102" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L102" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmAttribute"</v>
-      </c>
-      <c r="M102" t="str">
-        <f t="shared" si="13"/>
-        <v>"PdmMultivalueAttribute"</v>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" si="14"/>
-        <v>"PdmRepeatingAttribute"</v>
-      </c>
-      <c r="O102" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P102" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q102" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R102" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("GroupName", "ExpressionResultLiteral", "PdmAttribute", "PdmMultivalueAttribute", "PdmRepeatingAttribute"));</v>
       </c>
     </row>
@@ -6672,39 +6675,39 @@
         <v>143</v>
       </c>
       <c r="J103" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Header"</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="13"/>
+        <v>"SpecLine"</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R103" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Header"</v>
-      </c>
-      <c r="K103" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L103" t="str">
-        <f t="shared" si="12"/>
-        <v>"SpecLine"</v>
-      </c>
-      <c r="M103" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N103" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O103" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P103" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q103" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R103" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Header", "ExpressionResultLiteral", "SpecLine"));</v>
       </c>
     </row>
@@ -6724,39 +6727,39 @@
       <c r="E104" s="6"/>
       <c r="F104" s="4"/>
       <c r="J104" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Invariant"</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmAttribute"</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R104" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Invariant"</v>
-      </c>
-      <c r="K104" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L104" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmAttribute"</v>
-      </c>
-      <c r="M104" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O104" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P104" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q104" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R104" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Invariant", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
@@ -6776,39 +6779,39 @@
       <c r="E105" s="6"/>
       <c r="F105" s="4"/>
       <c r="J105" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"InvariantUnit"</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="13"/>
+        <v>"PdmAttribute"</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R105" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"InvariantUnit"</v>
-      </c>
-      <c r="K105" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L105" t="str">
-        <f t="shared" si="12"/>
-        <v>"PdmAttribute"</v>
-      </c>
-      <c r="M105" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N105" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O105" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P105" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q105" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R105" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("InvariantUnit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
@@ -6826,39 +6829,39 @@
         <v>130</v>
       </c>
       <c r="J106" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ItemName"</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R106" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ItemName"</v>
-      </c>
-      <c r="K106" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L106" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M106" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N106" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O106" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P106" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q106" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R106" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ItemName", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
@@ -6876,39 +6879,39 @@
         <v>129</v>
       </c>
       <c r="J107" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Key"</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="13"/>
+        <v>"AlternativeCategory"</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R107" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Key"</v>
-      </c>
-      <c r="K107" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L107" t="str">
-        <f t="shared" si="12"/>
-        <v>"AlternativeCategory"</v>
-      </c>
-      <c r="M107" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N107" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O107" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P107" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q107" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R107" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Key", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
@@ -6929,39 +6932,39 @@
         <v>142</v>
       </c>
       <c r="J108" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"Manufacturer"</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R108" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"Manufacturer"</v>
-      </c>
-      <c r="K108" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L108" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M108" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N108" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O108" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P108" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q108" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R108" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("Manufacturer", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -6979,39 +6982,39 @@
         <v>144</v>
       </c>
       <c r="J109" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"MimeType"</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="13"/>
+        <v>"DigitalContentItem"</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="14"/>
+        <v>""</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R109" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"MimeType"</v>
-      </c>
-      <c r="K109" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L109" t="str">
-        <f t="shared" si="12"/>
-        <v>"DigitalContentItem"</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="13"/>
-        <v>""</v>
-      </c>
-      <c r="N109" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O109" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P109" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q109" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R109" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("MimeType", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -7032,39 +7035,39 @@
         <v>142</v>
       </c>
       <c r="J110" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ModelName"</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="12"/>
+        <v>"ExpressionResultLiteral"</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="13"/>
+        <v>"Sku"</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="14"/>
+        <v>"RelatedProduct"</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="15"/>
+        <v>""</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="16"/>
+        <v>""</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="17"/>
+        <v>""</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="18"/>
+        <v>""</v>
+      </c>
+      <c r="R110" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>"ModelName"</v>
-      </c>
-      <c r="K110" t="str">
-        <f t="shared" si="11"/>
-        <v>"ExpressionResultLiteral"</v>
-      </c>
-      <c r="L110" t="str">
-        <f t="shared" si="12"/>
-        <v>"Sku"</v>
-      </c>
-      <c r="M110" t="str">
-        <f t="shared" si="13"/>
-        <v>"RelatedProduct"</v>
-      </c>
-      <c r="N110" t="str">
-        <f t="shared" si="14"/>
-        <v>""</v>
-      </c>
-      <c r="O110" t="str">
-        <f t="shared" si="15"/>
-        <v>""</v>
-      </c>
-      <c r="P110" t="str">
-        <f t="shared" si="16"/>
-        <v>""</v>
-      </c>
-      <c r="Q110" t="str">
-        <f t="shared" si="17"/>
-        <v>""</v>
-      </c>
-      <c r="R110" s="7" t="str">
-        <f t="shared" si="9"/>
         <v>functions.add(new Function("ModelName", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -7097,35 +7100,35 @@
         <v>129</v>
       </c>
       <c r="J111" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Name"</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"Sku"</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>"PdmAttribute"</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>"PdmMultivalueAttribute"</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>"PdmRepeatingAttribute"</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>"SpecSection"</v>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>"AlternativeCategory"</v>
       </c>
       <c r="R111" s="7" t="str">
@@ -7150,39 +7153,39 @@
         <v>142</v>
       </c>
       <c r="J112" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"PartNumber"</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"Sku"</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O112" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q112" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R112" s="7" t="str">
-        <f t="shared" ref="R112:R157" si="18">SUBSTITUTE(CONCATENATE($S$1,J112,$R$1,K112,$R$1,L112,$R$1,M112,$R$1,N112,$R$1,O112,$R$1,P112,$R$1,Q112,$T$1),", """"","")</f>
+        <f t="shared" ref="R112:R157" si="19">SUBSTITUTE(CONCATENATE($S$1,J112,$R$1,K112,$R$1,L112,$R$1,M112,$R$1,N112,$R$1,O112,$R$1,P112,$R$1,Q112,$T$1),", """"","")</f>
         <v>functions.add(new Function("PartNumber", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -7203,39 +7206,39 @@
         <v>142</v>
       </c>
       <c r="J113" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ProductLine"</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"Sku"</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q113" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R113" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ProductLine", "ExpressionResultLiteral", "Sku", "RelatedProduct"));</v>
       </c>
     </row>
@@ -7253,39 +7256,39 @@
         <v>130</v>
       </c>
       <c r="J114" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ProductType"</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"Sku"</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O114" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q114" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R114" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ProductType", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
@@ -7305,39 +7308,39 @@
       <c r="E115" s="6"/>
       <c r="F115" s="4"/>
       <c r="J115" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Unit"</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"PdmAttribute"</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q115" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R115" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Unit", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
@@ -7357,39 +7360,39 @@
       <c r="E116" s="6"/>
       <c r="F116" s="4"/>
       <c r="J116" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"UnitUSM"</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"PdmAttribute"</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R116" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("UnitUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
@@ -7412,39 +7415,39 @@
         <v>178</v>
       </c>
       <c r="J117" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Value"</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"PdmAttribute"</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O117" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>"Gtin"</v>
       </c>
       <c r="P117" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q117" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R117" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Value", "ExpressionResultLiteral", "PdmAttribute", "Gtin"));</v>
       </c>
     </row>
@@ -7464,39 +7467,39 @@
       <c r="E118" s="6"/>
       <c r="F118" s="4"/>
       <c r="J118" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ValueUSM"</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"PdmAttribute"</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N118" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O118" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q118" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R118" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ValueUSM", "ExpressionResultLiteral", "PdmAttribute"));</v>
       </c>
     </row>
@@ -7514,39 +7517,39 @@
         <v>144</v>
       </c>
       <c r="J119" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"XmlContent"</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"DigitalContentItem"</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N119" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O119" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q119" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R119" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("XmlContent", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -7564,39 +7567,39 @@
         <v>125</v>
       </c>
       <c r="J120" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ListPaths()"</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"ProductCategories"</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R120" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ListPaths()", "ExpressionResultLiteral", "ProductCategories"));</v>
       </c>
     </row>
@@ -7614,39 +7617,39 @@
         <v>139</v>
       </c>
       <c r="J121" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ListUSM()"</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"PdmAttributeSet"</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O121" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q121" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R121" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ListUSM()", "ExpressionResultLiteral", "PdmAttributeSet"));</v>
       </c>
     </row>
@@ -7664,39 +7667,39 @@
         <v>140</v>
       </c>
       <c r="J122" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"GetFullColorDescription()"</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"TemplexGenerator"</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N122" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O122" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q122" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R122" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("GetFullColorDescription()", "ExpressionResultLiteral", "TemplexGenerator"));</v>
       </c>
     </row>
@@ -7714,39 +7717,39 @@
         <v>144</v>
       </c>
       <c r="J123" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ToHtml()"</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"DigitalContentItem"</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N123" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O123" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P123" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q123" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R123" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ToHtml()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -7764,39 +7767,39 @@
         <v>144</v>
       </c>
       <c r="J124" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ToPlainText()"</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"DigitalContentItem"</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N124" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O124" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P124" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q124" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R124" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ToPlainText()", "ExpressionResultLiteral", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -7825,39 +7828,39 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ToText()"</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N125" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>"DateTimeOffset"</v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R125" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ToText()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
@@ -7875,39 +7878,39 @@
         <v>144</v>
       </c>
       <c r="J126" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Url"</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"Uri"</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>"DigitalContentItem"</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N126" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O126" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P126" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q126" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R126" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Url", "Uri", "DigitalContentItem"));</v>
       </c>
     </row>
@@ -7922,39 +7925,39 @@
         <v>138</v>
       </c>
       <c r="J127" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"CompatibleProducts"</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" ref="K127" si="19">CONCATENATE("""",B127,"""")</f>
+        <f t="shared" ref="K127" si="20">CONCATENATE("""",B127,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" ref="L127" si="20">CONCATENATE("""",D127,"""")</f>
+        <f t="shared" ref="L127" si="21">CONCATENATE("""",D127,"""")</f>
         <v>"Specs"</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" ref="M127" si="21">CONCATENATE("""",E127,"""")</f>
+        <f t="shared" ref="M127" si="22">CONCATENATE("""",E127,"""")</f>
         <v>""</v>
       </c>
       <c r="N127" t="str">
-        <f t="shared" ref="N127" si="22">CONCATENATE("""",F127,"""")</f>
+        <f t="shared" ref="N127" si="23">CONCATENATE("""",F127,"""")</f>
         <v>""</v>
       </c>
       <c r="O127" t="str">
-        <f t="shared" ref="O127" si="23">CONCATENATE("""",G127,"""")</f>
+        <f t="shared" ref="O127" si="24">CONCATENATE("""",G127,"""")</f>
         <v>""</v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" ref="P127" si="24">CONCATENATE("""",H127,"""")</f>
+        <f t="shared" ref="P127" si="25">CONCATENATE("""",H127,"""")</f>
         <v>""</v>
       </c>
       <c r="Q127" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R127" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("CompatibleProducts", "ExpressionResultList", "Specs"));</v>
       </c>
     </row>
@@ -7969,39 +7972,39 @@
         <v>125</v>
       </c>
       <c r="J128" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"CAT"</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"ProductCategories"</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>""</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N128" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O128" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q128" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R128" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("CAT", "ProductCategories"));</v>
       </c>
     </row>
@@ -8016,39 +8019,39 @@
         <v>130</v>
       </c>
       <c r="J129" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"SKU"</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"Sku"</v>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>""</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O129" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R129" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("SKU", "Sku"));</v>
       </c>
     </row>
@@ -8063,39 +8066,39 @@
         <v>142</v>
       </c>
       <c r="J130" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"Request"</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>""</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N130" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O130" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P130" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q130" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>""</v>
       </c>
       <c r="R130" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Request", "RelatedProduct"));</v>
       </c>
     </row>
@@ -8110,39 +8113,39 @@
         <v>141</v>
       </c>
       <c r="J131" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>"ParentProducts"</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>"RelatedProductList"</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>""</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>""</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>""</v>
       </c>
       <c r="O131" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>""</v>
       </c>
       <c r="P131" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>""</v>
       </c>
       <c r="Q131" t="str">
-        <f t="shared" ref="Q131:Q157" si="25">CONCATENATE("""",I131,"""")</f>
+        <f t="shared" ref="Q131:Q157" si="26">CONCATENATE("""",I131,"""")</f>
         <v>""</v>
       </c>
       <c r="R131" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ParentProducts", "RelatedProductList"));</v>
       </c>
     </row>
@@ -8157,39 +8160,39 @@
         <v>138</v>
       </c>
       <c r="J132" s="5" t="str">
-        <f t="shared" ref="J132:J136" si="26">CONCATENATE("""",A132,"""")</f>
+        <f t="shared" ref="J132:J136" si="27">CONCATENATE("""",A132,"""")</f>
         <v>"MS"</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" ref="K132:K137" si="27">CONCATENATE("""",B132,"""")</f>
+        <f t="shared" ref="K132:K137" si="28">CONCATENATE("""",B132,"""")</f>
         <v>"Specs"</v>
       </c>
       <c r="L132" t="str">
-        <f t="shared" ref="L132:L137" si="28">CONCATENATE("""",D132,"""")</f>
+        <f t="shared" ref="L132:L137" si="29">CONCATENATE("""",D132,"""")</f>
         <v>""</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" ref="M132:M137" si="29">CONCATENATE("""",E132,"""")</f>
+        <f t="shared" ref="M132:M137" si="30">CONCATENATE("""",E132,"""")</f>
         <v>""</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" ref="N132:N137" si="30">CONCATENATE("""",F132,"""")</f>
+        <f t="shared" ref="N132:N137" si="31">CONCATENATE("""",F132,"""")</f>
         <v>""</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" ref="O132:O137" si="31">CONCATENATE("""",G132,"""")</f>
+        <f t="shared" ref="O132:O137" si="32">CONCATENATE("""",G132,"""")</f>
         <v>""</v>
       </c>
       <c r="P132" t="str">
-        <f t="shared" ref="P132:P137" si="32">CONCATENATE("""",H132,"""")</f>
+        <f t="shared" ref="P132:P137" si="33">CONCATENATE("""",H132,"""")</f>
         <v>""</v>
       </c>
       <c r="Q132" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R132" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("MS", "Specs"));</v>
       </c>
     </row>
@@ -8204,39 +8207,39 @@
         <v>131</v>
       </c>
       <c r="J133" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>"Sys"</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="28"/>
+        <v>"SystemObject"</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="33"/>
+        <v>""</v>
+      </c>
+      <c r="Q133" t="str">
         <f t="shared" si="26"/>
-        <v>"Sys"</v>
-      </c>
-      <c r="K133" t="str">
-        <f t="shared" si="27"/>
-        <v>"SystemObject"</v>
-      </c>
-      <c r="L133" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="N133" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="O133" t="str">
-        <f t="shared" si="31"/>
-        <v>""</v>
-      </c>
-      <c r="P133" t="str">
-        <f t="shared" si="32"/>
-        <v>""</v>
-      </c>
-      <c r="Q133" t="str">
-        <f t="shared" si="25"/>
         <v>""</v>
       </c>
       <c r="R133" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Sys", "SystemObject"));</v>
       </c>
     </row>
@@ -8251,39 +8254,39 @@
         <v>134</v>
       </c>
       <c r="J134" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>"DC"</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="28"/>
+        <v>"DigitalContent"</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="33"/>
+        <v>""</v>
+      </c>
+      <c r="Q134" t="str">
         <f t="shared" si="26"/>
-        <v>"DC"</v>
-      </c>
-      <c r="K134" t="str">
-        <f t="shared" si="27"/>
-        <v>"DigitalContent"</v>
-      </c>
-      <c r="L134" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="N134" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="O134" t="str">
-        <f t="shared" si="31"/>
-        <v>""</v>
-      </c>
-      <c r="P134" t="str">
-        <f t="shared" si="32"/>
-        <v>""</v>
-      </c>
-      <c r="Q134" t="str">
-        <f t="shared" si="25"/>
         <v>""</v>
       </c>
       <c r="R134" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("DC", "DigitalContent"));</v>
       </c>
     </row>
@@ -8298,39 +8301,39 @@
         <v>140</v>
       </c>
       <c r="J135" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>"Generator"</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="28"/>
+        <v>"TemplexGenerator"</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="33"/>
+        <v>""</v>
+      </c>
+      <c r="Q135" t="str">
         <f t="shared" si="26"/>
-        <v>"Generator"</v>
-      </c>
-      <c r="K135" t="str">
-        <f t="shared" si="27"/>
-        <v>"TemplexGenerator"</v>
-      </c>
-      <c r="L135" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="N135" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="O135" t="str">
-        <f t="shared" si="31"/>
-        <v>""</v>
-      </c>
-      <c r="P135" t="str">
-        <f t="shared" si="32"/>
-        <v>""</v>
-      </c>
-      <c r="Q135" t="str">
-        <f t="shared" si="25"/>
         <v>""</v>
       </c>
       <c r="R135" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Generator", "TemplexGenerator"));</v>
       </c>
     </row>
@@ -8345,39 +8348,39 @@
         <v>138</v>
       </c>
       <c r="J136" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>"ES"</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="28"/>
+        <v>"Specs"</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="29"/>
+        <v>""</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="30"/>
+        <v>""</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="31"/>
+        <v>""</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="32"/>
+        <v>""</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="33"/>
+        <v>""</v>
+      </c>
+      <c r="Q136" t="str">
         <f t="shared" si="26"/>
-        <v>"ES"</v>
-      </c>
-      <c r="K136" t="str">
-        <f t="shared" si="27"/>
-        <v>"Specs"</v>
-      </c>
-      <c r="L136" t="str">
-        <f t="shared" si="28"/>
-        <v>""</v>
-      </c>
-      <c r="M136" t="str">
-        <f t="shared" si="29"/>
-        <v>""</v>
-      </c>
-      <c r="N136" t="str">
-        <f t="shared" si="30"/>
-        <v>""</v>
-      </c>
-      <c r="O136" t="str">
-        <f t="shared" si="31"/>
-        <v>""</v>
-      </c>
-      <c r="P136" t="str">
-        <f t="shared" si="32"/>
-        <v>""</v>
-      </c>
-      <c r="Q136" t="str">
-        <f t="shared" si="25"/>
         <v>""</v>
       </c>
       <c r="R136" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ES", "Specs"));</v>
       </c>
     </row>
@@ -8389,39 +8392,39 @@
         <v>174</v>
       </c>
       <c r="J137" s="5" t="str">
-        <f t="shared" ref="J137" si="33">CONCATENATE("""",A137,"""")</f>
+        <f t="shared" ref="J137" si="34">CONCATENATE("""",A137,"""")</f>
         <v>"COALESCE()"</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L137" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>""</v>
       </c>
       <c r="M137" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="N137" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>""</v>
       </c>
       <c r="O137" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>""</v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>""</v>
       </c>
       <c r="Q137" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R137" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("COALESCE()", "You can invoke nothing on it"));</v>
       </c>
     </row>
@@ -8433,39 +8436,39 @@
         <v>174</v>
       </c>
       <c r="J138" s="5" t="str">
-        <f t="shared" ref="J138:J154" si="34">CONCATENATE("""",A138,"""")</f>
+        <f t="shared" ref="J138:J154" si="35">CONCATENATE("""",A138,"""")</f>
         <v>"NOT NULL"</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" ref="K138:K144" si="35">CONCATENATE("""",B138,"""")</f>
+        <f t="shared" ref="K138:K144" si="36">CONCATENATE("""",B138,"""")</f>
         <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L138" t="str">
-        <f t="shared" ref="L138:L144" si="36">CONCATENATE("""",D138,"""")</f>
+        <f t="shared" ref="L138:L144" si="37">CONCATENATE("""",D138,"""")</f>
         <v>""</v>
       </c>
       <c r="M138" t="str">
-        <f t="shared" ref="M138:M144" si="37">CONCATENATE("""",E138,"""")</f>
+        <f t="shared" ref="M138:M144" si="38">CONCATENATE("""",E138,"""")</f>
         <v>""</v>
       </c>
       <c r="N138" t="str">
-        <f t="shared" ref="N138:N144" si="38">CONCATENATE("""",F138,"""")</f>
+        <f t="shared" ref="N138:N144" si="39">CONCATENATE("""",F138,"""")</f>
         <v>""</v>
       </c>
       <c r="O138" t="str">
-        <f t="shared" ref="O138:O144" si="39">CONCATENATE("""",G138,"""")</f>
+        <f t="shared" ref="O138:O144" si="40">CONCATENATE("""",G138,"""")</f>
         <v>""</v>
       </c>
       <c r="P138" t="str">
-        <f t="shared" ref="P138:P144" si="40">CONCATENATE("""",H138,"""")</f>
+        <f t="shared" ref="P138:P144" si="41">CONCATENATE("""",H138,"""")</f>
         <v>""</v>
       </c>
       <c r="Q138" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R138" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("NOT NULL", "You can invoke nothing on it"));</v>
       </c>
     </row>
@@ -8477,39 +8480,39 @@
         <v>174</v>
       </c>
       <c r="J139" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"NULL"</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L139" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>""</v>
       </c>
       <c r="M139" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N139" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O139" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P139" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q139" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R139" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("NULL", "You can invoke nothing on it"));</v>
       </c>
     </row>
@@ -8524,39 +8527,39 @@
         <v>142</v>
       </c>
       <c r="J140" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Data[\"\"]"</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L140" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="M140" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N140" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O140" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P140" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q140" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R140" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Data[\"\"]", "ExpressionResultLiteral", "RelatedProduct"));</v>
       </c>
     </row>
@@ -8571,39 +8574,39 @@
         <v>142</v>
       </c>
       <c r="J141" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>"Gtin"</v>
-      </c>
-      <c r="K141" t="str">
         <f t="shared" si="35"/>
         <v>"Gtin"</v>
       </c>
+      <c r="K141" t="str">
+        <f t="shared" si="36"/>
+        <v>"Gtin"</v>
+      </c>
       <c r="L141" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="M141" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N141" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O141" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q141" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R141" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Gtin", "Gtin", "RelatedProduct"));</v>
       </c>
     </row>
@@ -8618,39 +8621,39 @@
         <v>178</v>
       </c>
       <c r="J142" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Format"</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L142" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"Gtin"</v>
       </c>
       <c r="M142" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N142" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O142" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P142" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q142" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R142" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Format", "ExpressionResultLiteral", "Gtin"));</v>
       </c>
     </row>
@@ -8665,39 +8668,39 @@
         <v>127</v>
       </c>
       <c r="J143" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"HasValue"</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L143" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="M143" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N143" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O143" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q143" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R143" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("HasValue", "ExpressionResultLiteral", "ExpressionResultNumeric"));</v>
       </c>
     </row>
@@ -8712,39 +8715,39 @@
         <v>184</v>
       </c>
       <c r="J144" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Height"</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L144" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"ProductPackage"</v>
       </c>
       <c r="M144" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>""</v>
       </c>
       <c r="N144" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>""</v>
       </c>
       <c r="O144" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>""</v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>""</v>
       </c>
       <c r="Q144" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R144" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Height", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
@@ -8759,39 +8762,39 @@
         <v>184</v>
       </c>
       <c r="J145" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Width"</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" ref="K145:K151" si="41">CONCATENATE("""",B145,"""")</f>
+        <f t="shared" ref="K145:K151" si="42">CONCATENATE("""",B145,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L145" t="str">
-        <f t="shared" ref="L145:L150" si="42">CONCATENATE("""",D145,"""")</f>
+        <f t="shared" ref="L145:L150" si="43">CONCATENATE("""",D145,"""")</f>
         <v>"ProductPackage"</v>
       </c>
       <c r="M145" t="str">
-        <f t="shared" ref="M145:M150" si="43">CONCATENATE("""",E145,"""")</f>
+        <f t="shared" ref="M145:M150" si="44">CONCATENATE("""",E145,"""")</f>
         <v>""</v>
       </c>
       <c r="N145" t="str">
-        <f t="shared" ref="N145:N150" si="44">CONCATENATE("""",F145,"""")</f>
+        <f t="shared" ref="N145:N150" si="45">CONCATENATE("""",F145,"""")</f>
         <v>""</v>
       </c>
       <c r="O145" t="str">
-        <f t="shared" ref="O145:O150" si="45">CONCATENATE("""",G145,"""")</f>
+        <f t="shared" ref="O145:O150" si="46">CONCATENATE("""",G145,"""")</f>
         <v>""</v>
       </c>
       <c r="P145" t="str">
-        <f t="shared" ref="P145:P150" si="46">CONCATENATE("""",H145,"""")</f>
+        <f t="shared" ref="P145:P150" si="47">CONCATENATE("""",H145,"""")</f>
         <v>""</v>
       </c>
       <c r="Q145" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R145" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Width", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
@@ -8806,39 +8809,39 @@
         <v>184</v>
       </c>
       <c r="J146" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Weight"</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L146" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>"ProductPackage"</v>
       </c>
       <c r="M146" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>""</v>
       </c>
       <c r="N146" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>""</v>
       </c>
       <c r="O146" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>""</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>""</v>
       </c>
       <c r="Q146" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R146" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Weight", "ExpressionResultNumeric", "ProductPackage"));</v>
       </c>
     </row>
@@ -8853,39 +8856,39 @@
         <v>142</v>
       </c>
       <c r="J147" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Package"</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"ProductPackage"</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>"RelatedProduct"</v>
       </c>
       <c r="M147" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>""</v>
       </c>
       <c r="N147" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>""</v>
       </c>
       <c r="O147" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>""</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>""</v>
       </c>
       <c r="Q147" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R147" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Package", "ProductPackage", "RelatedProduct"));</v>
       </c>
     </row>
@@ -8900,39 +8903,39 @@
         <v>184</v>
       </c>
       <c r="J148" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"IsBiggerThan()"</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L148" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>"ProductPackage"</v>
       </c>
       <c r="M148" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>""</v>
       </c>
       <c r="N148" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>""</v>
       </c>
       <c r="O148" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>""</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>""</v>
       </c>
       <c r="Q148" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R148" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("IsBiggerThan()", "ExpressionResultLiteral", "ProductPackage"));</v>
       </c>
     </row>
@@ -8947,39 +8950,39 @@
         <v>140</v>
       </c>
       <c r="J149" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"BulletFeatures[]"</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L149" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>"TemplexGenerator"</v>
       </c>
       <c r="M149" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>""</v>
       </c>
       <c r="N149" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>""</v>
       </c>
       <c r="O149" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>""</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>""</v>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R149" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("BulletFeatures[]", "ExpressionResultLiteral", "TemplexGenerator"));</v>
       </c>
     </row>
@@ -8994,39 +8997,39 @@
         <v>134</v>
       </c>
       <c r="J150" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Ksp[]"</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L150" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>"DigitalContent"</v>
       </c>
       <c r="M150" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>""</v>
       </c>
       <c r="N150" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>""</v>
       </c>
       <c r="O150" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>""</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>""</v>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R150" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Ksp[]", "ExpressionResultLiteral", "DigitalContent"));</v>
       </c>
     </row>
@@ -9038,39 +9041,39 @@
         <v>174</v>
       </c>
       <c r="J151" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"\"\""</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L151" t="str">
-        <f t="shared" ref="L151" si="47">CONCATENATE("""",D151,"""")</f>
+        <f t="shared" ref="L151" si="48">CONCATENATE("""",D151,"""")</f>
         <v>""</v>
       </c>
       <c r="M151" t="str">
-        <f t="shared" ref="M151" si="48">CONCATENATE("""",E151,"""")</f>
+        <f t="shared" ref="M151" si="49">CONCATENATE("""",E151,"""")</f>
         <v>""</v>
       </c>
       <c r="N151" t="str">
-        <f t="shared" ref="N151" si="49">CONCATENATE("""",F151,"""")</f>
+        <f t="shared" ref="N151" si="50">CONCATENATE("""",F151,"""")</f>
         <v>""</v>
       </c>
       <c r="O151" t="str">
-        <f t="shared" ref="O151" si="50">CONCATENATE("""",G151,"""")</f>
+        <f t="shared" ref="O151" si="51">CONCATENATE("""",G151,"""")</f>
         <v>""</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" ref="P151" si="51">CONCATENATE("""",H151,"""")</f>
+        <f t="shared" ref="P151" si="52">CONCATENATE("""",H151,"""")</f>
         <v>""</v>
       </c>
       <c r="Q151" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R151" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("\"\"", "You can invoke nothing on it"));</v>
       </c>
     </row>
@@ -9085,39 +9088,39 @@
         <v>157</v>
       </c>
       <c r="J152" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Year"</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" ref="K152:K154" si="52">CONCATENATE("""",B152,"""")</f>
+        <f t="shared" ref="K152:K154" si="53">CONCATENATE("""",B152,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L152" t="str">
-        <f t="shared" ref="L152:L154" si="53">CONCATENATE("""",D152,"""")</f>
+        <f t="shared" ref="L152:L154" si="54">CONCATENATE("""",D152,"""")</f>
         <v>"DateTime"</v>
       </c>
       <c r="M152" t="str">
-        <f t="shared" ref="M152:M154" si="54">CONCATENATE("""",E152,"""")</f>
+        <f t="shared" ref="M152:M154" si="55">CONCATENATE("""",E152,"""")</f>
         <v>""</v>
       </c>
       <c r="N152" t="str">
-        <f t="shared" ref="N152:N154" si="55">CONCATENATE("""",F152,"""")</f>
+        <f t="shared" ref="N152:N154" si="56">CONCATENATE("""",F152,"""")</f>
         <v>""</v>
       </c>
       <c r="O152" t="str">
-        <f t="shared" ref="O152:O154" si="56">CONCATENATE("""",G152,"""")</f>
+        <f t="shared" ref="O152:O154" si="57">CONCATENATE("""",G152,"""")</f>
         <v>""</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" ref="P152:P154" si="57">CONCATENATE("""",H152,"""")</f>
+        <f t="shared" ref="P152:P154" si="58">CONCATENATE("""",H152,"""")</f>
         <v>""</v>
       </c>
       <c r="Q152" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R152" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Year", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
@@ -9132,39 +9135,39 @@
         <v>157</v>
       </c>
       <c r="J153" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Month"</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>"DateTime"</v>
       </c>
       <c r="M153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>""</v>
       </c>
       <c r="N153" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>""</v>
       </c>
       <c r="O153" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>""</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>""</v>
       </c>
       <c r="Q153" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R153" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Month", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
@@ -9179,39 +9182,39 @@
         <v>157</v>
       </c>
       <c r="J154" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>"Day"</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="L154" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>"DateTime"</v>
       </c>
       <c r="M154" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>""</v>
       </c>
       <c r="N154" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>""</v>
       </c>
       <c r="O154" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>""</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>""</v>
       </c>
       <c r="Q154" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R154" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("Day", "ExpressionResultNumeric", "DateTime"));</v>
       </c>
     </row>
@@ -9235,39 +9238,39 @@
         <v>158</v>
       </c>
       <c r="J155" s="5" t="str">
-        <f t="shared" ref="J155:J158" si="58">CONCATENATE("""",A155,"""")</f>
+        <f t="shared" ref="J155:J158" si="59">CONCATENATE("""",A155,"""")</f>
         <v>"ToString()"</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" ref="K155" si="59">CONCATENATE("""",B155,"""")</f>
+        <f t="shared" ref="K155" si="60">CONCATENATE("""",B155,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L155" t="str">
-        <f t="shared" ref="L155" si="60">CONCATENATE("""",D155,"""")</f>
+        <f t="shared" ref="L155" si="61">CONCATENATE("""",D155,"""")</f>
         <v>"ExpressionResultList"</v>
       </c>
       <c r="M155" t="str">
-        <f t="shared" ref="M155" si="61">CONCATENATE("""",E155,"""")</f>
+        <f t="shared" ref="M155" si="62">CONCATENATE("""",E155,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N155" t="str">
-        <f t="shared" ref="N155" si="62">CONCATENATE("""",F155,"""")</f>
+        <f t="shared" ref="N155" si="63">CONCATENATE("""",F155,"""")</f>
         <v>"ExpressionResultNumeric"</v>
       </c>
       <c r="O155" t="str">
-        <f t="shared" ref="O155" si="63">CONCATENATE("""",G155,"""")</f>
+        <f t="shared" ref="O155" si="64">CONCATENATE("""",G155,"""")</f>
         <v>"DateTimeOffset"</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" ref="P155" si="64">CONCATENATE("""",H155,"""")</f>
+        <f t="shared" ref="P155" si="65">CONCATENATE("""",H155,"""")</f>
         <v>""</v>
       </c>
       <c r="Q155" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R155" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("ToString()", "ExpressionResultLiteral", "ExpressionResultList", "ExpressionResultLiteral", "ExpressionResultNumeric", "DateTimeOffset"));</v>
       </c>
     </row>
@@ -9279,39 +9282,39 @@
         <v>174</v>
       </c>
       <c r="J156" s="5" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>"DECODE()"</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" ref="K156" si="65">CONCATENATE("""",B156,"""")</f>
+        <f t="shared" ref="K156" si="66">CONCATENATE("""",B156,"""")</f>
         <v>"You can invoke nothing on it"</v>
       </c>
       <c r="L156" t="str">
-        <f t="shared" ref="L156" si="66">CONCATENATE("""",D156,"""")</f>
+        <f t="shared" ref="L156" si="67">CONCATENATE("""",D156,"""")</f>
         <v>""</v>
       </c>
       <c r="M156" t="str">
-        <f t="shared" ref="M156" si="67">CONCATENATE("""",E156,"""")</f>
+        <f t="shared" ref="M156" si="68">CONCATENATE("""",E156,"""")</f>
         <v>""</v>
       </c>
       <c r="N156" t="str">
-        <f t="shared" ref="N156" si="68">CONCATENATE("""",F156,"""")</f>
+        <f t="shared" ref="N156" si="69">CONCATENATE("""",F156,"""")</f>
         <v>""</v>
       </c>
       <c r="O156" t="str">
-        <f t="shared" ref="O156" si="69">CONCATENATE("""",G156,"""")</f>
+        <f t="shared" ref="O156" si="70">CONCATENATE("""",G156,"""")</f>
         <v>""</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" ref="P156" si="70">CONCATENATE("""",H156,"""")</f>
+        <f t="shared" ref="P156" si="71">CONCATENATE("""",H156,"""")</f>
         <v>""</v>
       </c>
       <c r="Q156" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R156" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("DECODE()", "You can invoke nothing on it"));</v>
       </c>
     </row>
@@ -9326,39 +9329,39 @@
         <v>129</v>
       </c>
       <c r="J157" s="5" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>"GetPath()"</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" ref="K157" si="71">CONCATENATE("""",B157,"""")</f>
+        <f t="shared" ref="K157" si="72">CONCATENATE("""",B157,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L157" t="str">
-        <f t="shared" ref="L157" si="72">CONCATENATE("""",D157,"""")</f>
+        <f t="shared" ref="L157" si="73">CONCATENATE("""",D157,"""")</f>
         <v>"AlternativeCategory"</v>
       </c>
       <c r="M157" t="str">
-        <f t="shared" ref="M157" si="73">CONCATENATE("""",E157,"""")</f>
+        <f t="shared" ref="M157" si="74">CONCATENATE("""",E157,"""")</f>
         <v>""</v>
       </c>
       <c r="N157" t="str">
-        <f t="shared" ref="N157" si="74">CONCATENATE("""",F157,"""")</f>
+        <f t="shared" ref="N157" si="75">CONCATENATE("""",F157,"""")</f>
         <v>""</v>
       </c>
       <c r="O157" t="str">
-        <f t="shared" ref="O157" si="75">CONCATENATE("""",G157,"""")</f>
+        <f t="shared" ref="O157" si="76">CONCATENATE("""",G157,"""")</f>
         <v>""</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" ref="P157" si="76">CONCATENATE("""",H157,"""")</f>
+        <f t="shared" ref="P157" si="77">CONCATENATE("""",H157,"""")</f>
         <v>""</v>
       </c>
       <c r="Q157" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>""</v>
       </c>
       <c r="R157" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>functions.add(new Function("GetPath()", "ExpressionResultLiteral", "AlternativeCategory"));</v>
       </c>
     </row>
@@ -9373,44 +9376,44 @@
         <v>130</v>
       </c>
       <c r="J158" s="5" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>"CategoryCode"</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" ref="K158" si="77">CONCATENATE("""",B158,"""")</f>
+        <f t="shared" ref="K158" si="78">CONCATENATE("""",B158,"""")</f>
         <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="L158" t="str">
-        <f t="shared" ref="L158" si="78">CONCATENATE("""",D158,"""")</f>
+        <f t="shared" ref="L158" si="79">CONCATENATE("""",D158,"""")</f>
         <v>"Sku"</v>
       </c>
       <c r="M158" t="str">
-        <f t="shared" ref="M158" si="79">CONCATENATE("""",E158,"""")</f>
+        <f t="shared" ref="M158" si="80">CONCATENATE("""",E158,"""")</f>
         <v>""</v>
       </c>
       <c r="N158" t="str">
-        <f t="shared" ref="N158" si="80">CONCATENATE("""",F158,"""")</f>
+        <f t="shared" ref="N158" si="81">CONCATENATE("""",F158,"""")</f>
         <v>""</v>
       </c>
       <c r="O158" t="str">
-        <f t="shared" ref="O158" si="81">CONCATENATE("""",G158,"""")</f>
+        <f t="shared" ref="O158" si="82">CONCATENATE("""",G158,"""")</f>
         <v>""</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" ref="P158" si="82">CONCATENATE("""",H158,"""")</f>
+        <f t="shared" ref="P158" si="83">CONCATENATE("""",H158,"""")</f>
         <v>""</v>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" ref="Q158" si="83">CONCATENATE("""",I158,"""")</f>
+        <f t="shared" ref="Q158" si="84">CONCATENATE("""",I158,"""")</f>
         <v>""</v>
       </c>
       <c r="R158" s="7" t="str">
-        <f t="shared" ref="R158" si="84">SUBSTITUTE(CONCATENATE($S$1,J158,$R$1,K158,$R$1,L158,$R$1,M158,$R$1,N158,$R$1,O158,$R$1,P158,$R$1,Q158,$T$1),", """"","")</f>
+        <f t="shared" ref="R158" si="85">SUBSTITUTE(CONCATENATE($S$1,J158,$R$1,K158,$R$1,L158,$R$1,M158,$R$1,N158,$R$1,O158,$R$1,P158,$R$1,Q158,$T$1),", """"","")</f>
         <v>functions.add(new Function("CategoryCode", "ExpressionResultLiteral", "Sku"));</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H157"/>
+  <autoFilter ref="A1:H158"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/membersOf_v2.xlsx
+++ b/membersOf_v2.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="196">
   <si>
     <t>AltCats</t>
   </si>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="G62" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86:R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5797,6 +5797,9 @@
       <c r="D86" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E86" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="J86" s="5" t="str">
         <f t="shared" si="11"/>
         <v>"Round()"</v>
@@ -5811,7 +5814,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="15"/>
@@ -5831,7 +5834,7 @@
       </c>
       <c r="R86" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>functions.add(new Function("Round()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
+        <v>functions.add(new Function("Round()", "ExpressionResultNumeric", "ExpressionResultNumeric", "ExpressionResultLiteral"));</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5847,6 +5850,9 @@
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E87" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="J87" s="5" t="str">
         <f t="shared" si="11"/>
         <v>"AtLeast()"</v>
@@ -5861,7 +5867,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="15"/>
@@ -5881,7 +5887,7 @@
       </c>
       <c r="R87" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>functions.add(new Function("AtLeast()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
+        <v>functions.add(new Function("AtLeast()", "ExpressionResultNumeric", "ExpressionResultNumeric", "ExpressionResultLiteral"));</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -5897,6 +5903,9 @@
       <c r="D88" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E88" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="J88" s="5" t="str">
         <f t="shared" si="11"/>
         <v>"AtMost()"</v>
@@ -5911,7 +5920,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="14"/>
-        <v>""</v>
+        <v>"ExpressionResultLiteral"</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="15"/>
@@ -5931,7 +5940,7 @@
       </c>
       <c r="R88" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>functions.add(new Function("AtMost()", "ExpressionResultNumeric", "ExpressionResultNumeric"));</v>
+        <v>functions.add(new Function("AtMost()", "ExpressionResultNumeric", "ExpressionResultNumeric", "ExpressionResultLiteral"));</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
